--- a/Code/Results/Cases/Case_0_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9309245065710952</v>
+        <v>0.9309245065710968</v>
       </c>
       <c r="D2">
-        <v>0.9401110658653573</v>
+        <v>0.9401110658653591</v>
       </c>
       <c r="E2">
-        <v>0.94636024224354</v>
+        <v>0.9463602422435416</v>
       </c>
       <c r="F2">
-        <v>0.948155468586124</v>
+        <v>0.948155468586125</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.034048187943107</v>
       </c>
       <c r="J2">
-        <v>0.9553876277762849</v>
+        <v>0.9553876277762865</v>
       </c>
       <c r="K2">
-        <v>0.9524729962771825</v>
+        <v>0.9524729962771841</v>
       </c>
       <c r="L2">
-        <v>0.9586211461929324</v>
+        <v>0.958621146192934</v>
       </c>
       <c r="M2">
-        <v>0.9603876658645016</v>
+        <v>0.9603876658645027</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9449083012367766</v>
+        <v>0.9449083012367749</v>
       </c>
       <c r="D3">
-        <v>0.9532391537655746</v>
+        <v>0.953239153765573</v>
       </c>
       <c r="E3">
-        <v>0.9581191682696333</v>
+        <v>0.9581191682696318</v>
       </c>
       <c r="F3">
-        <v>0.9618972394563505</v>
+        <v>0.9618972394563493</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.037277263062033</v>
       </c>
       <c r="J3">
-        <v>0.9670224495563473</v>
+        <v>0.9670224495563459</v>
       </c>
       <c r="K3">
-        <v>0.964507503838321</v>
+        <v>0.9645075038383194</v>
       </c>
       <c r="L3">
-        <v>0.9693175336432821</v>
+        <v>0.9693175336432807</v>
       </c>
       <c r="M3">
-        <v>0.9730420395855682</v>
+        <v>0.9730420395855672</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9534348384477114</v>
+        <v>0.9534348384477103</v>
       </c>
       <c r="D4">
-        <v>0.9612524283505295</v>
+        <v>0.9612524283505285</v>
       </c>
       <c r="E4">
-        <v>0.9653013444813066</v>
+        <v>0.9653013444813052</v>
       </c>
       <c r="F4">
-        <v>0.9702708279932695</v>
+        <v>0.9702708279932686</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039214631273541</v>
+        <v>1.03921463127354</v>
       </c>
       <c r="J4">
-        <v>0.9741096490146816</v>
+        <v>0.9741096490146803</v>
       </c>
       <c r="K4">
-        <v>0.9718421478559384</v>
+        <v>0.971842147855937</v>
       </c>
       <c r="L4">
-        <v>0.9758374130356298</v>
+        <v>0.9758374130356288</v>
       </c>
       <c r="M4">
-        <v>0.9807418139372057</v>
+        <v>0.9807418139372048</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9569078655615348</v>
+        <v>0.9569078655615356</v>
       </c>
       <c r="D5">
-        <v>0.9645181740140623</v>
+        <v>0.964518174014063</v>
       </c>
       <c r="E5">
-        <v>0.9682293722202371</v>
+        <v>0.9682293722202379</v>
       </c>
       <c r="F5">
-        <v>0.9736798718588615</v>
+        <v>0.9736798718588623</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039995827097328</v>
+        <v>1.039995827097329</v>
       </c>
       <c r="J5">
-        <v>0.9769944988801631</v>
+        <v>0.976994498880164</v>
       </c>
       <c r="K5">
-        <v>0.9748286721971392</v>
+        <v>0.9748286721971399</v>
       </c>
       <c r="L5">
-        <v>0.9784923252430084</v>
+        <v>0.9784923252430093</v>
       </c>
       <c r="M5">
-        <v>0.9838738167020989</v>
+        <v>0.9838738167020995</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9574848073853356</v>
+        <v>0.9574848073853351</v>
       </c>
       <c r="D6">
-        <v>0.9650607802069686</v>
+        <v>0.9650607802069681</v>
       </c>
       <c r="E6">
-        <v>0.968715921455152</v>
+        <v>0.9687159214551517</v>
       </c>
       <c r="F6">
-        <v>0.9742460752209103</v>
+        <v>0.9742460752209101</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.040125122957702</v>
       </c>
       <c r="J6">
-        <v>0.977473614471388</v>
+        <v>0.9774736144713876</v>
       </c>
       <c r="K6">
-        <v>0.9753247298727039</v>
+        <v>0.9753247298727035</v>
       </c>
       <c r="L6">
-        <v>0.9789333099913938</v>
+        <v>0.9789333099913933</v>
       </c>
       <c r="M6">
-        <v>0.9843938457248563</v>
+        <v>0.9843938457248561</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9534816675051817</v>
+        <v>0.9534816675051803</v>
       </c>
       <c r="D7">
-        <v>0.9612964557244691</v>
+        <v>0.9612964557244679</v>
       </c>
       <c r="E7">
-        <v>0.9653408150954031</v>
+        <v>0.965340815095402</v>
       </c>
       <c r="F7">
-        <v>0.9703168015055308</v>
+        <v>0.97031680150553</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.039225196664924</v>
       </c>
       <c r="J7">
-        <v>0.9741485551442475</v>
+        <v>0.974148555144246</v>
       </c>
       <c r="K7">
-        <v>0.9718824214174996</v>
+        <v>0.9718824214174983</v>
       </c>
       <c r="L7">
-        <v>0.9758732142530062</v>
+        <v>0.9758732142530052</v>
       </c>
       <c r="M7">
-        <v>0.9807840622050622</v>
+        <v>0.9807840622050612</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9357673766590293</v>
+        <v>0.9357673766590303</v>
       </c>
       <c r="D8">
-        <v>0.9446555790932134</v>
+        <v>0.9446555790932143</v>
       </c>
       <c r="E8">
-        <v>0.9504297180640057</v>
+        <v>0.9504297180640067</v>
       </c>
       <c r="F8">
-        <v>0.9529154076322862</v>
+        <v>0.952915407632287</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035173027603455</v>
+        <v>1.035173027603454</v>
       </c>
       <c r="J8">
-        <v>0.9594183768626247</v>
+        <v>0.9594183768626255</v>
       </c>
       <c r="K8">
-        <v>0.9566413516496389</v>
+        <v>0.9566413516496398</v>
       </c>
       <c r="L8">
-        <v>0.9623258246172005</v>
+        <v>0.9623258246172013</v>
       </c>
       <c r="M8">
-        <v>0.9647733410049926</v>
+        <v>0.9647733410049932</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8997756927617607</v>
+        <v>0.8997756927617621</v>
       </c>
       <c r="D9">
-        <v>0.9109354221314651</v>
+        <v>0.9109354221314664</v>
       </c>
       <c r="E9">
-        <v>0.9202625761134892</v>
+        <v>0.9202625761134903</v>
       </c>
       <c r="F9">
-        <v>0.9175379606982382</v>
+        <v>0.917537960698239</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.026687652972073</v>
       </c>
       <c r="J9">
-        <v>0.9294419400408001</v>
+        <v>0.9294419400408013</v>
       </c>
       <c r="K9">
-        <v>0.9256601564913851</v>
+        <v>0.9256601564913864</v>
       </c>
       <c r="L9">
-        <v>0.9347969434174082</v>
+        <v>0.9347969434174092</v>
       </c>
       <c r="M9">
-        <v>0.9321274101299646</v>
+        <v>0.9321274101299655</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.871041674914539</v>
+        <v>0.8710416749145428</v>
       </c>
       <c r="D10">
-        <v>0.8841127693401204</v>
+        <v>0.8841127693401239</v>
       </c>
       <c r="E10">
-        <v>0.8963156297354365</v>
+        <v>0.8963156297354397</v>
       </c>
       <c r="F10">
-        <v>0.8893306472692463</v>
+        <v>0.8893306472692489</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019777198061769</v>
+        <v>1.01977719806177</v>
       </c>
       <c r="J10">
-        <v>0.9055042537505135</v>
+        <v>0.9055042537505166</v>
       </c>
       <c r="K10">
-        <v>0.9009453328989272</v>
+        <v>0.9009453328989306</v>
       </c>
       <c r="L10">
-        <v>0.9128484575611746</v>
+        <v>0.9128484575611775</v>
       </c>
       <c r="M10">
-        <v>0.9060336898753243</v>
+        <v>0.9060336898753272</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8569186625958755</v>
+        <v>0.856918662595874</v>
       </c>
       <c r="D11">
-        <v>0.870964874111261</v>
+        <v>0.8709648741112594</v>
       </c>
       <c r="E11">
-        <v>0.8845947715415792</v>
+        <v>0.8845947715415777</v>
       </c>
       <c r="F11">
-        <v>0.8754941039425851</v>
+        <v>0.8754941039425844</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.016362331236487</v>
       </c>
       <c r="J11">
-        <v>0.8937474797743664</v>
+        <v>0.8937474797743652</v>
       </c>
       <c r="K11">
-        <v>0.8888130885649924</v>
+        <v>0.8888130885649907</v>
       </c>
       <c r="L11">
-        <v>0.9020791393505005</v>
+        <v>0.9020791393504992</v>
       </c>
       <c r="M11">
-        <v>0.8932197027586805</v>
+        <v>0.8932197027586796</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8513443657534605</v>
+        <v>0.8513443657534584</v>
       </c>
       <c r="D12">
-        <v>0.8657823999690479</v>
+        <v>0.8657823999690455</v>
       </c>
       <c r="E12">
-        <v>0.8799781226757215</v>
+        <v>0.8799781226757195</v>
       </c>
       <c r="F12">
-        <v>0.8700395481380169</v>
+        <v>0.8700395481380152</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01501357833223</v>
+        <v>1.015013578332229</v>
       </c>
       <c r="J12">
-        <v>0.8891098205227325</v>
+        <v>0.8891098205227304</v>
       </c>
       <c r="K12">
-        <v>0.8840282664148216</v>
+        <v>0.8840282664148195</v>
       </c>
       <c r="L12">
-        <v>0.8978328462894631</v>
+        <v>0.8978328462894615</v>
       </c>
       <c r="M12">
-        <v>0.8881662862085492</v>
+        <v>0.8881662862085473</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.852556555823568</v>
+        <v>0.8525565558235687</v>
       </c>
       <c r="D13">
-        <v>0.8669090400169994</v>
+        <v>0.866909040017</v>
       </c>
       <c r="E13">
-        <v>0.8809815915868833</v>
+        <v>0.8809815915868836</v>
       </c>
       <c r="F13">
-        <v>0.8712253474760095</v>
+        <v>0.8712253474760104</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.015306882840464</v>
       </c>
       <c r="J13">
-        <v>0.8901181795776346</v>
+        <v>0.8901181795776353</v>
       </c>
       <c r="K13">
-        <v>0.8850685801868636</v>
+        <v>0.8850685801868643</v>
       </c>
       <c r="L13">
-        <v>0.8987560228885406</v>
+        <v>0.8987560228885408</v>
       </c>
       <c r="M13">
-        <v>0.889264963895372</v>
+        <v>0.8892649638953729</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8564651582865046</v>
+        <v>0.8564651582865027</v>
       </c>
       <c r="D14">
-        <v>0.8705430968642434</v>
+        <v>0.8705430968642416</v>
       </c>
       <c r="E14">
-        <v>0.8842189724462961</v>
+        <v>0.8842189724462942</v>
       </c>
       <c r="F14">
-        <v>0.8750501896566811</v>
+        <v>0.8750501896566797</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016252607005022</v>
+        <v>1.016252607005021</v>
       </c>
       <c r="J14">
-        <v>0.8933701131248764</v>
+        <v>0.8933701131248747</v>
       </c>
       <c r="K14">
-        <v>0.8884237282451974</v>
+        <v>0.8884237282451958</v>
       </c>
       <c r="L14">
-        <v>0.9017335793503201</v>
+        <v>0.9017335793503183</v>
       </c>
       <c r="M14">
-        <v>0.8928084728762803</v>
+        <v>0.892808472876279</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8588269836393709</v>
+        <v>0.8588269836393727</v>
       </c>
       <c r="D15">
-        <v>0.872739977638104</v>
+        <v>0.8727399776381058</v>
       </c>
       <c r="E15">
-        <v>0.8861765081361554</v>
+        <v>0.8861765081361571</v>
       </c>
       <c r="F15">
-        <v>0.8773623545616087</v>
+        <v>0.8773623545616102</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016824020629235</v>
+        <v>1.016824020629236</v>
       </c>
       <c r="J15">
-        <v>0.8953355347365369</v>
+        <v>0.8953355347365386</v>
       </c>
       <c r="K15">
-        <v>0.8904516538573598</v>
+        <v>0.8904516538573615</v>
       </c>
       <c r="L15">
-        <v>0.9035334194388727</v>
+        <v>0.9035334194388744</v>
       </c>
       <c r="M15">
-        <v>0.8949503210109321</v>
+        <v>0.8949503210109334</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.871937837862868</v>
+        <v>0.8719378378628663</v>
       </c>
       <c r="D16">
-        <v>0.884947882878117</v>
+        <v>0.8849478828781151</v>
       </c>
       <c r="E16">
-        <v>0.8970605020574784</v>
+        <v>0.897060502057477</v>
       </c>
       <c r="F16">
-        <v>0.8902093642640031</v>
+        <v>0.8902093642640022</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.019993654174141</v>
       </c>
       <c r="J16">
-        <v>0.9062505432871765</v>
+        <v>0.9062505432871749</v>
       </c>
       <c r="K16">
-        <v>0.901715581325972</v>
+        <v>0.9017155813259704</v>
       </c>
       <c r="L16">
-        <v>0.9135322947906306</v>
+        <v>0.9135322947906294</v>
       </c>
       <c r="M16">
-        <v>0.9068471958883519</v>
+        <v>0.9068471958883509</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.879668119763902</v>
+        <v>0.8796681197639009</v>
       </c>
       <c r="D17">
-        <v>0.8921555089804207</v>
+        <v>0.8921555089804193</v>
       </c>
       <c r="E17">
-        <v>0.9034912140143234</v>
+        <v>0.9034912140143219</v>
       </c>
       <c r="F17">
-        <v>0.8977923082553053</v>
+        <v>0.8977923082553042</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021858970241122</v>
+        <v>1.021858970241121</v>
       </c>
       <c r="J17">
-        <v>0.912689066452539</v>
+        <v>0.9126890664525378</v>
       </c>
       <c r="K17">
-        <v>0.9083614773732431</v>
+        <v>0.908361477373242</v>
       </c>
       <c r="L17">
-        <v>0.9194331671021858</v>
+        <v>0.9194331671021845</v>
       </c>
       <c r="M17">
-        <v>0.913865877029623</v>
+        <v>0.9138658770296219</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8840212892507588</v>
+        <v>0.8840212892507583</v>
       </c>
       <c r="D18">
-        <v>0.8962174151570136</v>
+        <v>0.8962174151570129</v>
       </c>
       <c r="E18">
-        <v>0.9071167880138165</v>
+        <v>0.9071167880138159</v>
       </c>
       <c r="F18">
-        <v>0.9020647767459248</v>
+        <v>0.9020647767459243</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.022907621518845</v>
       </c>
       <c r="J18">
-        <v>0.9163154869270229</v>
+        <v>0.9163154869270224</v>
       </c>
       <c r="K18">
-        <v>0.9121052514096903</v>
+        <v>0.9121052514096897</v>
       </c>
       <c r="L18">
-        <v>0.9227576766338361</v>
+        <v>0.9227576766338359</v>
       </c>
       <c r="M18">
-        <v>0.9178191393244497</v>
+        <v>0.9178191393244493</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8854809769786162</v>
+        <v>0.8854809769786161</v>
       </c>
       <c r="D19">
-        <v>0.89757992166015</v>
+        <v>0.8975799216601502</v>
       </c>
       <c r="E19">
         <v>0.9083331722874355</v>
       </c>
       <c r="F19">
-        <v>0.9034977337482309</v>
+        <v>0.9034977337482308</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.023258909657343</v>
       </c>
       <c r="J19">
-        <v>0.9175315695471148</v>
+        <v>0.9175315695471147</v>
       </c>
       <c r="K19">
         <v>0.9133607808360963</v>
       </c>
       <c r="L19">
-        <v>0.9238726655341636</v>
+        <v>0.9238726655341635</v>
       </c>
       <c r="M19">
-        <v>0.9191448153498822</v>
+        <v>0.9191448153498825</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8788552887460181</v>
+        <v>0.8788552887460169</v>
       </c>
       <c r="D20">
-        <v>0.8913973050034495</v>
+        <v>0.8913973050034482</v>
       </c>
       <c r="E20">
-        <v>0.9028145757715708</v>
+        <v>0.9028145757715696</v>
       </c>
       <c r="F20">
-        <v>0.8969947178521808</v>
+        <v>0.8969947178521801</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021663009164003</v>
+        <v>1.021663009164002</v>
       </c>
       <c r="J20">
-        <v>0.912011983494644</v>
+        <v>0.9120119834946429</v>
       </c>
       <c r="K20">
-        <v>0.9076625287491504</v>
+        <v>0.9076625287491492</v>
       </c>
       <c r="L20">
-        <v>0.9188125267890052</v>
+        <v>0.9188125267890042</v>
       </c>
       <c r="M20">
-        <v>0.9131277705061046</v>
+        <v>0.9131277705061038</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8553240297670905</v>
+        <v>0.8553240297670912</v>
       </c>
       <c r="D21">
-        <v>0.869481918422367</v>
+        <v>0.8694819184223676</v>
       </c>
       <c r="E21">
-        <v>0.8832735295329517</v>
+        <v>0.8832735295329518</v>
       </c>
       <c r="F21">
-        <v>0.8739333085846098</v>
+        <v>0.8739333085846104</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.015976506698171</v>
       </c>
       <c r="J21">
-        <v>0.8924206142058314</v>
+        <v>0.8924206142058321</v>
       </c>
       <c r="K21">
-        <v>0.8874440669527259</v>
+        <v>0.8874440669527265</v>
       </c>
       <c r="L21">
-        <v>0.9008641401855454</v>
+        <v>0.9008641401855457</v>
       </c>
       <c r="M21">
-        <v>0.8917737946864254</v>
+        <v>0.8917737946864259</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8385591467607599</v>
+        <v>0.8385591467607615</v>
       </c>
       <c r="D22">
-        <v>0.8539114702776252</v>
+        <v>0.8539114702776269</v>
       </c>
       <c r="E22">
-        <v>0.8694106600092758</v>
+        <v>0.8694106600092769</v>
       </c>
       <c r="F22">
-        <v>0.857545609579947</v>
+        <v>0.8575456095799477</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011921188294745</v>
+        <v>1.011921188294746</v>
       </c>
       <c r="J22">
-        <v>0.8784801482330137</v>
+        <v>0.8784801482330153</v>
       </c>
       <c r="K22">
-        <v>0.8730630925104662</v>
+        <v>0.8730630925104678</v>
       </c>
       <c r="L22">
-        <v>0.8881041008487016</v>
+        <v>0.8881041008487029</v>
       </c>
       <c r="M22">
-        <v>0.8765877554446789</v>
+        <v>0.8765877554446797</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8476696193113993</v>
+        <v>0.8476696193114047</v>
       </c>
       <c r="D23">
-        <v>0.8623681827968682</v>
+        <v>0.8623681827968731</v>
       </c>
       <c r="E23">
-        <v>0.8769377312150441</v>
+        <v>0.8769377312150489</v>
       </c>
       <c r="F23">
-        <v>0.8664460515116943</v>
+        <v>0.866446051511699</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014124480353804</v>
+        <v>1.014124480353805</v>
       </c>
       <c r="J23">
-        <v>0.886053526165002</v>
+        <v>0.8860535261650068</v>
       </c>
       <c r="K23">
-        <v>0.8808752587855361</v>
+        <v>0.880875258785541</v>
       </c>
       <c r="L23">
-        <v>0.8950350353961536</v>
+        <v>0.8950350353961581</v>
       </c>
       <c r="M23">
-        <v>0.88483653659162</v>
+        <v>0.8848365365916246</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8792230482385155</v>
+        <v>0.8792230482385134</v>
       </c>
       <c r="D24">
-        <v>0.8917403393935217</v>
+        <v>0.8917403393935197</v>
       </c>
       <c r="E24">
-        <v>0.9031207026942341</v>
+        <v>0.9031207026942322</v>
       </c>
       <c r="F24">
-        <v>0.8973555748855203</v>
+        <v>0.8973555748855186</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.021751675993933</v>
       </c>
       <c r="J24">
-        <v>0.9123183227138976</v>
+        <v>0.9123183227138955</v>
       </c>
       <c r="K24">
-        <v>0.9079787591304496</v>
+        <v>0.9079787591304477</v>
       </c>
       <c r="L24">
-        <v>0.9190933262652023</v>
+        <v>0.9190933262652007</v>
       </c>
       <c r="M24">
-        <v>0.9134617190409534</v>
+        <v>0.9134617190409517</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9097755087685605</v>
+        <v>0.9097755087685625</v>
       </c>
       <c r="D25">
-        <v>0.9202911897155539</v>
+        <v>0.9202911897155559</v>
       </c>
       <c r="E25">
-        <v>0.9286258749564166</v>
+        <v>0.9286258749564182</v>
       </c>
       <c r="F25">
-        <v>0.9273655351707565</v>
+        <v>0.9273655351707583</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029070411235868</v>
+        <v>1.029070411235869</v>
       </c>
       <c r="J25">
-        <v>0.9377737543546376</v>
+        <v>0.9377737543546394</v>
       </c>
       <c r="K25">
-        <v>0.9342672350398949</v>
+        <v>0.9342672350398969</v>
       </c>
       <c r="L25">
-        <v>0.9424433972399627</v>
+        <v>0.9424433972399644</v>
       </c>
       <c r="M25">
-        <v>0.9412067897855934</v>
+        <v>0.9412067897855949</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9309245065710968</v>
+        <v>0.9309245065710952</v>
       </c>
       <c r="D2">
-        <v>0.9401110658653591</v>
+        <v>0.9401110658653573</v>
       </c>
       <c r="E2">
-        <v>0.9463602422435416</v>
+        <v>0.94636024224354</v>
       </c>
       <c r="F2">
-        <v>0.948155468586125</v>
+        <v>0.948155468586124</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.034048187943107</v>
       </c>
       <c r="J2">
-        <v>0.9553876277762865</v>
+        <v>0.9553876277762849</v>
       </c>
       <c r="K2">
-        <v>0.9524729962771841</v>
+        <v>0.9524729962771825</v>
       </c>
       <c r="L2">
-        <v>0.958621146192934</v>
+        <v>0.9586211461929324</v>
       </c>
       <c r="M2">
-        <v>0.9603876658645027</v>
+        <v>0.9603876658645016</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9449083012367749</v>
+        <v>0.9449083012367766</v>
       </c>
       <c r="D3">
-        <v>0.953239153765573</v>
+        <v>0.9532391537655746</v>
       </c>
       <c r="E3">
-        <v>0.9581191682696318</v>
+        <v>0.9581191682696333</v>
       </c>
       <c r="F3">
-        <v>0.9618972394563493</v>
+        <v>0.9618972394563505</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.037277263062033</v>
       </c>
       <c r="J3">
-        <v>0.9670224495563459</v>
+        <v>0.9670224495563473</v>
       </c>
       <c r="K3">
-        <v>0.9645075038383194</v>
+        <v>0.964507503838321</v>
       </c>
       <c r="L3">
-        <v>0.9693175336432807</v>
+        <v>0.9693175336432821</v>
       </c>
       <c r="M3">
-        <v>0.9730420395855672</v>
+        <v>0.9730420395855682</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9534348384477103</v>
+        <v>0.9534348384477114</v>
       </c>
       <c r="D4">
-        <v>0.9612524283505285</v>
+        <v>0.9612524283505295</v>
       </c>
       <c r="E4">
-        <v>0.9653013444813052</v>
+        <v>0.9653013444813066</v>
       </c>
       <c r="F4">
-        <v>0.9702708279932686</v>
+        <v>0.9702708279932695</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03921463127354</v>
+        <v>1.039214631273541</v>
       </c>
       <c r="J4">
-        <v>0.9741096490146803</v>
+        <v>0.9741096490146816</v>
       </c>
       <c r="K4">
-        <v>0.971842147855937</v>
+        <v>0.9718421478559384</v>
       </c>
       <c r="L4">
-        <v>0.9758374130356288</v>
+        <v>0.9758374130356298</v>
       </c>
       <c r="M4">
-        <v>0.9807418139372048</v>
+        <v>0.9807418139372057</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9569078655615356</v>
+        <v>0.9569078655615348</v>
       </c>
       <c r="D5">
-        <v>0.964518174014063</v>
+        <v>0.9645181740140623</v>
       </c>
       <c r="E5">
-        <v>0.9682293722202379</v>
+        <v>0.9682293722202371</v>
       </c>
       <c r="F5">
-        <v>0.9736798718588623</v>
+        <v>0.9736798718588615</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039995827097329</v>
+        <v>1.039995827097328</v>
       </c>
       <c r="J5">
-        <v>0.976994498880164</v>
+        <v>0.9769944988801631</v>
       </c>
       <c r="K5">
-        <v>0.9748286721971399</v>
+        <v>0.9748286721971392</v>
       </c>
       <c r="L5">
-        <v>0.9784923252430093</v>
+        <v>0.9784923252430084</v>
       </c>
       <c r="M5">
-        <v>0.9838738167020995</v>
+        <v>0.9838738167020989</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9574848073853351</v>
+        <v>0.9574848073853356</v>
       </c>
       <c r="D6">
-        <v>0.9650607802069681</v>
+        <v>0.9650607802069686</v>
       </c>
       <c r="E6">
-        <v>0.9687159214551517</v>
+        <v>0.968715921455152</v>
       </c>
       <c r="F6">
-        <v>0.9742460752209101</v>
+        <v>0.9742460752209103</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.040125122957702</v>
       </c>
       <c r="J6">
-        <v>0.9774736144713876</v>
+        <v>0.977473614471388</v>
       </c>
       <c r="K6">
-        <v>0.9753247298727035</v>
+        <v>0.9753247298727039</v>
       </c>
       <c r="L6">
-        <v>0.9789333099913933</v>
+        <v>0.9789333099913938</v>
       </c>
       <c r="M6">
-        <v>0.9843938457248561</v>
+        <v>0.9843938457248563</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9534816675051803</v>
+        <v>0.9534816675051817</v>
       </c>
       <c r="D7">
-        <v>0.9612964557244679</v>
+        <v>0.9612964557244691</v>
       </c>
       <c r="E7">
-        <v>0.965340815095402</v>
+        <v>0.9653408150954031</v>
       </c>
       <c r="F7">
-        <v>0.97031680150553</v>
+        <v>0.9703168015055308</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.039225196664924</v>
       </c>
       <c r="J7">
-        <v>0.974148555144246</v>
+        <v>0.9741485551442475</v>
       </c>
       <c r="K7">
-        <v>0.9718824214174983</v>
+        <v>0.9718824214174996</v>
       </c>
       <c r="L7">
-        <v>0.9758732142530052</v>
+        <v>0.9758732142530062</v>
       </c>
       <c r="M7">
-        <v>0.9807840622050612</v>
+        <v>0.9807840622050622</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9357673766590303</v>
+        <v>0.9357673766590293</v>
       </c>
       <c r="D8">
-        <v>0.9446555790932143</v>
+        <v>0.9446555790932134</v>
       </c>
       <c r="E8">
-        <v>0.9504297180640067</v>
+        <v>0.9504297180640057</v>
       </c>
       <c r="F8">
-        <v>0.952915407632287</v>
+        <v>0.9529154076322862</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035173027603454</v>
+        <v>1.035173027603455</v>
       </c>
       <c r="J8">
-        <v>0.9594183768626255</v>
+        <v>0.9594183768626247</v>
       </c>
       <c r="K8">
-        <v>0.9566413516496398</v>
+        <v>0.9566413516496389</v>
       </c>
       <c r="L8">
-        <v>0.9623258246172013</v>
+        <v>0.9623258246172005</v>
       </c>
       <c r="M8">
-        <v>0.9647733410049932</v>
+        <v>0.9647733410049926</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8997756927617621</v>
+        <v>0.8997756927617607</v>
       </c>
       <c r="D9">
-        <v>0.9109354221314664</v>
+        <v>0.9109354221314651</v>
       </c>
       <c r="E9">
-        <v>0.9202625761134903</v>
+        <v>0.9202625761134892</v>
       </c>
       <c r="F9">
-        <v>0.917537960698239</v>
+        <v>0.9175379606982382</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.026687652972073</v>
       </c>
       <c r="J9">
-        <v>0.9294419400408013</v>
+        <v>0.9294419400408001</v>
       </c>
       <c r="K9">
-        <v>0.9256601564913864</v>
+        <v>0.9256601564913851</v>
       </c>
       <c r="L9">
-        <v>0.9347969434174092</v>
+        <v>0.9347969434174082</v>
       </c>
       <c r="M9">
-        <v>0.9321274101299655</v>
+        <v>0.9321274101299646</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8710416749145428</v>
+        <v>0.871041674914539</v>
       </c>
       <c r="D10">
-        <v>0.8841127693401239</v>
+        <v>0.8841127693401204</v>
       </c>
       <c r="E10">
-        <v>0.8963156297354397</v>
+        <v>0.8963156297354365</v>
       </c>
       <c r="F10">
-        <v>0.8893306472692489</v>
+        <v>0.8893306472692463</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01977719806177</v>
+        <v>1.019777198061769</v>
       </c>
       <c r="J10">
-        <v>0.9055042537505166</v>
+        <v>0.9055042537505135</v>
       </c>
       <c r="K10">
-        <v>0.9009453328989306</v>
+        <v>0.9009453328989272</v>
       </c>
       <c r="L10">
-        <v>0.9128484575611775</v>
+        <v>0.9128484575611746</v>
       </c>
       <c r="M10">
-        <v>0.9060336898753272</v>
+        <v>0.9060336898753243</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.856918662595874</v>
+        <v>0.8569186625958755</v>
       </c>
       <c r="D11">
-        <v>0.8709648741112594</v>
+        <v>0.870964874111261</v>
       </c>
       <c r="E11">
-        <v>0.8845947715415777</v>
+        <v>0.8845947715415792</v>
       </c>
       <c r="F11">
-        <v>0.8754941039425844</v>
+        <v>0.8754941039425851</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.016362331236487</v>
       </c>
       <c r="J11">
-        <v>0.8937474797743652</v>
+        <v>0.8937474797743664</v>
       </c>
       <c r="K11">
-        <v>0.8888130885649907</v>
+        <v>0.8888130885649924</v>
       </c>
       <c r="L11">
-        <v>0.9020791393504992</v>
+        <v>0.9020791393505005</v>
       </c>
       <c r="M11">
-        <v>0.8932197027586796</v>
+        <v>0.8932197027586805</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8513443657534584</v>
+        <v>0.8513443657534605</v>
       </c>
       <c r="D12">
-        <v>0.8657823999690455</v>
+        <v>0.8657823999690479</v>
       </c>
       <c r="E12">
-        <v>0.8799781226757195</v>
+        <v>0.8799781226757215</v>
       </c>
       <c r="F12">
-        <v>0.8700395481380152</v>
+        <v>0.8700395481380169</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015013578332229</v>
+        <v>1.01501357833223</v>
       </c>
       <c r="J12">
-        <v>0.8891098205227304</v>
+        <v>0.8891098205227325</v>
       </c>
       <c r="K12">
-        <v>0.8840282664148195</v>
+        <v>0.8840282664148216</v>
       </c>
       <c r="L12">
-        <v>0.8978328462894615</v>
+        <v>0.8978328462894631</v>
       </c>
       <c r="M12">
-        <v>0.8881662862085473</v>
+        <v>0.8881662862085492</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8525565558235687</v>
+        <v>0.852556555823568</v>
       </c>
       <c r="D13">
-        <v>0.866909040017</v>
+        <v>0.8669090400169994</v>
       </c>
       <c r="E13">
-        <v>0.8809815915868836</v>
+        <v>0.8809815915868833</v>
       </c>
       <c r="F13">
-        <v>0.8712253474760104</v>
+        <v>0.8712253474760095</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.015306882840464</v>
       </c>
       <c r="J13">
-        <v>0.8901181795776353</v>
+        <v>0.8901181795776346</v>
       </c>
       <c r="K13">
-        <v>0.8850685801868643</v>
+        <v>0.8850685801868636</v>
       </c>
       <c r="L13">
-        <v>0.8987560228885408</v>
+        <v>0.8987560228885406</v>
       </c>
       <c r="M13">
-        <v>0.8892649638953729</v>
+        <v>0.889264963895372</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8564651582865027</v>
+        <v>0.8564651582865046</v>
       </c>
       <c r="D14">
-        <v>0.8705430968642416</v>
+        <v>0.8705430968642434</v>
       </c>
       <c r="E14">
-        <v>0.8842189724462942</v>
+        <v>0.8842189724462961</v>
       </c>
       <c r="F14">
-        <v>0.8750501896566797</v>
+        <v>0.8750501896566811</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016252607005021</v>
+        <v>1.016252607005022</v>
       </c>
       <c r="J14">
-        <v>0.8933701131248747</v>
+        <v>0.8933701131248764</v>
       </c>
       <c r="K14">
-        <v>0.8884237282451958</v>
+        <v>0.8884237282451974</v>
       </c>
       <c r="L14">
-        <v>0.9017335793503183</v>
+        <v>0.9017335793503201</v>
       </c>
       <c r="M14">
-        <v>0.892808472876279</v>
+        <v>0.8928084728762803</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8588269836393727</v>
+        <v>0.8588269836393709</v>
       </c>
       <c r="D15">
-        <v>0.8727399776381058</v>
+        <v>0.872739977638104</v>
       </c>
       <c r="E15">
-        <v>0.8861765081361571</v>
+        <v>0.8861765081361554</v>
       </c>
       <c r="F15">
-        <v>0.8773623545616102</v>
+        <v>0.8773623545616087</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016824020629236</v>
+        <v>1.016824020629235</v>
       </c>
       <c r="J15">
-        <v>0.8953355347365386</v>
+        <v>0.8953355347365369</v>
       </c>
       <c r="K15">
-        <v>0.8904516538573615</v>
+        <v>0.8904516538573598</v>
       </c>
       <c r="L15">
-        <v>0.9035334194388744</v>
+        <v>0.9035334194388727</v>
       </c>
       <c r="M15">
-        <v>0.8949503210109334</v>
+        <v>0.8949503210109321</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8719378378628663</v>
+        <v>0.871937837862868</v>
       </c>
       <c r="D16">
-        <v>0.8849478828781151</v>
+        <v>0.884947882878117</v>
       </c>
       <c r="E16">
-        <v>0.897060502057477</v>
+        <v>0.8970605020574784</v>
       </c>
       <c r="F16">
-        <v>0.8902093642640022</v>
+        <v>0.8902093642640031</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.019993654174141</v>
       </c>
       <c r="J16">
-        <v>0.9062505432871749</v>
+        <v>0.9062505432871765</v>
       </c>
       <c r="K16">
-        <v>0.9017155813259704</v>
+        <v>0.901715581325972</v>
       </c>
       <c r="L16">
-        <v>0.9135322947906294</v>
+        <v>0.9135322947906306</v>
       </c>
       <c r="M16">
-        <v>0.9068471958883509</v>
+        <v>0.9068471958883519</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8796681197639009</v>
+        <v>0.879668119763902</v>
       </c>
       <c r="D17">
-        <v>0.8921555089804193</v>
+        <v>0.8921555089804207</v>
       </c>
       <c r="E17">
-        <v>0.9034912140143219</v>
+        <v>0.9034912140143234</v>
       </c>
       <c r="F17">
-        <v>0.8977923082553042</v>
+        <v>0.8977923082553053</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021858970241121</v>
+        <v>1.021858970241122</v>
       </c>
       <c r="J17">
-        <v>0.9126890664525378</v>
+        <v>0.912689066452539</v>
       </c>
       <c r="K17">
-        <v>0.908361477373242</v>
+        <v>0.9083614773732431</v>
       </c>
       <c r="L17">
-        <v>0.9194331671021845</v>
+        <v>0.9194331671021858</v>
       </c>
       <c r="M17">
-        <v>0.9138658770296219</v>
+        <v>0.913865877029623</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8840212892507583</v>
+        <v>0.8840212892507588</v>
       </c>
       <c r="D18">
-        <v>0.8962174151570129</v>
+        <v>0.8962174151570136</v>
       </c>
       <c r="E18">
-        <v>0.9071167880138159</v>
+        <v>0.9071167880138165</v>
       </c>
       <c r="F18">
-        <v>0.9020647767459243</v>
+        <v>0.9020647767459248</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.022907621518845</v>
       </c>
       <c r="J18">
-        <v>0.9163154869270224</v>
+        <v>0.9163154869270229</v>
       </c>
       <c r="K18">
-        <v>0.9121052514096897</v>
+        <v>0.9121052514096903</v>
       </c>
       <c r="L18">
-        <v>0.9227576766338359</v>
+        <v>0.9227576766338361</v>
       </c>
       <c r="M18">
-        <v>0.9178191393244493</v>
+        <v>0.9178191393244497</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8854809769786161</v>
+        <v>0.8854809769786162</v>
       </c>
       <c r="D19">
-        <v>0.8975799216601502</v>
+        <v>0.89757992166015</v>
       </c>
       <c r="E19">
         <v>0.9083331722874355</v>
       </c>
       <c r="F19">
-        <v>0.9034977337482308</v>
+        <v>0.9034977337482309</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.023258909657343</v>
       </c>
       <c r="J19">
-        <v>0.9175315695471147</v>
+        <v>0.9175315695471148</v>
       </c>
       <c r="K19">
         <v>0.9133607808360963</v>
       </c>
       <c r="L19">
-        <v>0.9238726655341635</v>
+        <v>0.9238726655341636</v>
       </c>
       <c r="M19">
-        <v>0.9191448153498825</v>
+        <v>0.9191448153498822</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8788552887460169</v>
+        <v>0.8788552887460181</v>
       </c>
       <c r="D20">
-        <v>0.8913973050034482</v>
+        <v>0.8913973050034495</v>
       </c>
       <c r="E20">
-        <v>0.9028145757715696</v>
+        <v>0.9028145757715708</v>
       </c>
       <c r="F20">
-        <v>0.8969947178521801</v>
+        <v>0.8969947178521808</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021663009164002</v>
+        <v>1.021663009164003</v>
       </c>
       <c r="J20">
-        <v>0.9120119834946429</v>
+        <v>0.912011983494644</v>
       </c>
       <c r="K20">
-        <v>0.9076625287491492</v>
+        <v>0.9076625287491504</v>
       </c>
       <c r="L20">
-        <v>0.9188125267890042</v>
+        <v>0.9188125267890052</v>
       </c>
       <c r="M20">
-        <v>0.9131277705061038</v>
+        <v>0.9131277705061046</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8553240297670912</v>
+        <v>0.8553240297670905</v>
       </c>
       <c r="D21">
-        <v>0.8694819184223676</v>
+        <v>0.869481918422367</v>
       </c>
       <c r="E21">
-        <v>0.8832735295329518</v>
+        <v>0.8832735295329517</v>
       </c>
       <c r="F21">
-        <v>0.8739333085846104</v>
+        <v>0.8739333085846098</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.015976506698171</v>
       </c>
       <c r="J21">
-        <v>0.8924206142058321</v>
+        <v>0.8924206142058314</v>
       </c>
       <c r="K21">
-        <v>0.8874440669527265</v>
+        <v>0.8874440669527259</v>
       </c>
       <c r="L21">
-        <v>0.9008641401855457</v>
+        <v>0.9008641401855454</v>
       </c>
       <c r="M21">
-        <v>0.8917737946864259</v>
+        <v>0.8917737946864254</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8385591467607615</v>
+        <v>0.8385591467607599</v>
       </c>
       <c r="D22">
-        <v>0.8539114702776269</v>
+        <v>0.8539114702776252</v>
       </c>
       <c r="E22">
-        <v>0.8694106600092769</v>
+        <v>0.8694106600092758</v>
       </c>
       <c r="F22">
-        <v>0.8575456095799477</v>
+        <v>0.857545609579947</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011921188294746</v>
+        <v>1.011921188294745</v>
       </c>
       <c r="J22">
-        <v>0.8784801482330153</v>
+        <v>0.8784801482330137</v>
       </c>
       <c r="K22">
-        <v>0.8730630925104678</v>
+        <v>0.8730630925104662</v>
       </c>
       <c r="L22">
-        <v>0.8881041008487029</v>
+        <v>0.8881041008487016</v>
       </c>
       <c r="M22">
-        <v>0.8765877554446797</v>
+        <v>0.8765877554446789</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8476696193114047</v>
+        <v>0.8476696193113993</v>
       </c>
       <c r="D23">
-        <v>0.8623681827968731</v>
+        <v>0.8623681827968682</v>
       </c>
       <c r="E23">
-        <v>0.8769377312150489</v>
+        <v>0.8769377312150441</v>
       </c>
       <c r="F23">
-        <v>0.866446051511699</v>
+        <v>0.8664460515116943</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014124480353805</v>
+        <v>1.014124480353804</v>
       </c>
       <c r="J23">
-        <v>0.8860535261650068</v>
+        <v>0.886053526165002</v>
       </c>
       <c r="K23">
-        <v>0.880875258785541</v>
+        <v>0.8808752587855361</v>
       </c>
       <c r="L23">
-        <v>0.8950350353961581</v>
+        <v>0.8950350353961536</v>
       </c>
       <c r="M23">
-        <v>0.8848365365916246</v>
+        <v>0.88483653659162</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8792230482385134</v>
+        <v>0.8792230482385155</v>
       </c>
       <c r="D24">
-        <v>0.8917403393935197</v>
+        <v>0.8917403393935217</v>
       </c>
       <c r="E24">
-        <v>0.9031207026942322</v>
+        <v>0.9031207026942341</v>
       </c>
       <c r="F24">
-        <v>0.8973555748855186</v>
+        <v>0.8973555748855203</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.021751675993933</v>
       </c>
       <c r="J24">
-        <v>0.9123183227138955</v>
+        <v>0.9123183227138976</v>
       </c>
       <c r="K24">
-        <v>0.9079787591304477</v>
+        <v>0.9079787591304496</v>
       </c>
       <c r="L24">
-        <v>0.9190933262652007</v>
+        <v>0.9190933262652023</v>
       </c>
       <c r="M24">
-        <v>0.9134617190409517</v>
+        <v>0.9134617190409534</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9097755087685625</v>
+        <v>0.9097755087685605</v>
       </c>
       <c r="D25">
-        <v>0.9202911897155559</v>
+        <v>0.9202911897155539</v>
       </c>
       <c r="E25">
-        <v>0.9286258749564182</v>
+        <v>0.9286258749564166</v>
       </c>
       <c r="F25">
-        <v>0.9273655351707583</v>
+        <v>0.9273655351707565</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029070411235869</v>
+        <v>1.029070411235868</v>
       </c>
       <c r="J25">
-        <v>0.9377737543546394</v>
+        <v>0.9377737543546376</v>
       </c>
       <c r="K25">
-        <v>0.9342672350398969</v>
+        <v>0.9342672350398949</v>
       </c>
       <c r="L25">
-        <v>0.9424433972399644</v>
+        <v>0.9424433972399627</v>
       </c>
       <c r="M25">
-        <v>0.9412067897855949</v>
+        <v>0.9412067897855934</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9309245065710952</v>
+        <v>0.9309990922445808</v>
       </c>
       <c r="D2">
-        <v>0.9401110658653573</v>
+        <v>0.9401846559389877</v>
       </c>
       <c r="E2">
-        <v>0.94636024224354</v>
+        <v>0.9464260794826419</v>
       </c>
       <c r="F2">
-        <v>0.948155468586124</v>
+        <v>0.9482127194390909</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034048187943107</v>
+        <v>1.034062907960479</v>
       </c>
       <c r="J2">
-        <v>0.9553876277762849</v>
+        <v>0.9554594918265771</v>
       </c>
       <c r="K2">
-        <v>0.9524729962771825</v>
+        <v>0.9525453866263193</v>
       </c>
       <c r="L2">
-        <v>0.9586211461929324</v>
+        <v>0.9586859281908867</v>
       </c>
       <c r="M2">
-        <v>0.9603876658645016</v>
+        <v>0.9604440035367171</v>
+      </c>
+      <c r="N2">
+        <v>0.9715399236147625</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9449083012367766</v>
+        <v>0.9449678195451554</v>
       </c>
       <c r="D3">
-        <v>0.9532391537655746</v>
+        <v>0.9532980075817507</v>
       </c>
       <c r="E3">
-        <v>0.9581191682696333</v>
+        <v>0.958171915098894</v>
       </c>
       <c r="F3">
-        <v>0.9618972394563505</v>
+        <v>0.9619426946241287</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037277263062033</v>
+        <v>1.037288985854268</v>
       </c>
       <c r="J3">
-        <v>0.9670224495563473</v>
+        <v>0.9670800722777669</v>
       </c>
       <c r="K3">
-        <v>0.964507503838321</v>
+        <v>0.964565508218689</v>
       </c>
       <c r="L3">
-        <v>0.9693175336432821</v>
+        <v>0.9693695289529832</v>
       </c>
       <c r="M3">
-        <v>0.9730420395855682</v>
+        <v>0.9730868535302895</v>
+      </c>
+      <c r="N3">
+        <v>0.9795133714651695</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9534348384477114</v>
+        <v>0.9534856154833595</v>
       </c>
       <c r="D4">
-        <v>0.9612524283505295</v>
+        <v>0.9613027021866566</v>
       </c>
       <c r="E4">
-        <v>0.9653013444813066</v>
+        <v>0.9653464695421879</v>
       </c>
       <c r="F4">
-        <v>0.9702708279932695</v>
+        <v>0.9703094937572232</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039214631273541</v>
+        <v>1.039224621746881</v>
       </c>
       <c r="J4">
-        <v>0.9741096490146816</v>
+        <v>0.9741589471303698</v>
       </c>
       <c r="K4">
-        <v>0.9718421478559384</v>
+        <v>0.9718917520500604</v>
       </c>
       <c r="L4">
-        <v>0.9758374130356298</v>
+        <v>0.9758819433381534</v>
       </c>
       <c r="M4">
-        <v>0.9807418139372057</v>
+        <v>0.9807799765896074</v>
+      </c>
+      <c r="N4">
+        <v>0.9843681547392137</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9569078655615348</v>
+        <v>0.9569551699098321</v>
       </c>
       <c r="D5">
-        <v>0.9645181740140623</v>
+        <v>0.9645650329763948</v>
       </c>
       <c r="E5">
-        <v>0.9682293722202371</v>
+        <v>0.9682714639718158</v>
       </c>
       <c r="F5">
-        <v>0.9736798718588615</v>
+        <v>0.9737158514382873</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039995827097328</v>
+        <v>1.040005130656134</v>
       </c>
       <c r="J5">
-        <v>0.9769944988801631</v>
+        <v>0.9770404768516747</v>
       </c>
       <c r="K5">
-        <v>0.9748286721971392</v>
+        <v>0.9748749279846869</v>
       </c>
       <c r="L5">
-        <v>0.9784923252430084</v>
+        <v>0.9785338803571817</v>
       </c>
       <c r="M5">
-        <v>0.9838738167020989</v>
+        <v>0.9839093439495884</v>
+      </c>
+      <c r="N5">
+        <v>0.9863437397572782</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9574848073853356</v>
+        <v>0.9575315395449291</v>
       </c>
       <c r="D6">
-        <v>0.9650607802069686</v>
+        <v>0.9651070761656833</v>
       </c>
       <c r="E6">
-        <v>0.968715921455152</v>
+        <v>0.9687575131273297</v>
       </c>
       <c r="F6">
-        <v>0.9742460752209103</v>
+        <v>0.9742816128076562</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040125122957702</v>
+        <v>1.040134313403565</v>
       </c>
       <c r="J6">
-        <v>0.977473614471388</v>
+        <v>0.9775190446744951</v>
       </c>
       <c r="K6">
-        <v>0.9753247298727039</v>
+        <v>0.9753704333329841</v>
       </c>
       <c r="L6">
-        <v>0.9789333099913938</v>
+        <v>0.9789743743709237</v>
       </c>
       <c r="M6">
-        <v>0.9843938457248563</v>
+        <v>0.9844289391215201</v>
+      </c>
+      <c r="N6">
+        <v>0.9866718106938523</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9534816675051817</v>
+        <v>0.9535323973890217</v>
       </c>
       <c r="D7">
-        <v>0.9612964557244691</v>
+        <v>0.9613466832175837</v>
       </c>
       <c r="E7">
-        <v>0.9653408150954031</v>
+        <v>0.9653858989904478</v>
       </c>
       <c r="F7">
-        <v>0.9703168015055308</v>
+        <v>0.9703554307545007</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039225196664924</v>
+        <v>1.039235177806563</v>
       </c>
       <c r="J7">
-        <v>0.9741485551442475</v>
+        <v>0.9741978082290625</v>
       </c>
       <c r="K7">
-        <v>0.9718824214174996</v>
+        <v>0.9719319801902087</v>
       </c>
       <c r="L7">
-        <v>0.9758732142530062</v>
+        <v>0.9759177041949184</v>
       </c>
       <c r="M7">
-        <v>0.9807840622050622</v>
+        <v>0.9808221890476232</v>
+      </c>
+      <c r="N7">
+        <v>0.9843948004701182</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9357673766590293</v>
+        <v>0.9358366343952993</v>
       </c>
       <c r="D8">
-        <v>0.9446555790932134</v>
+        <v>0.9447239659845826</v>
       </c>
       <c r="E8">
-        <v>0.9504297180640057</v>
+        <v>0.9504909334141789</v>
       </c>
       <c r="F8">
-        <v>0.9529154076322862</v>
+        <v>0.9529684741478628</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035173027603455</v>
+        <v>1.03518668614561</v>
       </c>
       <c r="J8">
-        <v>0.9594183768626247</v>
+        <v>0.9594852204476553</v>
       </c>
       <c r="K8">
-        <v>0.9566413516496389</v>
+        <v>0.9567086683657808</v>
       </c>
       <c r="L8">
-        <v>0.9623258246172005</v>
+        <v>0.962386096811094</v>
       </c>
       <c r="M8">
-        <v>0.9647733410049926</v>
+        <v>0.9648255953380747</v>
+      </c>
+      <c r="N8">
+        <v>0.9743026613994229</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8997756927617607</v>
+        <v>0.8998878645241298</v>
       </c>
       <c r="D9">
-        <v>0.9109354221314651</v>
+        <v>0.9110454836383256</v>
       </c>
       <c r="E9">
-        <v>0.9202625761134892</v>
+        <v>0.920360795287272</v>
       </c>
       <c r="F9">
-        <v>0.9175379606982382</v>
+        <v>0.9176251252188726</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026687652972073</v>
+        <v>1.026709909820585</v>
       </c>
       <c r="J9">
-        <v>0.9294419400408001</v>
+        <v>0.929548765967952</v>
       </c>
       <c r="K9">
-        <v>0.9256601564913851</v>
+        <v>0.9257679416351969</v>
       </c>
       <c r="L9">
-        <v>0.9347969434174082</v>
+        <v>0.934893184962118</v>
       </c>
       <c r="M9">
-        <v>0.9321274101299646</v>
+        <v>0.9322128058177919</v>
+      </c>
+      <c r="N9">
+        <v>0.9537491644951556</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.871041674914539</v>
+        <v>0.8711951557870213</v>
       </c>
       <c r="D10">
-        <v>0.8841127693401204</v>
+        <v>0.8842624650479379</v>
       </c>
       <c r="E10">
-        <v>0.8963156297354365</v>
+        <v>0.8964489894327632</v>
       </c>
       <c r="F10">
-        <v>0.8893306472692463</v>
+        <v>0.8894514103376089</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019777198061769</v>
+        <v>1.019807822316235</v>
       </c>
       <c r="J10">
-        <v>0.9055042537505135</v>
+        <v>0.9056486688364502</v>
       </c>
       <c r="K10">
-        <v>0.9009453328989272</v>
+        <v>0.9010912840496348</v>
       </c>
       <c r="L10">
-        <v>0.9128484575611746</v>
+        <v>0.9129786021210515</v>
       </c>
       <c r="M10">
-        <v>0.9060336898753243</v>
+        <v>0.9061514795231026</v>
+      </c>
+      <c r="N10">
+        <v>0.9373314186748031</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8569186625958755</v>
+        <v>0.8570956254691348</v>
       </c>
       <c r="D11">
-        <v>0.870964874111261</v>
+        <v>0.8711369078332722</v>
       </c>
       <c r="E11">
-        <v>0.8845947715415792</v>
+        <v>0.8847479078722079</v>
       </c>
       <c r="F11">
-        <v>0.8754941039425851</v>
+        <v>0.8756342550317137</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016362331236487</v>
+        <v>1.016397741614899</v>
       </c>
       <c r="J11">
-        <v>0.8937474797743664</v>
+        <v>0.8939129216737771</v>
       </c>
       <c r="K11">
-        <v>0.8888130885649924</v>
+        <v>0.888980433254866</v>
       </c>
       <c r="L11">
-        <v>0.9020791393505005</v>
+        <v>0.9022282740358022</v>
       </c>
       <c r="M11">
-        <v>0.8932197027586805</v>
+        <v>0.8933560871723339</v>
+      </c>
+      <c r="N11">
+        <v>0.9292692660612031</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8513443657534605</v>
+        <v>0.8515313110334742</v>
       </c>
       <c r="D12">
-        <v>0.8657823999690479</v>
+        <v>0.8659638909130423</v>
       </c>
       <c r="E12">
-        <v>0.8799781226757215</v>
+        <v>0.8801396252155747</v>
       </c>
       <c r="F12">
-        <v>0.8700395481380169</v>
+        <v>0.8701879970783051</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01501357833223</v>
+        <v>1.015051028384795</v>
       </c>
       <c r="J12">
-        <v>0.8891098205227325</v>
+        <v>0.8892841340961527</v>
       </c>
       <c r="K12">
-        <v>0.8840282664148216</v>
+        <v>0.8842046460052477</v>
       </c>
       <c r="L12">
-        <v>0.8978328462894631</v>
+        <v>0.8979899975409913</v>
       </c>
       <c r="M12">
-        <v>0.8881662862085492</v>
+        <v>0.8883106097759739</v>
+      </c>
+      <c r="N12">
+        <v>0.9260895421931419</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.852556555823568</v>
+        <v>0.8527412928402464</v>
       </c>
       <c r="D13">
-        <v>0.8669090400169994</v>
+        <v>0.8670884408024413</v>
       </c>
       <c r="E13">
-        <v>0.8809815915868833</v>
+        <v>0.8811412454354126</v>
       </c>
       <c r="F13">
-        <v>0.8712253474760095</v>
+        <v>0.8713719580905013</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015306882840464</v>
+        <v>1.015343881454764</v>
       </c>
       <c r="J13">
-        <v>0.8901181795776346</v>
+        <v>0.8902905338827697</v>
       </c>
       <c r="K13">
-        <v>0.8850685801868636</v>
+        <v>0.8852429640475814</v>
       </c>
       <c r="L13">
-        <v>0.8987560228885406</v>
+        <v>0.8989114035246716</v>
       </c>
       <c r="M13">
-        <v>0.889264963895372</v>
+        <v>0.8894075295413708</v>
+      </c>
+      <c r="N13">
+        <v>0.9267808736252042</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8564651582865046</v>
+        <v>0.8566429171359661</v>
       </c>
       <c r="D14">
-        <v>0.8705430968642434</v>
+        <v>0.8707158855123694</v>
       </c>
       <c r="E14">
-        <v>0.8842189724462961</v>
+        <v>0.8843727767577206</v>
       </c>
       <c r="F14">
-        <v>0.8750501896566811</v>
+        <v>0.8751910012291905</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016252607005022</v>
+        <v>1.016288179921882</v>
       </c>
       <c r="J14">
-        <v>0.8933701131248764</v>
+        <v>0.8935362638465749</v>
       </c>
       <c r="K14">
-        <v>0.8884237282451974</v>
+        <v>0.8885917946201164</v>
       </c>
       <c r="L14">
-        <v>0.9017335793503201</v>
+        <v>0.9018833544524711</v>
       </c>
       <c r="M14">
-        <v>0.8928084728762803</v>
+        <v>0.8929454896254443</v>
+      </c>
+      <c r="N14">
+        <v>0.9290105186139607</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8588269836393709</v>
+        <v>0.8590006273384925</v>
       </c>
       <c r="D15">
-        <v>0.872739977638104</v>
+        <v>0.8729088617932625</v>
       </c>
       <c r="E15">
-        <v>0.8861765081361554</v>
+        <v>0.8863268573662846</v>
       </c>
       <c r="F15">
-        <v>0.8773623545616087</v>
+        <v>0.87749975371163</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016824020629235</v>
+        <v>1.016858753429882</v>
       </c>
       <c r="J15">
-        <v>0.8953355347365369</v>
+        <v>0.8954980181942843</v>
       </c>
       <c r="K15">
-        <v>0.8904516538573598</v>
+        <v>0.8906159867614428</v>
       </c>
       <c r="L15">
-        <v>0.9035334194388727</v>
+        <v>0.9036798813550364</v>
       </c>
       <c r="M15">
-        <v>0.8949503210109321</v>
+        <v>0.8950840699961508</v>
+      </c>
+      <c r="N15">
+        <v>0.9303581647312644</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.871937837862868</v>
+        <v>0.872089908218699</v>
       </c>
       <c r="D16">
-        <v>0.884947882878117</v>
+        <v>0.8850962325382121</v>
       </c>
       <c r="E16">
-        <v>0.8970605020574784</v>
+        <v>0.89719266936124</v>
       </c>
       <c r="F16">
-        <v>0.8902093642640031</v>
+        <v>0.8903289689681769</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019993654174141</v>
+        <v>1.020023991535681</v>
       </c>
       <c r="J16">
-        <v>0.9062505432871765</v>
+        <v>0.906393687917869</v>
       </c>
       <c r="K16">
-        <v>0.901715581325972</v>
+        <v>0.9018602408189998</v>
       </c>
       <c r="L16">
-        <v>0.9135322947906306</v>
+        <v>0.9136612924580416</v>
       </c>
       <c r="M16">
-        <v>0.9068471958883519</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9069638724503033</v>
+      </c>
+      <c r="N16">
+        <v>0.9378432326035638</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.879668119763902</v>
+        <v>0.8798083782031293</v>
       </c>
       <c r="D17">
-        <v>0.8921555089804207</v>
+        <v>0.8922925669486449</v>
       </c>
       <c r="E17">
-        <v>0.9034912140143234</v>
+        <v>0.9036133755945985</v>
       </c>
       <c r="F17">
-        <v>0.8977923082553053</v>
+        <v>0.897902242116014</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021858970241122</v>
+        <v>1.021886908121845</v>
       </c>
       <c r="J17">
-        <v>0.912689066452539</v>
+        <v>0.9128215372776717</v>
       </c>
       <c r="K17">
-        <v>0.9083614773732431</v>
+        <v>0.9084952894589551</v>
       </c>
       <c r="L17">
-        <v>0.9194331671021858</v>
+        <v>0.9195525316454447</v>
       </c>
       <c r="M17">
-        <v>0.913865877029623</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.913973250828876</v>
+      </c>
+      <c r="N17">
+        <v>0.9422590055339567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8840212892507588</v>
+        <v>0.8841551606640221</v>
       </c>
       <c r="D18">
-        <v>0.8962174151570136</v>
+        <v>0.896348352482883</v>
       </c>
       <c r="E18">
-        <v>0.9071167880138165</v>
+        <v>0.907233523818446</v>
       </c>
       <c r="F18">
-        <v>0.9020647767459248</v>
+        <v>0.902169503990371</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022907621518845</v>
+        <v>1.022934264317841</v>
       </c>
       <c r="J18">
-        <v>0.9163154869270229</v>
+        <v>0.9164421595155946</v>
       </c>
       <c r="K18">
-        <v>0.9121052514096903</v>
+        <v>0.9122331744438753</v>
       </c>
       <c r="L18">
-        <v>0.9227576766338361</v>
+        <v>0.9228718103095135</v>
       </c>
       <c r="M18">
-        <v>0.9178191393244497</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.917921497068061</v>
+      </c>
+      <c r="N18">
+        <v>0.9447462240655067</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8854809769786162</v>
+        <v>0.8856127469495303</v>
       </c>
       <c r="D19">
-        <v>0.89757992166015</v>
+        <v>0.8977088428539005</v>
       </c>
       <c r="E19">
-        <v>0.9083331722874355</v>
+        <v>0.9084481205208383</v>
       </c>
       <c r="F19">
-        <v>0.9034977337482309</v>
+        <v>0.9036007515191323</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023258909657343</v>
+        <v>1.023285126740536</v>
       </c>
       <c r="J19">
-        <v>0.9175315695471148</v>
+        <v>0.9176563302140339</v>
       </c>
       <c r="K19">
-        <v>0.9133607808360963</v>
+        <v>0.913486762556741</v>
       </c>
       <c r="L19">
-        <v>0.9238726655341636</v>
+        <v>0.9239850747117114</v>
       </c>
       <c r="M19">
-        <v>0.9191448153498822</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9192455249829473</v>
+      </c>
+      <c r="N19">
+        <v>0.9455802947394002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8788552887460181</v>
+        <v>0.8789967602687512</v>
       </c>
       <c r="D20">
-        <v>0.8913973050034495</v>
+        <v>0.8915355242656166</v>
       </c>
       <c r="E20">
-        <v>0.9028145757715708</v>
+        <v>0.9029377666345939</v>
       </c>
       <c r="F20">
-        <v>0.8969947178521808</v>
+        <v>0.8971056424310796</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021663009164003</v>
+        <v>1.021691193213871</v>
       </c>
       <c r="J20">
-        <v>0.912011983494644</v>
+        <v>0.9121455534323112</v>
       </c>
       <c r="K20">
-        <v>0.9076625287491504</v>
+        <v>0.9077974574432538</v>
       </c>
       <c r="L20">
-        <v>0.9188125267890052</v>
+        <v>0.9189328830628167</v>
       </c>
       <c r="M20">
-        <v>0.9131277705061046</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9132360981492441</v>
+      </c>
+      <c r="N20">
+        <v>0.9417946264473918</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8553240297670905</v>
+        <v>0.8555038039064973</v>
       </c>
       <c r="D21">
-        <v>0.869481918422367</v>
+        <v>0.8696566177816882</v>
       </c>
       <c r="E21">
-        <v>0.8832735295329517</v>
+        <v>0.8834290243852961</v>
       </c>
       <c r="F21">
-        <v>0.8739333085846098</v>
+        <v>0.8740757933180984</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015976506698171</v>
+        <v>1.016012491217806</v>
       </c>
       <c r="J21">
-        <v>0.8924206142058314</v>
+        <v>0.8925885584499139</v>
       </c>
       <c r="K21">
-        <v>0.8874440669527259</v>
+        <v>0.8876139595365129</v>
       </c>
       <c r="L21">
-        <v>0.9008641401855454</v>
+        <v>0.9010155357920643</v>
       </c>
       <c r="M21">
-        <v>0.8917737946864254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8919124129751271</v>
+      </c>
+      <c r="N21">
+        <v>0.9283594894269454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8385591467607599</v>
+        <v>0.8387707725457257</v>
       </c>
       <c r="D22">
-        <v>0.8539114702776252</v>
+        <v>0.8541162503355675</v>
       </c>
       <c r="E22">
-        <v>0.8694106600092758</v>
+        <v>0.8695927481374222</v>
       </c>
       <c r="F22">
-        <v>0.857545609579947</v>
+        <v>0.8577147029118464</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011921188294745</v>
+        <v>1.01196369161192</v>
       </c>
       <c r="J22">
-        <v>0.8784801482330137</v>
+        <v>0.8786762390408929</v>
       </c>
       <c r="K22">
-        <v>0.8730630925104662</v>
+        <v>0.8732616695703415</v>
       </c>
       <c r="L22">
-        <v>0.8881041008487016</v>
+        <v>0.8882809390722588</v>
       </c>
       <c r="M22">
-        <v>0.8765877554446789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8767517860018077</v>
+      </c>
+      <c r="N22">
+        <v>0.9188030712652354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8476696193113993</v>
+        <v>0.8478633920715968</v>
       </c>
       <c r="D23">
-        <v>0.8623681827968682</v>
+        <v>0.862556129283762</v>
       </c>
       <c r="E23">
-        <v>0.8769377312150441</v>
+        <v>0.877104942296444</v>
       </c>
       <c r="F23">
-        <v>0.8664460515116943</v>
+        <v>0.8666001936180335</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014124480353804</v>
+        <v>1.014163326934143</v>
       </c>
       <c r="J23">
-        <v>0.886053526165002</v>
+        <v>0.886233885878377</v>
       </c>
       <c r="K23">
-        <v>0.8808752587855361</v>
+        <v>0.8810577984732074</v>
       </c>
       <c r="L23">
-        <v>0.8950350353961536</v>
+        <v>0.8951976512755734</v>
       </c>
       <c r="M23">
-        <v>0.88483653659162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8849863010328703</v>
+      </c>
+      <c r="N23">
+        <v>0.9239942600976986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8792230482385155</v>
+        <v>0.8793639700950827</v>
       </c>
       <c r="D24">
-        <v>0.8917403393935217</v>
+        <v>0.8918780325031062</v>
       </c>
       <c r="E24">
-        <v>0.9031207026942341</v>
+        <v>0.903243427222412</v>
       </c>
       <c r="F24">
-        <v>0.8973555748855203</v>
+        <v>0.8974660504837476</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021751675993933</v>
+        <v>1.021779748493347</v>
       </c>
       <c r="J24">
-        <v>0.9123183227138976</v>
+        <v>0.9124513947112589</v>
       </c>
       <c r="K24">
-        <v>0.9079787591304496</v>
+        <v>0.9081131819469613</v>
       </c>
       <c r="L24">
-        <v>0.9190933262652023</v>
+        <v>0.9192132332403888</v>
       </c>
       <c r="M24">
-        <v>0.9134617190409534</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9135696144384147</v>
+      </c>
+      <c r="N24">
+        <v>0.942004729734596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9097755087685605</v>
+        <v>0.9098749227714164</v>
       </c>
       <c r="D25">
-        <v>0.9202911897155539</v>
+        <v>0.9203889172248934</v>
       </c>
       <c r="E25">
-        <v>0.9286258749564166</v>
+        <v>0.928713146967112</v>
       </c>
       <c r="F25">
-        <v>0.9273655351707565</v>
+        <v>0.9274424709638799</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029070411235868</v>
+        <v>1.029090100722537</v>
       </c>
       <c r="J25">
-        <v>0.9377737543546376</v>
+        <v>0.9378687998570057</v>
       </c>
       <c r="K25">
-        <v>0.9342672350398949</v>
+        <v>0.9343630820184259</v>
       </c>
       <c r="L25">
-        <v>0.9424433972399627</v>
+        <v>0.9425290290238326</v>
       </c>
       <c r="M25">
-        <v>0.9412067897855934</v>
+        <v>0.9412822744543395</v>
+      </c>
+      <c r="N25">
+        <v>0.95946320613504</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9309990922445808</v>
+        <v>0.8718581458125564</v>
       </c>
       <c r="D2">
-        <v>0.9401846559389877</v>
+        <v>0.8819346069900917</v>
       </c>
       <c r="E2">
-        <v>0.9464260794826419</v>
+        <v>0.8936723408952104</v>
       </c>
       <c r="F2">
-        <v>0.9482127194390909</v>
+        <v>0.8791596951969299</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034062907960479</v>
+        <v>1.022874067951228</v>
       </c>
       <c r="J2">
-        <v>0.9554594918265771</v>
+        <v>0.8986869993959776</v>
       </c>
       <c r="K2">
-        <v>0.9525453866263193</v>
+        <v>0.8953270207648789</v>
       </c>
       <c r="L2">
-        <v>0.9586859281908867</v>
+        <v>0.9068427503586036</v>
       </c>
       <c r="M2">
-        <v>0.9604440035367171</v>
+        <v>0.8926057286432446</v>
       </c>
       <c r="N2">
-        <v>0.9715399236147625</v>
+        <v>0.8999632380159596</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9449678195451554</v>
+        <v>0.9069247989515703</v>
       </c>
       <c r="D3">
-        <v>0.9532980075817507</v>
+        <v>0.9157130804105353</v>
       </c>
       <c r="E3">
-        <v>0.958171915098894</v>
+        <v>0.9258085433892497</v>
       </c>
       <c r="F3">
-        <v>0.9619426946241287</v>
+        <v>0.9162418306845649</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037288985854268</v>
+        <v>1.029899916886826</v>
       </c>
       <c r="J3">
-        <v>0.9670800722777669</v>
+        <v>0.9303199864601952</v>
       </c>
       <c r="K3">
-        <v>0.964565508218689</v>
+        <v>0.9275515309752248</v>
       </c>
       <c r="L3">
-        <v>0.9693695289529832</v>
+        <v>0.937487815924302</v>
       </c>
       <c r="M3">
-        <v>0.9730868535302895</v>
+        <v>0.9280718327161877</v>
       </c>
       <c r="N3">
-        <v>0.9795133714651695</v>
+        <v>0.9316411475501627</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9534856154833595</v>
+        <v>0.9257373022605485</v>
       </c>
       <c r="D4">
-        <v>0.9613027021866566</v>
+        <v>0.9338447608549213</v>
       </c>
       <c r="E4">
-        <v>0.9653464695421879</v>
+        <v>0.9430278775733516</v>
       </c>
       <c r="F4">
-        <v>0.9703094937572232</v>
+        <v>0.9359964715662897</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039224621746881</v>
+        <v>1.033620562695277</v>
       </c>
       <c r="J4">
-        <v>0.9741589471303698</v>
+        <v>0.9472523343479384</v>
       </c>
       <c r="K4">
-        <v>0.9718917520500604</v>
+        <v>0.9448131299578415</v>
       </c>
       <c r="L4">
-        <v>0.9758819433381534</v>
+        <v>0.9538662826896317</v>
       </c>
       <c r="M4">
-        <v>0.9807799765896074</v>
+        <v>0.9469340991894701</v>
       </c>
       <c r="N4">
-        <v>0.9843681547392137</v>
+        <v>0.9485975413140738</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9569551699098321</v>
+        <v>0.9330021902726193</v>
       </c>
       <c r="D5">
-        <v>0.9645650329763948</v>
+        <v>0.940848382240914</v>
       </c>
       <c r="E5">
-        <v>0.9682714639718158</v>
+        <v>0.9496724739781779</v>
       </c>
       <c r="F5">
-        <v>0.9737158514382873</v>
+        <v>0.9435964408871937</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040005130656134</v>
+        <v>1.035043206627847</v>
       </c>
       <c r="J5">
-        <v>0.9770404768516747</v>
+        <v>0.9537828326821621</v>
       </c>
       <c r="K5">
-        <v>0.9748749279846869</v>
+        <v>0.9514732298752611</v>
       </c>
       <c r="L5">
-        <v>0.9785338803571817</v>
+        <v>0.9601778311274627</v>
       </c>
       <c r="M5">
-        <v>0.9839093439495884</v>
+        <v>0.9541837744338719</v>
       </c>
       <c r="N5">
-        <v>0.9863437397572782</v>
+        <v>0.9551373137049908</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9575315395449291</v>
+        <v>0.9341896140614171</v>
       </c>
       <c r="D6">
-        <v>0.9651070761656833</v>
+        <v>0.9419931835186715</v>
       </c>
       <c r="E6">
-        <v>0.9687575131273297</v>
+        <v>0.9507582151024981</v>
       </c>
       <c r="F6">
-        <v>0.9742816128076562</v>
+        <v>0.9448370312578942</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040134313403565</v>
+        <v>1.035274844506625</v>
       </c>
       <c r="J6">
-        <v>0.9775190446744951</v>
+        <v>0.9548497487004002</v>
       </c>
       <c r="K6">
-        <v>0.9753704333329841</v>
+        <v>0.9525614652622233</v>
       </c>
       <c r="L6">
-        <v>0.9789743743709237</v>
+        <v>0.9612086760424448</v>
       </c>
       <c r="M6">
-        <v>0.9844289391215201</v>
+        <v>0.9553667843780729</v>
       </c>
       <c r="N6">
-        <v>0.9866718106938523</v>
+        <v>0.9562057448663518</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9535323973890217</v>
+        <v>0.9258366492245047</v>
       </c>
       <c r="D7">
-        <v>0.9613466832175837</v>
+        <v>0.933940529138865</v>
       </c>
       <c r="E7">
-        <v>0.9653858989904478</v>
+        <v>0.9431187625239453</v>
       </c>
       <c r="F7">
-        <v>0.9703554307545007</v>
+        <v>0.9361005125267836</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039235177806563</v>
+        <v>1.03364007718559</v>
       </c>
       <c r="J7">
-        <v>0.9741978082290625</v>
+        <v>0.9473416714397297</v>
       </c>
       <c r="K7">
-        <v>0.9719319801902087</v>
+        <v>0.9449042298179207</v>
       </c>
       <c r="L7">
-        <v>0.9759177041949184</v>
+        <v>0.9539526454458441</v>
       </c>
       <c r="M7">
-        <v>0.9808221890476232</v>
+        <v>0.9470333724518469</v>
       </c>
       <c r="N7">
-        <v>0.9843948004701182</v>
+        <v>0.9486870052747824</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9358366343952993</v>
+        <v>0.884754972561778</v>
       </c>
       <c r="D8">
-        <v>0.9447239659845826</v>
+        <v>0.8943545085928269</v>
       </c>
       <c r="E8">
-        <v>0.9504909334141789</v>
+        <v>0.9054963181007013</v>
       </c>
       <c r="F8">
-        <v>0.9529684741478628</v>
+        <v>0.8928346403503445</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03518668614561</v>
+        <v>1.025467099614874</v>
       </c>
       <c r="J8">
-        <v>0.9594852204476553</v>
+        <v>0.9103306346833486</v>
       </c>
       <c r="K8">
-        <v>0.9567086683657808</v>
+        <v>0.9071850465547956</v>
       </c>
       <c r="L8">
-        <v>0.962386096811094</v>
+        <v>0.9181292596665647</v>
       </c>
       <c r="M8">
-        <v>0.9648255953380747</v>
+        <v>0.9056926297902842</v>
       </c>
       <c r="N8">
-        <v>0.9743026613994229</v>
+        <v>0.9116234086009826</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8998878645241298</v>
+        <v>0.884754972561778</v>
       </c>
       <c r="D9">
-        <v>0.9110454836383256</v>
+        <v>0.8943545085928269</v>
       </c>
       <c r="E9">
-        <v>0.920360795287272</v>
+        <v>0.9054963181007013</v>
       </c>
       <c r="F9">
-        <v>0.9176251252188726</v>
+        <v>0.8928346403503445</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026709909820585</v>
+        <v>1.025467099614874</v>
       </c>
       <c r="J9">
-        <v>0.929548765967952</v>
+        <v>0.9103306346833486</v>
       </c>
       <c r="K9">
-        <v>0.9257679416351969</v>
+        <v>0.9071850465547956</v>
       </c>
       <c r="L9">
-        <v>0.934893184962118</v>
+        <v>0.9181292596665647</v>
       </c>
       <c r="M9">
-        <v>0.9322128058177919</v>
+        <v>0.9056926297902842</v>
       </c>
       <c r="N9">
-        <v>0.9537491644951556</v>
+        <v>0.9116234086009826</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8711951557870213</v>
+        <v>0.884754972561778</v>
       </c>
       <c r="D10">
-        <v>0.8842624650479379</v>
+        <v>0.8943545085928269</v>
       </c>
       <c r="E10">
-        <v>0.8964489894327632</v>
+        <v>0.9054963181007013</v>
       </c>
       <c r="F10">
-        <v>0.8894514103376089</v>
+        <v>0.8928346403503445</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019807822316235</v>
+        <v>1.025467099614874</v>
       </c>
       <c r="J10">
-        <v>0.9056486688364502</v>
+        <v>0.9103306346833486</v>
       </c>
       <c r="K10">
-        <v>0.9010912840496348</v>
+        <v>0.9071850465547956</v>
       </c>
       <c r="L10">
-        <v>0.9129786021210515</v>
+        <v>0.9181292596665647</v>
       </c>
       <c r="M10">
-        <v>0.9061514795231026</v>
+        <v>0.9056926297902842</v>
       </c>
       <c r="N10">
-        <v>0.9373314186748031</v>
+        <v>0.9116234086009826</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8570956254691348</v>
+        <v>0.884754972561778</v>
       </c>
       <c r="D11">
-        <v>0.8711369078332722</v>
+        <v>0.8943545085928269</v>
       </c>
       <c r="E11">
-        <v>0.8847479078722079</v>
+        <v>0.9054963181007013</v>
       </c>
       <c r="F11">
-        <v>0.8756342550317137</v>
+        <v>0.8928346403503445</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016397741614899</v>
+        <v>1.025467099614874</v>
       </c>
       <c r="J11">
-        <v>0.8939129216737771</v>
+        <v>0.9103306346833486</v>
       </c>
       <c r="K11">
-        <v>0.888980433254866</v>
+        <v>0.9071850465547956</v>
       </c>
       <c r="L11">
-        <v>0.9022282740358022</v>
+        <v>0.9181292596665647</v>
       </c>
       <c r="M11">
-        <v>0.8933560871723339</v>
+        <v>0.9056926297902842</v>
       </c>
       <c r="N11">
-        <v>0.9292692660612031</v>
+        <v>0.9116234086009826</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8515313110334742</v>
+        <v>0.884754972561778</v>
       </c>
       <c r="D12">
-        <v>0.8659638909130423</v>
+        <v>0.8943545085928269</v>
       </c>
       <c r="E12">
-        <v>0.8801396252155747</v>
+        <v>0.9054963181007013</v>
       </c>
       <c r="F12">
-        <v>0.8701879970783051</v>
+        <v>0.8928346403503445</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015051028384795</v>
+        <v>1.025467099614874</v>
       </c>
       <c r="J12">
-        <v>0.8892841340961527</v>
+        <v>0.9103306346833486</v>
       </c>
       <c r="K12">
-        <v>0.8842046460052477</v>
+        <v>0.9071850465547956</v>
       </c>
       <c r="L12">
-        <v>0.8979899975409913</v>
+        <v>0.9181292596665647</v>
       </c>
       <c r="M12">
-        <v>0.8883106097759739</v>
+        <v>0.9056926297902842</v>
       </c>
       <c r="N12">
-        <v>0.9260895421931419</v>
+        <v>0.9116234086009826</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8527412928402464</v>
+        <v>0.884754972561778</v>
       </c>
       <c r="D13">
-        <v>0.8670884408024413</v>
+        <v>0.8943545085928269</v>
       </c>
       <c r="E13">
-        <v>0.8811412454354126</v>
+        <v>0.9054963181007013</v>
       </c>
       <c r="F13">
-        <v>0.8713719580905013</v>
+        <v>0.8928346403503445</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015343881454764</v>
+        <v>1.025467099614874</v>
       </c>
       <c r="J13">
-        <v>0.8902905338827697</v>
+        <v>0.9103306346833486</v>
       </c>
       <c r="K13">
-        <v>0.8852429640475814</v>
+        <v>0.9071850465547956</v>
       </c>
       <c r="L13">
-        <v>0.8989114035246716</v>
+        <v>0.9181292596665647</v>
       </c>
       <c r="M13">
-        <v>0.8894075295413708</v>
+        <v>0.9056926297902842</v>
       </c>
       <c r="N13">
-        <v>0.9267808736252042</v>
+        <v>0.9116234086009826</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8566429171359661</v>
+        <v>0.884754972561778</v>
       </c>
       <c r="D14">
-        <v>0.8707158855123694</v>
+        <v>0.8943545085928269</v>
       </c>
       <c r="E14">
-        <v>0.8843727767577206</v>
+        <v>0.9054963181007013</v>
       </c>
       <c r="F14">
-        <v>0.8751910012291905</v>
+        <v>0.8928346403503445</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016288179921882</v>
+        <v>1.025467099614874</v>
       </c>
       <c r="J14">
-        <v>0.8935362638465749</v>
+        <v>0.9103306346833486</v>
       </c>
       <c r="K14">
-        <v>0.8885917946201164</v>
+        <v>0.9071850465547956</v>
       </c>
       <c r="L14">
-        <v>0.9018833544524711</v>
+        <v>0.9181292596665647</v>
       </c>
       <c r="M14">
-        <v>0.8929454896254443</v>
+        <v>0.9056926297902842</v>
       </c>
       <c r="N14">
-        <v>0.9290105186139607</v>
+        <v>0.9116234086009826</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8590006273384925</v>
+        <v>0.884754972561778</v>
       </c>
       <c r="D15">
-        <v>0.8729088617932625</v>
+        <v>0.8943545085928269</v>
       </c>
       <c r="E15">
-        <v>0.8863268573662846</v>
+        <v>0.9054963181007013</v>
       </c>
       <c r="F15">
-        <v>0.87749975371163</v>
+        <v>0.8928346403503445</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016858753429882</v>
+        <v>1.025467099614874</v>
       </c>
       <c r="J15">
-        <v>0.8954980181942843</v>
+        <v>0.9103306346833486</v>
       </c>
       <c r="K15">
-        <v>0.8906159867614428</v>
+        <v>0.9071850465547956</v>
       </c>
       <c r="L15">
-        <v>0.9036798813550364</v>
+        <v>0.9181292596665647</v>
       </c>
       <c r="M15">
-        <v>0.8950840699961508</v>
+        <v>0.9056926297902842</v>
       </c>
       <c r="N15">
-        <v>0.9303581647312644</v>
+        <v>0.9116234086009826</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.872089908218699</v>
+        <v>0.884754972561778</v>
       </c>
       <c r="D16">
-        <v>0.8850962325382121</v>
+        <v>0.8943545085928269</v>
       </c>
       <c r="E16">
-        <v>0.89719266936124</v>
+        <v>0.9054963181007013</v>
       </c>
       <c r="F16">
-        <v>0.8903289689681769</v>
+        <v>0.8928346403503445</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020023991535681</v>
+        <v>1.025467099614874</v>
       </c>
       <c r="J16">
-        <v>0.906393687917869</v>
+        <v>0.9103306346833486</v>
       </c>
       <c r="K16">
-        <v>0.9018602408189998</v>
+        <v>0.9071850465547956</v>
       </c>
       <c r="L16">
-        <v>0.9136612924580416</v>
+        <v>0.9181292596665647</v>
       </c>
       <c r="M16">
-        <v>0.9069638724503033</v>
+        <v>0.9056926297902842</v>
       </c>
       <c r="N16">
-        <v>0.9378432326035638</v>
+        <v>0.9116234086009826</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8798083782031293</v>
+        <v>0.884754972561778</v>
       </c>
       <c r="D17">
-        <v>0.8922925669486449</v>
+        <v>0.8943545085928269</v>
       </c>
       <c r="E17">
-        <v>0.9036133755945985</v>
+        <v>0.9054963181007013</v>
       </c>
       <c r="F17">
-        <v>0.897902242116014</v>
+        <v>0.8928346403503445</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021886908121845</v>
+        <v>1.025467099614874</v>
       </c>
       <c r="J17">
-        <v>0.9128215372776717</v>
+        <v>0.9103306346833486</v>
       </c>
       <c r="K17">
-        <v>0.9084952894589551</v>
+        <v>0.9071850465547956</v>
       </c>
       <c r="L17">
-        <v>0.9195525316454447</v>
+        <v>0.9181292596665647</v>
       </c>
       <c r="M17">
-        <v>0.913973250828876</v>
+        <v>0.9056926297902842</v>
       </c>
       <c r="N17">
-        <v>0.9422590055339567</v>
+        <v>0.9116234086009826</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8841551606640221</v>
+        <v>0.884754972561778</v>
       </c>
       <c r="D18">
-        <v>0.896348352482883</v>
+        <v>0.8943545085928269</v>
       </c>
       <c r="E18">
-        <v>0.907233523818446</v>
+        <v>0.9054963181007013</v>
       </c>
       <c r="F18">
-        <v>0.902169503990371</v>
+        <v>0.8928346403503445</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022934264317841</v>
+        <v>1.025467099614874</v>
       </c>
       <c r="J18">
-        <v>0.9164421595155946</v>
+        <v>0.9103306346833486</v>
       </c>
       <c r="K18">
-        <v>0.9122331744438753</v>
+        <v>0.9071850465547956</v>
       </c>
       <c r="L18">
-        <v>0.9228718103095135</v>
+        <v>0.9181292596665647</v>
       </c>
       <c r="M18">
-        <v>0.917921497068061</v>
+        <v>0.9056926297902842</v>
       </c>
       <c r="N18">
-        <v>0.9447462240655067</v>
+        <v>0.9116234086009826</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8856127469495303</v>
+        <v>0.884754972561778</v>
       </c>
       <c r="D19">
-        <v>0.8977088428539005</v>
+        <v>0.8943545085928269</v>
       </c>
       <c r="E19">
-        <v>0.9084481205208383</v>
+        <v>0.9054963181007013</v>
       </c>
       <c r="F19">
-        <v>0.9036007515191323</v>
+        <v>0.8928346403503445</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023285126740536</v>
+        <v>1.025467099614874</v>
       </c>
       <c r="J19">
-        <v>0.9176563302140339</v>
+        <v>0.9103306346833486</v>
       </c>
       <c r="K19">
-        <v>0.913486762556741</v>
+        <v>0.9071850465547956</v>
       </c>
       <c r="L19">
-        <v>0.9239850747117114</v>
+        <v>0.9181292596665647</v>
       </c>
       <c r="M19">
-        <v>0.9192455249829473</v>
+        <v>0.9056926297902842</v>
       </c>
       <c r="N19">
-        <v>0.9455802947394002</v>
+        <v>0.9116234086009826</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8789967602687512</v>
+        <v>0.884754972561778</v>
       </c>
       <c r="D20">
-        <v>0.8915355242656166</v>
+        <v>0.8943545085928269</v>
       </c>
       <c r="E20">
-        <v>0.9029377666345939</v>
+        <v>0.9054963181007013</v>
       </c>
       <c r="F20">
-        <v>0.8971056424310796</v>
+        <v>0.8928346403503445</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021691193213871</v>
+        <v>1.025467099614874</v>
       </c>
       <c r="J20">
-        <v>0.9121455534323112</v>
+        <v>0.9103306346833486</v>
       </c>
       <c r="K20">
-        <v>0.9077974574432538</v>
+        <v>0.9071850465547956</v>
       </c>
       <c r="L20">
-        <v>0.9189328830628167</v>
+        <v>0.9181292596665647</v>
       </c>
       <c r="M20">
-        <v>0.9132360981492441</v>
+        <v>0.9056926297902842</v>
       </c>
       <c r="N20">
-        <v>0.9417946264473918</v>
+        <v>0.9116234086009826</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8555038039064973</v>
+        <v>0.884754972561778</v>
       </c>
       <c r="D21">
-        <v>0.8696566177816882</v>
+        <v>0.8943545085928269</v>
       </c>
       <c r="E21">
-        <v>0.8834290243852961</v>
+        <v>0.9054963181007013</v>
       </c>
       <c r="F21">
-        <v>0.8740757933180984</v>
+        <v>0.8928346403503445</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016012491217806</v>
+        <v>1.025467099614874</v>
       </c>
       <c r="J21">
-        <v>0.8925885584499139</v>
+        <v>0.9103306346833486</v>
       </c>
       <c r="K21">
-        <v>0.8876139595365129</v>
+        <v>0.9071850465547956</v>
       </c>
       <c r="L21">
-        <v>0.9010155357920643</v>
+        <v>0.9181292596665647</v>
       </c>
       <c r="M21">
-        <v>0.8919124129751271</v>
+        <v>0.9056926297902842</v>
       </c>
       <c r="N21">
-        <v>0.9283594894269454</v>
+        <v>0.9116234086009826</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8387707725457257</v>
+        <v>0.884754972561778</v>
       </c>
       <c r="D22">
-        <v>0.8541162503355675</v>
+        <v>0.8943545085928269</v>
       </c>
       <c r="E22">
-        <v>0.8695927481374222</v>
+        <v>0.9054963181007013</v>
       </c>
       <c r="F22">
-        <v>0.8577147029118464</v>
+        <v>0.8928346403503445</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01196369161192</v>
+        <v>1.025467099614874</v>
       </c>
       <c r="J22">
-        <v>0.8786762390408929</v>
+        <v>0.9103306346833486</v>
       </c>
       <c r="K22">
-        <v>0.8732616695703415</v>
+        <v>0.9071850465547956</v>
       </c>
       <c r="L22">
-        <v>0.8882809390722588</v>
+        <v>0.9181292596665647</v>
       </c>
       <c r="M22">
-        <v>0.8767517860018077</v>
+        <v>0.9056926297902842</v>
       </c>
       <c r="N22">
-        <v>0.9188030712652354</v>
+        <v>0.9116234086009826</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8478633920715968</v>
+        <v>0.884754972561778</v>
       </c>
       <c r="D23">
-        <v>0.862556129283762</v>
+        <v>0.8943545085928269</v>
       </c>
       <c r="E23">
-        <v>0.877104942296444</v>
+        <v>0.9054963181007013</v>
       </c>
       <c r="F23">
-        <v>0.8666001936180335</v>
+        <v>0.8928346403503445</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014163326934143</v>
+        <v>1.025467099614874</v>
       </c>
       <c r="J23">
-        <v>0.886233885878377</v>
+        <v>0.9103306346833486</v>
       </c>
       <c r="K23">
-        <v>0.8810577984732074</v>
+        <v>0.9071850465547956</v>
       </c>
       <c r="L23">
-        <v>0.8951976512755734</v>
+        <v>0.9181292596665647</v>
       </c>
       <c r="M23">
-        <v>0.8849863010328703</v>
+        <v>0.9056926297902842</v>
       </c>
       <c r="N23">
-        <v>0.9239942600976986</v>
+        <v>0.9116234086009826</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8793639700950827</v>
+        <v>0.884754972561778</v>
       </c>
       <c r="D24">
-        <v>0.8918780325031062</v>
+        <v>0.8943545085928269</v>
       </c>
       <c r="E24">
-        <v>0.903243427222412</v>
+        <v>0.9054963181007013</v>
       </c>
       <c r="F24">
-        <v>0.8974660504837476</v>
+        <v>0.8928346403503445</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021779748493347</v>
+        <v>1.025467099614874</v>
       </c>
       <c r="J24">
-        <v>0.9124513947112589</v>
+        <v>0.9103306346833486</v>
       </c>
       <c r="K24">
-        <v>0.9081131819469613</v>
+        <v>0.9071850465547956</v>
       </c>
       <c r="L24">
-        <v>0.9192132332403888</v>
+        <v>0.9181292596665647</v>
       </c>
       <c r="M24">
-        <v>0.9135696144384147</v>
+        <v>0.9056926297902842</v>
       </c>
       <c r="N24">
-        <v>0.942004729734596</v>
+        <v>0.9116234086009826</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9098749227714164</v>
+        <v>0.884754972561778</v>
       </c>
       <c r="D25">
-        <v>0.9203889172248934</v>
+        <v>0.8943545085928269</v>
       </c>
       <c r="E25">
-        <v>0.928713146967112</v>
+        <v>0.9054963181007013</v>
       </c>
       <c r="F25">
-        <v>0.9274424709638799</v>
+        <v>0.8928346403503445</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029090100722537</v>
+        <v>1.025467099614874</v>
       </c>
       <c r="J25">
-        <v>0.9378687998570057</v>
+        <v>0.9103306346833486</v>
       </c>
       <c r="K25">
-        <v>0.9343630820184259</v>
+        <v>0.9071850465547956</v>
       </c>
       <c r="L25">
-        <v>0.9425290290238326</v>
+        <v>0.9181292596665647</v>
       </c>
       <c r="M25">
-        <v>0.9412822744543395</v>
+        <v>0.9056926297902842</v>
       </c>
       <c r="N25">
-        <v>0.95946320613504</v>
+        <v>0.9116234086009826</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8718581458125564</v>
+        <v>1.044302921569003</v>
       </c>
       <c r="D2">
-        <v>0.8819346069900917</v>
+        <v>1.055214984446124</v>
       </c>
       <c r="E2">
-        <v>0.8936723408952104</v>
+        <v>1.053736497325609</v>
       </c>
       <c r="F2">
-        <v>0.8791596951969299</v>
+        <v>1.063660502364905</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.022874067951228</v>
+        <v>1.067932744927692</v>
       </c>
       <c r="J2">
-        <v>0.8986869993959776</v>
+        <v>1.06523472618287</v>
       </c>
       <c r="K2">
-        <v>0.8953270207648789</v>
+        <v>1.065955169270104</v>
       </c>
       <c r="L2">
-        <v>0.9068427503586036</v>
+        <v>1.064494717148208</v>
       </c>
       <c r="M2">
-        <v>0.8926057286432446</v>
+        <v>1.074298858525425</v>
       </c>
       <c r="N2">
-        <v>0.8999632380159596</v>
+        <v>1.06674748167818</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9069247989515703</v>
+        <v>1.051723605192786</v>
       </c>
       <c r="D3">
-        <v>0.9157130804105353</v>
+        <v>1.061735446241442</v>
       </c>
       <c r="E3">
-        <v>0.9258085433892497</v>
+        <v>1.060122567925087</v>
       </c>
       <c r="F3">
-        <v>0.9162418306845649</v>
+        <v>1.070356792728705</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029899916886826</v>
+        <v>1.070451216571486</v>
       </c>
       <c r="J3">
-        <v>0.9303199864601952</v>
+        <v>1.070897097319371</v>
       </c>
       <c r="K3">
-        <v>0.9275515309752248</v>
+        <v>1.071634951281896</v>
       </c>
       <c r="L3">
-        <v>0.937487815924302</v>
+        <v>1.070039895788752</v>
       </c>
       <c r="M3">
-        <v>0.9280718327161877</v>
+        <v>1.080162146456311</v>
       </c>
       <c r="N3">
-        <v>0.9316411475501627</v>
+        <v>1.072417894031178</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9257373022605485</v>
+        <v>1.056388199823343</v>
       </c>
       <c r="D4">
-        <v>0.9338447608549213</v>
+        <v>1.065838750610437</v>
       </c>
       <c r="E4">
-        <v>0.9430278775733516</v>
+        <v>1.064141854928522</v>
       </c>
       <c r="F4">
-        <v>0.9359964715662897</v>
+        <v>1.074571651818673</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033620562695277</v>
+        <v>1.072018308512632</v>
       </c>
       <c r="J4">
-        <v>0.9472523343479384</v>
+        <v>1.074451765720123</v>
       </c>
       <c r="K4">
-        <v>0.9448131299578415</v>
+        <v>1.075202553661749</v>
       </c>
       <c r="L4">
-        <v>0.9538662826896317</v>
+        <v>1.07352319763414</v>
       </c>
       <c r="M4">
-        <v>0.9469340991894701</v>
+        <v>1.083846255574266</v>
       </c>
       <c r="N4">
-        <v>0.9485975413140738</v>
+        <v>1.075977610468785</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9330021902726193</v>
+        <v>1.058318140110549</v>
       </c>
       <c r="D5">
-        <v>0.940848382240914</v>
+        <v>1.067537489643488</v>
       </c>
       <c r="E5">
-        <v>0.9496724739781779</v>
+        <v>1.0658059385255</v>
       </c>
       <c r="F5">
-        <v>0.9435964408871937</v>
+        <v>1.0763167885823</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035043206627847</v>
+        <v>1.07266278298268</v>
       </c>
       <c r="J5">
-        <v>0.9537828326821621</v>
+        <v>1.075921307086759</v>
       </c>
       <c r="K5">
-        <v>0.9514732298752611</v>
+        <v>1.07667791895439</v>
       </c>
       <c r="L5">
-        <v>0.9601778311274627</v>
+        <v>1.074963757107842</v>
       </c>
       <c r="M5">
-        <v>0.9541837744338719</v>
+        <v>1.085370095957334</v>
       </c>
       <c r="N5">
-        <v>0.9551373137049908</v>
+        <v>1.077449238752722</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9341896140614171</v>
+        <v>1.058640413131342</v>
       </c>
       <c r="D6">
-        <v>0.9419931835186715</v>
+        <v>1.067821213777118</v>
       </c>
       <c r="E6">
-        <v>0.9507582151024981</v>
+        <v>1.066083881807789</v>
       </c>
       <c r="F6">
-        <v>0.9448370312578942</v>
+        <v>1.076608274648855</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035274844506625</v>
+        <v>1.072770170326715</v>
       </c>
       <c r="J6">
-        <v>0.9548497487004002</v>
+        <v>1.076166629211894</v>
       </c>
       <c r="K6">
-        <v>0.9525614652622233</v>
+        <v>1.07692424125656</v>
       </c>
       <c r="L6">
-        <v>0.9612086760424448</v>
+        <v>1.07520427156861</v>
       </c>
       <c r="M6">
-        <v>0.9553667843780729</v>
+        <v>1.08562452870946</v>
       </c>
       <c r="N6">
-        <v>0.9562057448663518</v>
+        <v>1.077694909263412</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9258366492245047</v>
+        <v>1.056414107578886</v>
       </c>
       <c r="D7">
-        <v>0.933940529138865</v>
+        <v>1.065861550713773</v>
       </c>
       <c r="E7">
-        <v>0.9431187625239453</v>
+        <v>1.064164189398586</v>
       </c>
       <c r="F7">
-        <v>0.9361005125267836</v>
+        <v>1.074595073815444</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03364007718559</v>
+        <v>1.072026975515894</v>
       </c>
       <c r="J7">
-        <v>0.9473416714397297</v>
+        <v>1.074471497747946</v>
       </c>
       <c r="K7">
-        <v>0.9449042298179207</v>
+        <v>1.075222362006575</v>
       </c>
       <c r="L7">
-        <v>0.9539526454458441</v>
+        <v>1.073542538454946</v>
       </c>
       <c r="M7">
-        <v>0.9470333724518469</v>
+        <v>1.083866713588724</v>
       </c>
       <c r="N7">
-        <v>0.9486870052747824</v>
+        <v>1.075997370518352</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.884754972561778</v>
+        <v>1.046840267811471</v>
       </c>
       <c r="D8">
-        <v>0.8943545085928269</v>
+        <v>1.057443506601196</v>
       </c>
       <c r="E8">
-        <v>0.9054963181007013</v>
+        <v>1.055918967468674</v>
       </c>
       <c r="F8">
-        <v>0.8928346403503445</v>
+        <v>1.065948925396159</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025467099614874</v>
+        <v>1.068797221767483</v>
       </c>
       <c r="J8">
-        <v>0.9103306346833486</v>
+        <v>1.067171801728681</v>
       </c>
       <c r="K8">
-        <v>0.9071850465547956</v>
+        <v>1.067897775385174</v>
       </c>
       <c r="L8">
-        <v>0.9181292596665647</v>
+        <v>1.066391232026176</v>
       </c>
       <c r="M8">
-        <v>0.9056926297902842</v>
+        <v>1.076303962924592</v>
       </c>
       <c r="N8">
-        <v>0.9116234086009826</v>
+        <v>1.068687308093452</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.884754972561778</v>
+        <v>1.028832604963472</v>
       </c>
       <c r="D9">
-        <v>0.8943545085928269</v>
+        <v>1.041650653113191</v>
       </c>
       <c r="E9">
-        <v>0.9054963181007013</v>
+        <v>1.040455132449613</v>
       </c>
       <c r="F9">
-        <v>0.8928346403503445</v>
+        <v>1.04973560076585</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025467099614874</v>
+        <v>1.062595471012966</v>
       </c>
       <c r="J9">
-        <v>0.9103306346833486</v>
+        <v>1.053406739129449</v>
       </c>
       <c r="K9">
-        <v>0.9071850465547956</v>
+        <v>1.054102280948894</v>
       </c>
       <c r="L9">
-        <v>0.9181292596665647</v>
+        <v>1.052924263196838</v>
       </c>
       <c r="M9">
-        <v>0.9056926297902842</v>
+        <v>1.062070186730211</v>
       </c>
       <c r="N9">
-        <v>0.9116234086009826</v>
+        <v>1.054902697526455</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.884754972561778</v>
+        <v>1.015925726425867</v>
       </c>
       <c r="D10">
-        <v>0.8943545085928269</v>
+        <v>1.030364936106897</v>
       </c>
       <c r="E10">
-        <v>0.9054963181007013</v>
+        <v>1.029408291811314</v>
       </c>
       <c r="F10">
-        <v>0.8928346403503445</v>
+        <v>1.038154731009487</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025467099614874</v>
+        <v>1.058068229383659</v>
       </c>
       <c r="J10">
-        <v>0.9103306346833486</v>
+        <v>1.043521426063686</v>
       </c>
       <c r="K10">
-        <v>0.9071850465547956</v>
+        <v>1.044206763238135</v>
       </c>
       <c r="L10">
-        <v>0.9181292596665647</v>
+        <v>1.043266123602062</v>
       </c>
       <c r="M10">
-        <v>0.9056926297902842</v>
+        <v>1.051867646597778</v>
       </c>
       <c r="N10">
-        <v>0.9116234086009826</v>
+        <v>1.045003346182277</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.884754972561778</v>
+        <v>1.01008725849439</v>
       </c>
       <c r="D11">
-        <v>0.8943545085928269</v>
+        <v>1.025269323892601</v>
       </c>
       <c r="E11">
-        <v>0.9054963181007013</v>
+        <v>1.024421554910213</v>
       </c>
       <c r="F11">
-        <v>0.8928346403503445</v>
+        <v>1.032927179568177</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025467099614874</v>
+        <v>1.056001855361415</v>
       </c>
       <c r="J11">
-        <v>0.9103306346833486</v>
+        <v>1.039046334479211</v>
       </c>
       <c r="K11">
-        <v>0.9071850465547956</v>
+        <v>1.039729929224484</v>
       </c>
       <c r="L11">
-        <v>0.9181292596665647</v>
+        <v>1.038897158316517</v>
       </c>
       <c r="M11">
-        <v>0.9056926297902842</v>
+        <v>1.047253751624543</v>
       </c>
       <c r="N11">
-        <v>0.9116234086009826</v>
+        <v>1.040521899454452</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.884754972561778</v>
+        <v>1.007877562259991</v>
       </c>
       <c r="D12">
-        <v>0.8943545085928269</v>
+        <v>1.023342352873494</v>
       </c>
       <c r="E12">
-        <v>0.9054963181007013</v>
+        <v>1.022535922139807</v>
       </c>
       <c r="F12">
-        <v>0.8928346403503445</v>
+        <v>1.030950519138127</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025467099614874</v>
+        <v>1.055217117580652</v>
       </c>
       <c r="J12">
-        <v>0.9103306346833486</v>
+        <v>1.037352231237147</v>
       </c>
       <c r="K12">
-        <v>0.9071850465547956</v>
+        <v>1.038035609556888</v>
       </c>
       <c r="L12">
-        <v>0.9181292596665647</v>
+        <v>1.037243741079251</v>
       </c>
       <c r="M12">
-        <v>0.9056926297902842</v>
+        <v>1.045507844564184</v>
       </c>
       <c r="N12">
-        <v>0.9116234086009826</v>
+        <v>1.038825390391468</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.884754972561778</v>
+        <v>1.008353467645096</v>
       </c>
       <c r="D13">
-        <v>0.8943545085928269</v>
+        <v>1.023757293741608</v>
       </c>
       <c r="E13">
-        <v>0.9054963181007013</v>
+        <v>1.022941953819254</v>
       </c>
       <c r="F13">
-        <v>0.8928346403503445</v>
+        <v>1.031376150425162</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025467099614874</v>
+        <v>1.055386246587479</v>
       </c>
       <c r="J13">
-        <v>0.9103306346833486</v>
+        <v>1.037717109096911</v>
       </c>
       <c r="K13">
-        <v>0.9071850465547956</v>
+        <v>1.038400513838462</v>
       </c>
       <c r="L13">
-        <v>0.9181292596665647</v>
+        <v>1.037599832604263</v>
       </c>
       <c r="M13">
-        <v>0.9056926297902842</v>
+        <v>1.045883846154736</v>
       </c>
       <c r="N13">
-        <v>0.9116234086009826</v>
+        <v>1.039190786419644</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.884754972561778</v>
+        <v>1.00990546323042</v>
       </c>
       <c r="D14">
-        <v>0.8943545085928269</v>
+        <v>1.025110756054229</v>
       </c>
       <c r="E14">
-        <v>0.9054963181007013</v>
+        <v>1.024266385304264</v>
       </c>
       <c r="F14">
-        <v>0.8928346403503445</v>
+        <v>1.032764518658155</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025467099614874</v>
+        <v>1.055937347316261</v>
       </c>
       <c r="J14">
-        <v>0.9103306346833486</v>
+        <v>1.03890696545243</v>
       </c>
       <c r="K14">
-        <v>0.9071850465547956</v>
+        <v>1.039590533338566</v>
       </c>
       <c r="L14">
-        <v>0.9181292596665647</v>
+        <v>1.038761125953268</v>
       </c>
       <c r="M14">
-        <v>0.9056926297902842</v>
+        <v>1.047110105676944</v>
       </c>
       <c r="N14">
-        <v>0.9116234086009826</v>
+        <v>1.040382332507666</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.884754972561778</v>
+        <v>1.010856149377636</v>
       </c>
       <c r="D15">
-        <v>0.8943545085928269</v>
+        <v>1.025940040857741</v>
       </c>
       <c r="E15">
-        <v>0.9054963181007013</v>
+        <v>1.025077904699653</v>
       </c>
       <c r="F15">
-        <v>0.8928346403503445</v>
+        <v>1.033615217957252</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025467099614874</v>
+        <v>1.056274579792319</v>
       </c>
       <c r="J15">
-        <v>0.9103306346833486</v>
+        <v>1.039635770591333</v>
       </c>
       <c r="K15">
-        <v>0.9071850465547956</v>
+        <v>1.040319497011775</v>
       </c>
       <c r="L15">
-        <v>0.9181292596665647</v>
+        <v>1.039472503467457</v>
       </c>
       <c r="M15">
-        <v>0.9056926297902842</v>
+        <v>1.047861306478651</v>
       </c>
       <c r="N15">
-        <v>0.9116234086009826</v>
+        <v>1.041112172633462</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.884754972561778</v>
+        <v>1.016307655424439</v>
       </c>
       <c r="D16">
-        <v>0.8943545085928269</v>
+        <v>1.030698479320968</v>
       </c>
       <c r="E16">
-        <v>0.9054963181007013</v>
+        <v>1.029734730521601</v>
       </c>
       <c r="F16">
-        <v>0.8928346403503445</v>
+        <v>1.03849693849963</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025467099614874</v>
+        <v>1.058203029322495</v>
       </c>
       <c r="J16">
-        <v>0.9103306346833486</v>
+        <v>1.04381410627636</v>
       </c>
       <c r="K16">
-        <v>0.9071850465547956</v>
+        <v>1.04449961783142</v>
       </c>
       <c r="L16">
-        <v>0.9181292596665647</v>
+        <v>1.043551932287477</v>
       </c>
       <c r="M16">
-        <v>0.9056926297902842</v>
+        <v>1.052169505900968</v>
       </c>
       <c r="N16">
-        <v>0.9116234086009826</v>
+        <v>1.045296442034424</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.884754972561778</v>
+        <v>1.019658043517135</v>
       </c>
       <c r="D17">
-        <v>0.8943545085928269</v>
+        <v>1.033625503785356</v>
       </c>
       <c r="E17">
-        <v>0.9054963181007013</v>
+        <v>1.032599525678965</v>
       </c>
       <c r="F17">
-        <v>0.8928346403503445</v>
+        <v>1.041500147085519</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025467099614874</v>
+        <v>1.059383459599057</v>
       </c>
       <c r="J17">
-        <v>0.9103306346833486</v>
+        <v>1.046381202938659</v>
       </c>
       <c r="K17">
-        <v>0.9071850465547956</v>
+        <v>1.047068569752668</v>
       </c>
       <c r="L17">
-        <v>0.9181292596665647</v>
+        <v>1.046059131212848</v>
       </c>
       <c r="M17">
-        <v>0.9056926297902842</v>
+        <v>1.054817656626141</v>
       </c>
       <c r="N17">
-        <v>0.9116234086009826</v>
+        <v>1.047867184268434</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.884754972561778</v>
+        <v>1.021588435018262</v>
       </c>
       <c r="D18">
-        <v>0.8943545085928269</v>
+        <v>1.0353128503772</v>
       </c>
       <c r="E18">
-        <v>0.9054963181007013</v>
+        <v>1.03425109396177</v>
       </c>
       <c r="F18">
-        <v>0.8928346403503445</v>
+        <v>1.043231535912629</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025467099614874</v>
+        <v>1.060061845553785</v>
       </c>
       <c r="J18">
-        <v>0.9103306346833486</v>
+        <v>1.047859954943744</v>
       </c>
       <c r="K18">
-        <v>0.9071850465547956</v>
+        <v>1.048548659967542</v>
       </c>
       <c r="L18">
-        <v>0.9181292596665647</v>
+        <v>1.047503687031783</v>
       </c>
       <c r="M18">
-        <v>0.9056926297902842</v>
+        <v>1.056343549083443</v>
       </c>
       <c r="N18">
-        <v>0.9116234086009826</v>
+        <v>1.049348036270981</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.884754972561778</v>
+        <v>1.022242705709865</v>
       </c>
       <c r="D19">
-        <v>0.8943545085928269</v>
+        <v>1.035884891433709</v>
       </c>
       <c r="E19">
-        <v>0.9054963181007013</v>
+        <v>1.03481102131511</v>
       </c>
       <c r="F19">
-        <v>0.8928346403503445</v>
+        <v>1.043818528994757</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025467099614874</v>
+        <v>1.060291473690862</v>
       </c>
       <c r="J19">
-        <v>0.9103306346833486</v>
+        <v>1.048361091555844</v>
       </c>
       <c r="K19">
-        <v>0.9071850465547956</v>
+        <v>1.049050295503605</v>
       </c>
       <c r="L19">
-        <v>0.9181292596665647</v>
+        <v>1.047993286508752</v>
       </c>
       <c r="M19">
-        <v>0.9056926297902842</v>
+        <v>1.056860736983652</v>
       </c>
       <c r="N19">
-        <v>0.9116234086009826</v>
+        <v>1.049849884554551</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.884754972561778</v>
+        <v>1.019301067740629</v>
       </c>
       <c r="D20">
-        <v>0.8943545085928269</v>
+        <v>1.03331354350641</v>
       </c>
       <c r="E20">
-        <v>0.9054963181007013</v>
+        <v>1.032294187790796</v>
       </c>
       <c r="F20">
-        <v>0.8928346403503445</v>
+        <v>1.041180054204544</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025467099614874</v>
+        <v>1.059257867953611</v>
       </c>
       <c r="J20">
-        <v>0.9103306346833486</v>
+        <v>1.046107718620174</v>
       </c>
       <c r="K20">
-        <v>0.9071850465547956</v>
+        <v>1.046794859701972</v>
       </c>
       <c r="L20">
-        <v>0.9181292596665647</v>
+        <v>1.045791996011849</v>
       </c>
       <c r="M20">
-        <v>0.9056926297902842</v>
+        <v>1.054535490349866</v>
       </c>
       <c r="N20">
-        <v>0.9116234086009826</v>
+        <v>1.047593311570848</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.884754972561778</v>
+        <v>1.009449602313613</v>
       </c>
       <c r="D21">
-        <v>0.8943545085928269</v>
+        <v>1.024713164944686</v>
       </c>
       <c r="E21">
-        <v>0.9054963181007013</v>
+        <v>1.023877317591006</v>
       </c>
       <c r="F21">
-        <v>0.8928346403503445</v>
+        <v>1.03235666794982</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025467099614874</v>
+        <v>1.055775547470703</v>
       </c>
       <c r="J21">
-        <v>0.9103306346833486</v>
+        <v>1.038557484349702</v>
       </c>
       <c r="K21">
-        <v>0.9071850465547956</v>
+        <v>1.039240992049772</v>
       </c>
       <c r="L21">
-        <v>0.9181292596665647</v>
+        <v>1.038420020122676</v>
       </c>
       <c r="M21">
-        <v>0.9056926297902842</v>
+        <v>1.04674991179085</v>
       </c>
       <c r="N21">
-        <v>0.9116234086009826</v>
+        <v>1.040032355101687</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.884754972561778</v>
+        <v>1.003016125273542</v>
       </c>
       <c r="D22">
-        <v>0.8943545085928269</v>
+        <v>1.019106006078784</v>
       </c>
       <c r="E22">
-        <v>0.9054963181007013</v>
+        <v>1.018390775818529</v>
       </c>
       <c r="F22">
-        <v>0.8928346403503445</v>
+        <v>1.026605318273012</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025467099614874</v>
+        <v>1.053485845926193</v>
       </c>
       <c r="J22">
-        <v>0.9103306346833486</v>
+        <v>1.033624505877351</v>
       </c>
       <c r="K22">
-        <v>0.9071850465547956</v>
+        <v>1.03430823906659</v>
       </c>
       <c r="L22">
-        <v>0.9181292596665647</v>
+        <v>1.033606504480626</v>
       </c>
       <c r="M22">
-        <v>0.9056926297902842</v>
+        <v>1.041667522846923</v>
       </c>
       <c r="N22">
-        <v>0.9116234086009826</v>
+        <v>1.035092371234085</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.884754972561778</v>
+        <v>1.006450628342415</v>
       </c>
       <c r="D23">
-        <v>0.8943545085928269</v>
+        <v>1.022098455282887</v>
       </c>
       <c r="E23">
-        <v>0.9054963181007013</v>
+        <v>1.021318757567742</v>
       </c>
       <c r="F23">
-        <v>0.8928346403503445</v>
+        <v>1.029674604689953</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025467099614874</v>
+        <v>1.054709625011488</v>
       </c>
       <c r="J23">
-        <v>0.9103306346833486</v>
+        <v>1.036258146937945</v>
       </c>
       <c r="K23">
-        <v>0.9071850465547956</v>
+        <v>1.036941511921494</v>
       </c>
       <c r="L23">
-        <v>0.9181292596665647</v>
+        <v>1.036176078831215</v>
       </c>
       <c r="M23">
-        <v>0.9056926297902842</v>
+        <v>1.044380516266417</v>
       </c>
       <c r="N23">
-        <v>0.9116234086009826</v>
+        <v>1.037729752367067</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.884754972561778</v>
+        <v>1.019462443119544</v>
       </c>
       <c r="D24">
-        <v>0.8943545085928269</v>
+        <v>1.033454566328603</v>
       </c>
       <c r="E24">
-        <v>0.9054963181007013</v>
+        <v>1.032432216641733</v>
       </c>
       <c r="F24">
-        <v>0.8928346403503445</v>
+        <v>1.041324753014772</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025467099614874</v>
+        <v>1.059314648651246</v>
       </c>
       <c r="J24">
-        <v>0.9103306346833486</v>
+        <v>1.046231351673654</v>
       </c>
       <c r="K24">
-        <v>0.9071850465547956</v>
+        <v>1.046918593964951</v>
       </c>
       <c r="L24">
-        <v>0.9181292596665647</v>
+        <v>1.045912757889523</v>
       </c>
       <c r="M24">
-        <v>0.9056926297902842</v>
+        <v>1.054663046827642</v>
       </c>
       <c r="N24">
-        <v>0.9116234086009826</v>
+        <v>1.047717120197444</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.884754972561778</v>
+        <v>1.033635986432397</v>
       </c>
       <c r="D25">
-        <v>0.8943545085928269</v>
+        <v>1.045857964986944</v>
       </c>
       <c r="E25">
-        <v>0.9054963181007013</v>
+        <v>1.044574189364123</v>
       </c>
       <c r="F25">
-        <v>0.8928346403503445</v>
+        <v>1.054054039994668</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025467099614874</v>
+        <v>1.064264037996681</v>
       </c>
       <c r="J25">
-        <v>0.9103306346833486</v>
+        <v>1.057082069696979</v>
       </c>
       <c r="K25">
-        <v>0.9071850465547956</v>
+        <v>1.057783787518427</v>
       </c>
       <c r="L25">
-        <v>0.9181292596665647</v>
+        <v>1.05651782423591</v>
       </c>
       <c r="M25">
-        <v>0.9056926297902842</v>
+        <v>1.065867429437495</v>
       </c>
       <c r="N25">
-        <v>0.9116234086009826</v>
+        <v>1.058583247484957</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.044302921569003</v>
+        <v>1.08358602051541</v>
       </c>
       <c r="D2">
-        <v>1.055214984446124</v>
+        <v>1.088105204457594</v>
       </c>
       <c r="E2">
-        <v>1.053736497325609</v>
+        <v>1.086493625664122</v>
       </c>
       <c r="F2">
-        <v>1.063660502364905</v>
+        <v>1.097393813311776</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.067932744927692</v>
+        <v>1.056052127074691</v>
       </c>
       <c r="J2">
-        <v>1.06523472618287</v>
+        <v>1.088449995836141</v>
       </c>
       <c r="K2">
-        <v>1.065955169270104</v>
+        <v>1.090758750118277</v>
       </c>
       <c r="L2">
-        <v>1.064494717148208</v>
+        <v>1.089151326698996</v>
       </c>
       <c r="M2">
-        <v>1.074298858525425</v>
+        <v>1.100023665195198</v>
       </c>
       <c r="N2">
-        <v>1.06674748167818</v>
+        <v>1.089995719677188</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.051723605192786</v>
+        <v>1.085080318391272</v>
       </c>
       <c r="D3">
-        <v>1.061735446241442</v>
+        <v>1.089457720808337</v>
       </c>
       <c r="E3">
-        <v>1.060122567925087</v>
+        <v>1.087820347667749</v>
       </c>
       <c r="F3">
-        <v>1.070356792728705</v>
+        <v>1.098789047612937</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.070451216571486</v>
+        <v>1.056438783533779</v>
       </c>
       <c r="J3">
-        <v>1.070897097319371</v>
+        <v>1.089604303861765</v>
       </c>
       <c r="K3">
-        <v>1.071634951281896</v>
+        <v>1.091929677190461</v>
       </c>
       <c r="L3">
-        <v>1.070039895788752</v>
+        <v>1.090296218589511</v>
       </c>
       <c r="M3">
-        <v>1.080162146456311</v>
+        <v>1.101238934153897</v>
       </c>
       <c r="N3">
-        <v>1.072417894031178</v>
+        <v>1.091151666952609</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.056388199823343</v>
+        <v>1.086046091485267</v>
       </c>
       <c r="D4">
-        <v>1.065838750610437</v>
+        <v>1.090332011744496</v>
       </c>
       <c r="E4">
-        <v>1.064141854928522</v>
+        <v>1.088677990542423</v>
       </c>
       <c r="F4">
-        <v>1.074571651818673</v>
+        <v>1.099691054386227</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.072018308512632</v>
+        <v>1.056686722622062</v>
       </c>
       <c r="J4">
-        <v>1.074451765720123</v>
+        <v>1.090349606420225</v>
       </c>
       <c r="K4">
-        <v>1.075202553661749</v>
+        <v>1.092685919658971</v>
       </c>
       <c r="L4">
-        <v>1.07352319763414</v>
+        <v>1.091035652433775</v>
       </c>
       <c r="M4">
-        <v>1.083846255574266</v>
+        <v>1.1020239485487</v>
       </c>
       <c r="N4">
-        <v>1.075977610468785</v>
+        <v>1.09189802792619</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.058318140110549</v>
+        <v>1.086451836400025</v>
       </c>
       <c r="D5">
-        <v>1.067537489643488</v>
+        <v>1.090699358519524</v>
       </c>
       <c r="E5">
-        <v>1.0658059385255</v>
+        <v>1.089038348525766</v>
       </c>
       <c r="F5">
-        <v>1.0763167885823</v>
+        <v>1.100070070808682</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.07266278298268</v>
+        <v>1.056790418544731</v>
       </c>
       <c r="J5">
-        <v>1.075921307086759</v>
+        <v>1.090662550335407</v>
       </c>
       <c r="K5">
-        <v>1.07667791895439</v>
+        <v>1.09300350727194</v>
       </c>
       <c r="L5">
-        <v>1.074963757107842</v>
+        <v>1.091346182651342</v>
       </c>
       <c r="M5">
-        <v>1.085370095957334</v>
+        <v>1.102353651038725</v>
       </c>
       <c r="N5">
-        <v>1.077449238752722</v>
+        <v>1.092211416257626</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.058640413131342</v>
+        <v>1.086519947333439</v>
       </c>
       <c r="D6">
-        <v>1.067821213777118</v>
+        <v>1.090761025773949</v>
       </c>
       <c r="E6">
-        <v>1.066083881807789</v>
+        <v>1.08909884291661</v>
       </c>
       <c r="F6">
-        <v>1.076608274648855</v>
+        <v>1.100133698500853</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.072770170326715</v>
+        <v>1.056807798069853</v>
       </c>
       <c r="J6">
-        <v>1.076166629211894</v>
+        <v>1.090715072771002</v>
       </c>
       <c r="K6">
-        <v>1.07692424125656</v>
+        <v>1.093056812016826</v>
       </c>
       <c r="L6">
-        <v>1.07520427156861</v>
+        <v>1.091398302949919</v>
       </c>
       <c r="M6">
-        <v>1.08562452870946</v>
+        <v>1.102408991050141</v>
       </c>
       <c r="N6">
-        <v>1.077694909263412</v>
+        <v>1.092264013281105</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.056414107578886</v>
+        <v>1.086051514106516</v>
       </c>
       <c r="D7">
-        <v>1.065861550713773</v>
+        <v>1.09033692104998</v>
       </c>
       <c r="E7">
-        <v>1.064164189398586</v>
+        <v>1.088682806424007</v>
       </c>
       <c r="F7">
-        <v>1.074595073815444</v>
+        <v>1.099696119551637</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.072026975515894</v>
+        <v>1.056688110322495</v>
       </c>
       <c r="J7">
-        <v>1.074471497747946</v>
+        <v>1.090353789484604</v>
       </c>
       <c r="K7">
-        <v>1.075222362006575</v>
+        <v>1.092690164597618</v>
       </c>
       <c r="L7">
-        <v>1.073542538454946</v>
+        <v>1.091039803036135</v>
       </c>
       <c r="M7">
-        <v>1.083866713588724</v>
+        <v>1.102028355291564</v>
       </c>
       <c r="N7">
-        <v>1.075997370518352</v>
+        <v>1.091902216931</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.046840267811471</v>
+        <v>1.084091264780169</v>
       </c>
       <c r="D8">
-        <v>1.057443506601196</v>
+        <v>1.088562478393537</v>
       </c>
       <c r="E8">
-        <v>1.055918967468674</v>
+        <v>1.08694217336931</v>
       </c>
       <c r="F8">
-        <v>1.065948925396159</v>
+        <v>1.097865508609804</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.068797221767483</v>
+        <v>1.05618326713726</v>
       </c>
       <c r="J8">
-        <v>1.067171801728681</v>
+        <v>1.088840436182927</v>
       </c>
       <c r="K8">
-        <v>1.067897775385174</v>
+        <v>1.091154768358551</v>
       </c>
       <c r="L8">
-        <v>1.066391232026176</v>
+        <v>1.089538538313161</v>
       </c>
       <c r="M8">
-        <v>1.076303962924592</v>
+        <v>1.100434652507645</v>
       </c>
       <c r="N8">
-        <v>1.068687308093452</v>
+        <v>1.090386714494051</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.028832604963472</v>
+        <v>1.080628062452898</v>
       </c>
       <c r="D9">
-        <v>1.041650653113191</v>
+        <v>1.085428739408804</v>
       </c>
       <c r="E9">
-        <v>1.040455132449613</v>
+        <v>1.083868344134119</v>
       </c>
       <c r="F9">
-        <v>1.04973560076585</v>
+        <v>1.094633360550034</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.062595471012966</v>
+        <v>1.055276327579737</v>
       </c>
       <c r="J9">
-        <v>1.053406739129449</v>
+        <v>1.086161161237161</v>
       </c>
       <c r="K9">
-        <v>1.054102280948894</v>
+        <v>1.088438079220531</v>
       </c>
       <c r="L9">
-        <v>1.052924263196838</v>
+        <v>1.086882288711836</v>
       </c>
       <c r="M9">
-        <v>1.062070186730211</v>
+        <v>1.097615827732148</v>
       </c>
       <c r="N9">
-        <v>1.054902697526455</v>
+        <v>1.087703634670544</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.015925726425867</v>
+        <v>1.078312820823831</v>
       </c>
       <c r="D10">
-        <v>1.030364936106897</v>
+        <v>1.083334596848708</v>
       </c>
       <c r="E10">
-        <v>1.029408291811314</v>
+        <v>1.081814374523159</v>
       </c>
       <c r="F10">
-        <v>1.038154731009487</v>
+        <v>1.092473987633172</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058068229383659</v>
+        <v>1.054659925106126</v>
       </c>
       <c r="J10">
-        <v>1.043521426063686</v>
+        <v>1.084366245265808</v>
       </c>
       <c r="K10">
-        <v>1.044206763238135</v>
+        <v>1.086619183107788</v>
       </c>
       <c r="L10">
-        <v>1.043266123602062</v>
+        <v>1.085103891802952</v>
       </c>
       <c r="M10">
-        <v>1.051867646597778</v>
+        <v>1.095729245734002</v>
       </c>
       <c r="N10">
-        <v>1.045003346182277</v>
+        <v>1.085906169712633</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.01008725849439</v>
+        <v>1.077308679838063</v>
       </c>
       <c r="D11">
-        <v>1.025269323892601</v>
+        <v>1.082426557398782</v>
       </c>
       <c r="E11">
-        <v>1.024421554910213</v>
+        <v>1.080923787777576</v>
       </c>
       <c r="F11">
-        <v>1.032927179568177</v>
+        <v>1.091537790629553</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056001855361415</v>
+        <v>1.054390196385926</v>
       </c>
       <c r="J11">
-        <v>1.039046334479211</v>
+        <v>1.08358688973217</v>
       </c>
       <c r="K11">
-        <v>1.039729929224484</v>
+        <v>1.085829672785208</v>
       </c>
       <c r="L11">
-        <v>1.038897158316517</v>
+        <v>1.08433196868657</v>
       </c>
       <c r="M11">
-        <v>1.047253751624543</v>
+        <v>1.09491052165712</v>
       </c>
       <c r="N11">
-        <v>1.040521899454452</v>
+        <v>1.085125707404743</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.007877562259991</v>
+        <v>1.07693544517249</v>
       </c>
       <c r="D12">
-        <v>1.023342352873494</v>
+        <v>1.082089075353647</v>
       </c>
       <c r="E12">
-        <v>1.022535922139807</v>
+        <v>1.080592797271718</v>
       </c>
       <c r="F12">
-        <v>1.030950519138127</v>
+        <v>1.091189862674251</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055217117580652</v>
+        <v>1.054289580735966</v>
       </c>
       <c r="J12">
-        <v>1.037352231237147</v>
+        <v>1.083297074347091</v>
       </c>
       <c r="K12">
-        <v>1.038035609556888</v>
+        <v>1.085536119880432</v>
       </c>
       <c r="L12">
-        <v>1.037243741079251</v>
+        <v>1.084044956231955</v>
       </c>
       <c r="M12">
-        <v>1.045507844564184</v>
+        <v>1.094606131601889</v>
       </c>
       <c r="N12">
-        <v>1.038825390391468</v>
+        <v>1.084835480448575</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.008353467645096</v>
+        <v>1.07701551680258</v>
       </c>
       <c r="D13">
-        <v>1.023757293741608</v>
+        <v>1.082161475356267</v>
       </c>
       <c r="E13">
-        <v>1.022941953819254</v>
+        <v>1.080663804414724</v>
       </c>
       <c r="F13">
-        <v>1.031376150425162</v>
+        <v>1.091264502770814</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055386246587479</v>
+        <v>1.054311182467796</v>
       </c>
       <c r="J13">
-        <v>1.037717109096911</v>
+        <v>1.083359255668478</v>
       </c>
       <c r="K13">
-        <v>1.038400513838462</v>
+        <v>1.085599101354028</v>
       </c>
       <c r="L13">
-        <v>1.037599832604263</v>
+        <v>1.084106534402378</v>
       </c>
       <c r="M13">
-        <v>1.045883846154736</v>
+        <v>1.094671437042637</v>
       </c>
       <c r="N13">
-        <v>1.039190786419644</v>
+        <v>1.084897750074571</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.00990546323042</v>
+        <v>1.077277833329467</v>
       </c>
       <c r="D14">
-        <v>1.025110756054229</v>
+        <v>1.082398665057042</v>
       </c>
       <c r="E14">
-        <v>1.024266385304264</v>
+        <v>1.080896431847359</v>
       </c>
       <c r="F14">
-        <v>1.032764518658155</v>
+        <v>1.091509034559833</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055937347316261</v>
+        <v>1.054381888176954</v>
       </c>
       <c r="J14">
-        <v>1.03890696545243</v>
+        <v>1.083562940227431</v>
       </c>
       <c r="K14">
-        <v>1.039590533338566</v>
+        <v>1.085805413633448</v>
       </c>
       <c r="L14">
-        <v>1.038761125953268</v>
+        <v>1.084308250010909</v>
       </c>
       <c r="M14">
-        <v>1.047110105676944</v>
+        <v>1.094885366415201</v>
       </c>
       <c r="N14">
-        <v>1.040382332507666</v>
+        <v>1.085101723888961</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.010856149377636</v>
+        <v>1.077439421576515</v>
       </c>
       <c r="D15">
-        <v>1.025940040857741</v>
+        <v>1.082544779333922</v>
       </c>
       <c r="E15">
-        <v>1.025077904699653</v>
+        <v>1.081039736335484</v>
       </c>
       <c r="F15">
-        <v>1.033615217957252</v>
+        <v>1.091659674266879</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056274579792319</v>
+        <v>1.054425395725622</v>
       </c>
       <c r="J15">
-        <v>1.039635770591333</v>
+        <v>1.083688393365071</v>
       </c>
       <c r="K15">
-        <v>1.040319497011775</v>
+        <v>1.085932490359059</v>
       </c>
       <c r="L15">
-        <v>1.039472503467457</v>
+        <v>1.084432495611116</v>
       </c>
       <c r="M15">
-        <v>1.047861306478651</v>
+        <v>1.095017138154205</v>
       </c>
       <c r="N15">
-        <v>1.041112172633462</v>
+        <v>1.085227355184445</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.016307655424439</v>
+        <v>1.078379427438812</v>
       </c>
       <c r="D16">
-        <v>1.030698479320968</v>
+        <v>1.08339483332343</v>
       </c>
       <c r="E16">
-        <v>1.029734730521601</v>
+        <v>1.081873453947364</v>
       </c>
       <c r="F16">
-        <v>1.03849693849963</v>
+        <v>1.092536094669129</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.058203029322495</v>
+        <v>1.054677766447429</v>
       </c>
       <c r="J16">
-        <v>1.04381410627636</v>
+        <v>1.084417922840393</v>
       </c>
       <c r="K16">
-        <v>1.04449961783142</v>
+        <v>1.086671539446518</v>
       </c>
       <c r="L16">
-        <v>1.043551932287477</v>
+        <v>1.085155082019369</v>
       </c>
       <c r="M16">
-        <v>1.052169505900968</v>
+        <v>1.095783542880887</v>
       </c>
       <c r="N16">
-        <v>1.045296442034424</v>
+        <v>1.085957920675301</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.019658043517135</v>
+        <v>1.07896862751755</v>
       </c>
       <c r="D17">
-        <v>1.033625503785356</v>
+        <v>1.083927707538785</v>
       </c>
       <c r="E17">
-        <v>1.032599525678965</v>
+        <v>1.082396096320455</v>
       </c>
       <c r="F17">
-        <v>1.041500147085519</v>
+        <v>1.09308553122342</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059383459599057</v>
+        <v>1.054835314640334</v>
       </c>
       <c r="J17">
-        <v>1.046381202938659</v>
+        <v>1.08487495905132</v>
       </c>
       <c r="K17">
-        <v>1.047068569752668</v>
+        <v>1.087134608342535</v>
       </c>
       <c r="L17">
-        <v>1.046059131212848</v>
+        <v>1.085607838012633</v>
       </c>
       <c r="M17">
-        <v>1.054817656626141</v>
+        <v>1.096263796534962</v>
       </c>
       <c r="N17">
-        <v>1.047867184268434</v>
+        <v>1.08641560593007</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.021588435018262</v>
+        <v>1.079312141584747</v>
       </c>
       <c r="D18">
-        <v>1.0353128503772</v>
+        <v>1.084238402718114</v>
       </c>
       <c r="E18">
-        <v>1.03425109396177</v>
+        <v>1.082700828979925</v>
       </c>
       <c r="F18">
-        <v>1.043231535912629</v>
+        <v>1.093405895396204</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060061845553785</v>
+        <v>1.054926937677999</v>
       </c>
       <c r="J18">
-        <v>1.047859954943744</v>
+        <v>1.085141333964621</v>
       </c>
       <c r="K18">
-        <v>1.048548659967542</v>
+        <v>1.087404524088522</v>
       </c>
       <c r="L18">
-        <v>1.047503687031783</v>
+        <v>1.085871743306649</v>
       </c>
       <c r="M18">
-        <v>1.056343549083443</v>
+        <v>1.096543745000813</v>
       </c>
       <c r="N18">
-        <v>1.049348036270981</v>
+        <v>1.086682359126302</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.022242705709865</v>
+        <v>1.079429244712991</v>
       </c>
       <c r="D19">
-        <v>1.035884891433709</v>
+        <v>1.084344321350503</v>
       </c>
       <c r="E19">
-        <v>1.03481102131511</v>
+        <v>1.08280471548146</v>
       </c>
       <c r="F19">
-        <v>1.043818528994757</v>
+        <v>1.093515112343838</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060291473690862</v>
+        <v>1.054958132674391</v>
       </c>
       <c r="J19">
-        <v>1.048361091555844</v>
+        <v>1.085232126060908</v>
       </c>
       <c r="K19">
-        <v>1.049050295503605</v>
+        <v>1.087496527259108</v>
       </c>
       <c r="L19">
-        <v>1.047993286508752</v>
+        <v>1.08596169789334</v>
       </c>
       <c r="M19">
-        <v>1.056860736983652</v>
+        <v>1.096639170622686</v>
       </c>
       <c r="N19">
-        <v>1.049849884554551</v>
+        <v>1.08677328015778</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.019301067740629</v>
+        <v>1.078905428155178</v>
       </c>
       <c r="D20">
-        <v>1.03331354350641</v>
+        <v>1.08387054777365</v>
       </c>
       <c r="E20">
-        <v>1.032294187790796</v>
+        <v>1.082340033760756</v>
       </c>
       <c r="F20">
-        <v>1.041180054204544</v>
+        <v>1.093026593601628</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059257867953611</v>
+        <v>1.05481843937797</v>
       </c>
       <c r="J20">
-        <v>1.046107718620174</v>
+        <v>1.084825944800234</v>
       </c>
       <c r="K20">
-        <v>1.046794859701972</v>
+        <v>1.087084944558312</v>
       </c>
       <c r="L20">
-        <v>1.045791996011849</v>
+        <v>1.085559280198428</v>
       </c>
       <c r="M20">
-        <v>1.054535490349866</v>
+        <v>1.096212288043942</v>
       </c>
       <c r="N20">
-        <v>1.047593311570848</v>
+        <v>1.086366522073125</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.009449602313613</v>
+        <v>1.077200594668682</v>
       </c>
       <c r="D21">
-        <v>1.024713164944686</v>
+        <v>1.082328824055799</v>
       </c>
       <c r="E21">
-        <v>1.023877317591006</v>
+        <v>1.080827934075218</v>
       </c>
       <c r="F21">
-        <v>1.03235666794982</v>
+        <v>1.091437031136956</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055775547470703</v>
+        <v>1.054361078897529</v>
       </c>
       <c r="J21">
-        <v>1.038557484349702</v>
+        <v>1.083502969303522</v>
       </c>
       <c r="K21">
-        <v>1.039240992049772</v>
+        <v>1.085744667960752</v>
       </c>
       <c r="L21">
-        <v>1.038420020122676</v>
+        <v>1.084248857727286</v>
       </c>
       <c r="M21">
-        <v>1.04674991179085</v>
+        <v>1.094822377308826</v>
       </c>
       <c r="N21">
-        <v>1.040032355101687</v>
+        <v>1.085041667799461</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.003016125273542</v>
+        <v>1.076127236382542</v>
       </c>
       <c r="D22">
-        <v>1.019106006078784</v>
+        <v>1.081358345448068</v>
       </c>
       <c r="E22">
-        <v>1.018390775818529</v>
+        <v>1.079876132438243</v>
       </c>
       <c r="F22">
-        <v>1.026605318273012</v>
+        <v>1.090436549912817</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053485845926193</v>
+        <v>1.054071050043576</v>
       </c>
       <c r="J22">
-        <v>1.033624505877351</v>
+        <v>1.082669261280588</v>
       </c>
       <c r="K22">
-        <v>1.03430823906659</v>
+        <v>1.084900281224713</v>
       </c>
       <c r="L22">
-        <v>1.033606504480626</v>
+        <v>1.083423286545586</v>
       </c>
       <c r="M22">
-        <v>1.041667522846923</v>
+        <v>1.093946865378845</v>
       </c>
       <c r="N22">
-        <v>1.035092371234085</v>
+        <v>1.084206775815506</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.006450628342415</v>
+        <v>1.076696385062482</v>
       </c>
       <c r="D23">
-        <v>1.022098455282887</v>
+        <v>1.081872924245546</v>
       </c>
       <c r="E23">
-        <v>1.021318757567742</v>
+        <v>1.080380805309303</v>
       </c>
       <c r="F23">
-        <v>1.029674604689953</v>
+        <v>1.090967026543519</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054709625011488</v>
+        <v>1.054225034574209</v>
       </c>
       <c r="J23">
-        <v>1.036258146937945</v>
+        <v>1.083111407788795</v>
       </c>
       <c r="K23">
-        <v>1.036941511921494</v>
+        <v>1.085348069823939</v>
       </c>
       <c r="L23">
-        <v>1.036176078831215</v>
+        <v>1.083861096340235</v>
       </c>
       <c r="M23">
-        <v>1.044380516266417</v>
+        <v>1.094411146311561</v>
       </c>
       <c r="N23">
-        <v>1.037729752367067</v>
+        <v>1.08464955022247</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C24">
-        <v>1.019462443119544</v>
+        <v>1.078933985710144</v>
       </c>
       <c r="D24">
-        <v>1.033454566328603</v>
+        <v>1.083896376186362</v>
       </c>
       <c r="E24">
-        <v>1.032432216641733</v>
+        <v>1.082365366376437</v>
       </c>
       <c r="F24">
-        <v>1.041324753014772</v>
+        <v>1.093053225325105</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059314648651246</v>
+        <v>1.054826065423736</v>
       </c>
       <c r="J24">
-        <v>1.046231351673654</v>
+        <v>1.084848092869106</v>
       </c>
       <c r="K24">
-        <v>1.046918593964951</v>
+        <v>1.087107386055062</v>
       </c>
       <c r="L24">
-        <v>1.045912757889523</v>
+        <v>1.085581221939818</v>
       </c>
       <c r="M24">
-        <v>1.054663046827642</v>
+        <v>1.096235563056059</v>
       </c>
       <c r="N24">
-        <v>1.047717120197444</v>
+        <v>1.086388701594796</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.033635986432397</v>
+        <v>1.081524489341544</v>
       </c>
       <c r="D25">
-        <v>1.045857964986944</v>
+        <v>1.086239741212611</v>
       </c>
       <c r="E25">
-        <v>1.044574189364123</v>
+        <v>1.084663817428997</v>
       </c>
       <c r="F25">
-        <v>1.054054039994668</v>
+        <v>1.095469736850398</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.064264037996681</v>
+        <v>1.055512860187475</v>
       </c>
       <c r="J25">
-        <v>1.057082069696979</v>
+        <v>1.086855335643543</v>
       </c>
       <c r="K25">
-        <v>1.057783787518427</v>
+        <v>1.089141756595509</v>
       </c>
       <c r="L25">
-        <v>1.05651782423591</v>
+        <v>1.087570305234925</v>
       </c>
       <c r="M25">
-        <v>1.065867429437495</v>
+        <v>1.098345838002558</v>
       </c>
       <c r="N25">
-        <v>1.058583247484957</v>
+        <v>1.088398794884206</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.08358602051541</v>
+        <v>1.044302921569002</v>
       </c>
       <c r="D2">
-        <v>1.088105204457594</v>
+        <v>1.055214984446122</v>
       </c>
       <c r="E2">
-        <v>1.086493625664122</v>
+        <v>1.053736497325608</v>
       </c>
       <c r="F2">
-        <v>1.097393813311776</v>
+        <v>1.063660502364904</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056052127074691</v>
+        <v>1.067932744927692</v>
       </c>
       <c r="J2">
-        <v>1.088449995836141</v>
+        <v>1.065234726182869</v>
       </c>
       <c r="K2">
-        <v>1.090758750118277</v>
+        <v>1.065955169270102</v>
       </c>
       <c r="L2">
-        <v>1.089151326698996</v>
+        <v>1.064494717148207</v>
       </c>
       <c r="M2">
-        <v>1.100023665195198</v>
+        <v>1.074298858525423</v>
       </c>
       <c r="N2">
-        <v>1.089995719677188</v>
+        <v>1.066747481678179</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.085080318391272</v>
+        <v>1.051723605192787</v>
       </c>
       <c r="D3">
-        <v>1.089457720808337</v>
+        <v>1.061735446241443</v>
       </c>
       <c r="E3">
-        <v>1.087820347667749</v>
+        <v>1.060122567925088</v>
       </c>
       <c r="F3">
-        <v>1.098789047612937</v>
+        <v>1.070356792728706</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056438783533779</v>
+        <v>1.070451216571486</v>
       </c>
       <c r="J3">
-        <v>1.089604303861765</v>
+        <v>1.070897097319371</v>
       </c>
       <c r="K3">
-        <v>1.091929677190461</v>
+        <v>1.071634951281897</v>
       </c>
       <c r="L3">
-        <v>1.090296218589511</v>
+        <v>1.070039895788752</v>
       </c>
       <c r="M3">
-        <v>1.101238934153897</v>
+        <v>1.080162146456313</v>
       </c>
       <c r="N3">
-        <v>1.091151666952609</v>
+        <v>1.072417894031179</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.086046091485267</v>
+        <v>1.056388199823341</v>
       </c>
       <c r="D4">
-        <v>1.090332011744496</v>
+        <v>1.065838750610435</v>
       </c>
       <c r="E4">
-        <v>1.088677990542423</v>
+        <v>1.06414185492852</v>
       </c>
       <c r="F4">
-        <v>1.099691054386227</v>
+        <v>1.074571651818671</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056686722622062</v>
+        <v>1.072018308512631</v>
       </c>
       <c r="J4">
-        <v>1.090349606420225</v>
+        <v>1.074451765720121</v>
       </c>
       <c r="K4">
-        <v>1.092685919658971</v>
+        <v>1.075202553661748</v>
       </c>
       <c r="L4">
-        <v>1.091035652433775</v>
+        <v>1.073523197634138</v>
       </c>
       <c r="M4">
-        <v>1.1020239485487</v>
+        <v>1.083846255574264</v>
       </c>
       <c r="N4">
-        <v>1.09189802792619</v>
+        <v>1.075977610468783</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.086451836400025</v>
+        <v>1.058318140110549</v>
       </c>
       <c r="D5">
-        <v>1.090699358519524</v>
+        <v>1.067537489643487</v>
       </c>
       <c r="E5">
-        <v>1.089038348525766</v>
+        <v>1.0658059385255</v>
       </c>
       <c r="F5">
-        <v>1.100070070808682</v>
+        <v>1.076316788582299</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056790418544731</v>
+        <v>1.072662782982679</v>
       </c>
       <c r="J5">
-        <v>1.090662550335407</v>
+        <v>1.075921307086759</v>
       </c>
       <c r="K5">
-        <v>1.09300350727194</v>
+        <v>1.07667791895439</v>
       </c>
       <c r="L5">
-        <v>1.091346182651342</v>
+        <v>1.074963757107842</v>
       </c>
       <c r="M5">
-        <v>1.102353651038725</v>
+        <v>1.085370095957334</v>
       </c>
       <c r="N5">
-        <v>1.092211416257626</v>
+        <v>1.077449238752721</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.086519947333439</v>
+        <v>1.058640413131341</v>
       </c>
       <c r="D6">
-        <v>1.090761025773949</v>
+        <v>1.067821213777117</v>
       </c>
       <c r="E6">
-        <v>1.08909884291661</v>
+        <v>1.066083881807788</v>
       </c>
       <c r="F6">
-        <v>1.100133698500853</v>
+        <v>1.076608274648855</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056807798069853</v>
+        <v>1.072770170326715</v>
       </c>
       <c r="J6">
-        <v>1.090715072771002</v>
+        <v>1.076166629211893</v>
       </c>
       <c r="K6">
-        <v>1.093056812016826</v>
+        <v>1.076924241256559</v>
       </c>
       <c r="L6">
-        <v>1.091398302949919</v>
+        <v>1.075204271568609</v>
       </c>
       <c r="M6">
-        <v>1.102408991050141</v>
+        <v>1.085624528709459</v>
       </c>
       <c r="N6">
-        <v>1.092264013281105</v>
+        <v>1.077694909263412</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.086051514106516</v>
+        <v>1.056414107578885</v>
       </c>
       <c r="D7">
-        <v>1.09033692104998</v>
+        <v>1.065861550713773</v>
       </c>
       <c r="E7">
-        <v>1.088682806424007</v>
+        <v>1.064164189398585</v>
       </c>
       <c r="F7">
-        <v>1.099696119551637</v>
+        <v>1.074595073815443</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056688110322495</v>
+        <v>1.072026975515894</v>
       </c>
       <c r="J7">
-        <v>1.090353789484604</v>
+        <v>1.074471497747945</v>
       </c>
       <c r="K7">
-        <v>1.092690164597618</v>
+        <v>1.075222362006575</v>
       </c>
       <c r="L7">
-        <v>1.091039803036135</v>
+        <v>1.073542538454945</v>
       </c>
       <c r="M7">
-        <v>1.102028355291564</v>
+        <v>1.083866713588723</v>
       </c>
       <c r="N7">
-        <v>1.091902216931</v>
+        <v>1.075997370518351</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.084091264780169</v>
+        <v>1.046840267811473</v>
       </c>
       <c r="D8">
-        <v>1.088562478393537</v>
+        <v>1.057443506601198</v>
       </c>
       <c r="E8">
-        <v>1.08694217336931</v>
+        <v>1.055918967468676</v>
       </c>
       <c r="F8">
-        <v>1.097865508609804</v>
+        <v>1.065948925396161</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05618326713726</v>
+        <v>1.068797221767484</v>
       </c>
       <c r="J8">
-        <v>1.088840436182927</v>
+        <v>1.067171801728684</v>
       </c>
       <c r="K8">
-        <v>1.091154768358551</v>
+        <v>1.067897775385176</v>
       </c>
       <c r="L8">
-        <v>1.089538538313161</v>
+        <v>1.066391232026178</v>
       </c>
       <c r="M8">
-        <v>1.100434652507645</v>
+        <v>1.076303962924594</v>
       </c>
       <c r="N8">
-        <v>1.090386714494051</v>
+        <v>1.068687308093454</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.080628062452898</v>
+        <v>1.02883260496347</v>
       </c>
       <c r="D9">
-        <v>1.085428739408804</v>
+        <v>1.041650653113191</v>
       </c>
       <c r="E9">
-        <v>1.083868344134119</v>
+        <v>1.040455132449612</v>
       </c>
       <c r="F9">
-        <v>1.094633360550034</v>
+        <v>1.049735600765848</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055276327579737</v>
+        <v>1.062595471012966</v>
       </c>
       <c r="J9">
-        <v>1.086161161237161</v>
+        <v>1.053406739129448</v>
       </c>
       <c r="K9">
-        <v>1.088438079220531</v>
+        <v>1.054102280948892</v>
       </c>
       <c r="L9">
-        <v>1.086882288711836</v>
+        <v>1.052924263196836</v>
       </c>
       <c r="M9">
-        <v>1.097615827732148</v>
+        <v>1.06207018673021</v>
       </c>
       <c r="N9">
-        <v>1.087703634670544</v>
+        <v>1.054902697526453</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.078312820823831</v>
+        <v>1.015925726425869</v>
       </c>
       <c r="D10">
-        <v>1.083334596848708</v>
+        <v>1.030364936106899</v>
       </c>
       <c r="E10">
-        <v>1.081814374523159</v>
+        <v>1.029408291811316</v>
       </c>
       <c r="F10">
-        <v>1.092473987633172</v>
+        <v>1.038154731009488</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054659925106126</v>
+        <v>1.05806822938366</v>
       </c>
       <c r="J10">
-        <v>1.084366245265808</v>
+        <v>1.043521426063688</v>
       </c>
       <c r="K10">
-        <v>1.086619183107788</v>
+        <v>1.044206763238137</v>
       </c>
       <c r="L10">
-        <v>1.085103891802952</v>
+        <v>1.043266123602063</v>
       </c>
       <c r="M10">
-        <v>1.095729245734002</v>
+        <v>1.05186764659778</v>
       </c>
       <c r="N10">
-        <v>1.085906169712633</v>
+        <v>1.045003346182279</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.077308679838063</v>
+        <v>1.01008725849439</v>
       </c>
       <c r="D11">
-        <v>1.082426557398782</v>
+        <v>1.025269323892601</v>
       </c>
       <c r="E11">
-        <v>1.080923787777576</v>
+        <v>1.024421554910212</v>
       </c>
       <c r="F11">
-        <v>1.091537790629553</v>
+        <v>1.032927179568177</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054390196385926</v>
+        <v>1.056001855361415</v>
       </c>
       <c r="J11">
-        <v>1.08358688973217</v>
+        <v>1.039046334479211</v>
       </c>
       <c r="K11">
-        <v>1.085829672785208</v>
+        <v>1.039729929224483</v>
       </c>
       <c r="L11">
-        <v>1.08433196868657</v>
+        <v>1.038897158316517</v>
       </c>
       <c r="M11">
-        <v>1.09491052165712</v>
+        <v>1.047253751624543</v>
       </c>
       <c r="N11">
-        <v>1.085125707404743</v>
+        <v>1.040521899454452</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.07693544517249</v>
+        <v>1.007877562259989</v>
       </c>
       <c r="D12">
-        <v>1.082089075353647</v>
+        <v>1.023342352873492</v>
       </c>
       <c r="E12">
-        <v>1.080592797271718</v>
+        <v>1.022535922139806</v>
       </c>
       <c r="F12">
-        <v>1.091189862674251</v>
+        <v>1.030950519138126</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054289580735966</v>
+        <v>1.055217117580651</v>
       </c>
       <c r="J12">
-        <v>1.083297074347091</v>
+        <v>1.037352231237145</v>
       </c>
       <c r="K12">
-        <v>1.085536119880432</v>
+        <v>1.038035609556886</v>
       </c>
       <c r="L12">
-        <v>1.084044956231955</v>
+        <v>1.037243741079249</v>
       </c>
       <c r="M12">
-        <v>1.094606131601889</v>
+        <v>1.045507844564182</v>
       </c>
       <c r="N12">
-        <v>1.084835480448575</v>
+        <v>1.038825390391466</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.07701551680258</v>
+        <v>1.008353467645096</v>
       </c>
       <c r="D13">
-        <v>1.082161475356267</v>
+        <v>1.023757293741606</v>
       </c>
       <c r="E13">
-        <v>1.080663804414724</v>
+        <v>1.022941953819253</v>
       </c>
       <c r="F13">
-        <v>1.091264502770814</v>
+        <v>1.031376150425161</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054311182467796</v>
+        <v>1.055386246587478</v>
       </c>
       <c r="J13">
-        <v>1.083359255668478</v>
+        <v>1.037717109096909</v>
       </c>
       <c r="K13">
-        <v>1.085599101354028</v>
+        <v>1.038400513838461</v>
       </c>
       <c r="L13">
-        <v>1.084106534402378</v>
+        <v>1.037599832604261</v>
       </c>
       <c r="M13">
-        <v>1.094671437042637</v>
+        <v>1.045883846154735</v>
       </c>
       <c r="N13">
-        <v>1.084897750074571</v>
+        <v>1.039190786419643</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.077277833329467</v>
+        <v>1.009905463230419</v>
       </c>
       <c r="D14">
-        <v>1.082398665057042</v>
+        <v>1.025110756054228</v>
       </c>
       <c r="E14">
-        <v>1.080896431847359</v>
+        <v>1.024266385304263</v>
       </c>
       <c r="F14">
-        <v>1.091509034559833</v>
+        <v>1.032764518658153</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054381888176954</v>
+        <v>1.05593734731626</v>
       </c>
       <c r="J14">
-        <v>1.083562940227431</v>
+        <v>1.038906965452429</v>
       </c>
       <c r="K14">
-        <v>1.085805413633448</v>
+        <v>1.039590533338565</v>
       </c>
       <c r="L14">
-        <v>1.084308250010909</v>
+        <v>1.038761125953267</v>
       </c>
       <c r="M14">
-        <v>1.094885366415201</v>
+        <v>1.047110105676943</v>
       </c>
       <c r="N14">
-        <v>1.085101723888961</v>
+        <v>1.040382332507666</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.077439421576515</v>
+        <v>1.010856149377635</v>
       </c>
       <c r="D15">
-        <v>1.082544779333922</v>
+        <v>1.025940040857739</v>
       </c>
       <c r="E15">
-        <v>1.081039736335484</v>
+        <v>1.025077904699652</v>
       </c>
       <c r="F15">
-        <v>1.091659674266879</v>
+        <v>1.033615217957251</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054425395725622</v>
+        <v>1.056274579792318</v>
       </c>
       <c r="J15">
-        <v>1.083688393365071</v>
+        <v>1.039635770591332</v>
       </c>
       <c r="K15">
-        <v>1.085932490359059</v>
+        <v>1.040319497011774</v>
       </c>
       <c r="L15">
-        <v>1.084432495611116</v>
+        <v>1.039472503467455</v>
       </c>
       <c r="M15">
-        <v>1.095017138154205</v>
+        <v>1.04786130647865</v>
       </c>
       <c r="N15">
-        <v>1.085227355184445</v>
+        <v>1.041112172633461</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.078379427438812</v>
+        <v>1.016307655424438</v>
       </c>
       <c r="D16">
-        <v>1.08339483332343</v>
+        <v>1.030698479320967</v>
       </c>
       <c r="E16">
-        <v>1.081873453947364</v>
+        <v>1.0297347305216</v>
       </c>
       <c r="F16">
-        <v>1.092536094669129</v>
+        <v>1.038496938499628</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054677766447429</v>
+        <v>1.058203029322495</v>
       </c>
       <c r="J16">
-        <v>1.084417922840393</v>
+        <v>1.043814106276359</v>
       </c>
       <c r="K16">
-        <v>1.086671539446518</v>
+        <v>1.044499617831419</v>
       </c>
       <c r="L16">
-        <v>1.085155082019369</v>
+        <v>1.043551932287475</v>
       </c>
       <c r="M16">
-        <v>1.095783542880887</v>
+        <v>1.052169505900967</v>
       </c>
       <c r="N16">
-        <v>1.085957920675301</v>
+        <v>1.045296442034423</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.07896862751755</v>
+        <v>1.019658043517134</v>
       </c>
       <c r="D17">
-        <v>1.083927707538785</v>
+        <v>1.033625503785356</v>
       </c>
       <c r="E17">
-        <v>1.082396096320455</v>
+        <v>1.032599525678965</v>
       </c>
       <c r="F17">
-        <v>1.09308553122342</v>
+        <v>1.04150014708552</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054835314640334</v>
+        <v>1.059383459599057</v>
       </c>
       <c r="J17">
-        <v>1.08487495905132</v>
+        <v>1.046381202938659</v>
       </c>
       <c r="K17">
-        <v>1.087134608342535</v>
+        <v>1.047068569752668</v>
       </c>
       <c r="L17">
-        <v>1.085607838012633</v>
+        <v>1.046059131212848</v>
       </c>
       <c r="M17">
-        <v>1.096263796534962</v>
+        <v>1.054817656626141</v>
       </c>
       <c r="N17">
-        <v>1.08641560593007</v>
+        <v>1.047867184268434</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.079312141584747</v>
+        <v>1.021588435018262</v>
       </c>
       <c r="D18">
-        <v>1.084238402718114</v>
+        <v>1.035312850377201</v>
       </c>
       <c r="E18">
-        <v>1.082700828979925</v>
+        <v>1.034251093961771</v>
       </c>
       <c r="F18">
-        <v>1.093405895396204</v>
+        <v>1.043231535912629</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054926937677999</v>
+        <v>1.060061845553785</v>
       </c>
       <c r="J18">
-        <v>1.085141333964621</v>
+        <v>1.047859954943744</v>
       </c>
       <c r="K18">
-        <v>1.087404524088522</v>
+        <v>1.048548659967542</v>
       </c>
       <c r="L18">
-        <v>1.085871743306649</v>
+        <v>1.047503687031783</v>
       </c>
       <c r="M18">
-        <v>1.096543745000813</v>
+        <v>1.056343549083443</v>
       </c>
       <c r="N18">
-        <v>1.086682359126302</v>
+        <v>1.049348036270981</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.079429244712991</v>
+        <v>1.022242705709863</v>
       </c>
       <c r="D19">
-        <v>1.084344321350503</v>
+        <v>1.035884891433707</v>
       </c>
       <c r="E19">
-        <v>1.08280471548146</v>
+        <v>1.034811021315108</v>
       </c>
       <c r="F19">
-        <v>1.093515112343838</v>
+        <v>1.043818528994755</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054958132674391</v>
+        <v>1.060291473690861</v>
       </c>
       <c r="J19">
-        <v>1.085232126060908</v>
+        <v>1.048361091555842</v>
       </c>
       <c r="K19">
-        <v>1.087496527259108</v>
+        <v>1.049050295503603</v>
       </c>
       <c r="L19">
-        <v>1.08596169789334</v>
+        <v>1.047993286508751</v>
       </c>
       <c r="M19">
-        <v>1.096639170622686</v>
+        <v>1.056860736983651</v>
       </c>
       <c r="N19">
-        <v>1.08677328015778</v>
+        <v>1.049849884554549</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.078905428155178</v>
+        <v>1.019301067740627</v>
       </c>
       <c r="D20">
-        <v>1.08387054777365</v>
+        <v>1.033313543506407</v>
       </c>
       <c r="E20">
-        <v>1.082340033760756</v>
+        <v>1.032294187790794</v>
       </c>
       <c r="F20">
-        <v>1.093026593601628</v>
+        <v>1.041180054204541</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05481843937797</v>
+        <v>1.05925786795361</v>
       </c>
       <c r="J20">
-        <v>1.084825944800234</v>
+        <v>1.046107718620172</v>
       </c>
       <c r="K20">
-        <v>1.087084944558312</v>
+        <v>1.04679485970197</v>
       </c>
       <c r="L20">
-        <v>1.085559280198428</v>
+        <v>1.045791996011846</v>
       </c>
       <c r="M20">
-        <v>1.096212288043942</v>
+        <v>1.054535490349864</v>
       </c>
       <c r="N20">
-        <v>1.086366522073125</v>
+        <v>1.047593311570845</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.077200594668682</v>
+        <v>1.009449602313612</v>
       </c>
       <c r="D21">
-        <v>1.082328824055799</v>
+        <v>1.024713164944684</v>
       </c>
       <c r="E21">
-        <v>1.080827934075218</v>
+        <v>1.023877317591005</v>
       </c>
       <c r="F21">
-        <v>1.091437031136956</v>
+        <v>1.032356667949819</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054361078897529</v>
+        <v>1.055775547470702</v>
       </c>
       <c r="J21">
-        <v>1.083502969303522</v>
+        <v>1.038557484349701</v>
       </c>
       <c r="K21">
-        <v>1.085744667960752</v>
+        <v>1.039240992049771</v>
       </c>
       <c r="L21">
-        <v>1.084248857727286</v>
+        <v>1.038420020122675</v>
       </c>
       <c r="M21">
-        <v>1.094822377308826</v>
+        <v>1.046749911790848</v>
       </c>
       <c r="N21">
-        <v>1.085041667799461</v>
+        <v>1.040032355101686</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.076127236382542</v>
+        <v>1.003016125273541</v>
       </c>
       <c r="D22">
-        <v>1.081358345448068</v>
+        <v>1.019106006078784</v>
       </c>
       <c r="E22">
-        <v>1.079876132438243</v>
+        <v>1.018390775818528</v>
       </c>
       <c r="F22">
-        <v>1.090436549912817</v>
+        <v>1.026605318273012</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054071050043576</v>
+        <v>1.053485845926192</v>
       </c>
       <c r="J22">
-        <v>1.082669261280588</v>
+        <v>1.033624505877351</v>
       </c>
       <c r="K22">
-        <v>1.084900281224713</v>
+        <v>1.034308239066589</v>
       </c>
       <c r="L22">
-        <v>1.083423286545586</v>
+        <v>1.033606504480625</v>
       </c>
       <c r="M22">
-        <v>1.093946865378845</v>
+        <v>1.041667522846922</v>
       </c>
       <c r="N22">
-        <v>1.084206775815506</v>
+        <v>1.035092371234084</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.076696385062482</v>
+        <v>1.006450628342415</v>
       </c>
       <c r="D23">
-        <v>1.081872924245546</v>
+        <v>1.022098455282888</v>
       </c>
       <c r="E23">
-        <v>1.080380805309303</v>
+        <v>1.021318757567742</v>
       </c>
       <c r="F23">
-        <v>1.090967026543519</v>
+        <v>1.029674604689954</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054225034574209</v>
+        <v>1.054709625011489</v>
       </c>
       <c r="J23">
-        <v>1.083111407788795</v>
+        <v>1.036258146937946</v>
       </c>
       <c r="K23">
-        <v>1.085348069823939</v>
+        <v>1.036941511921495</v>
       </c>
       <c r="L23">
-        <v>1.083861096340235</v>
+        <v>1.036176078831216</v>
       </c>
       <c r="M23">
-        <v>1.094411146311561</v>
+        <v>1.044380516266417</v>
       </c>
       <c r="N23">
-        <v>1.08464955022247</v>
+        <v>1.037729752367069</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.078933985710144</v>
+        <v>1.019462443119545</v>
       </c>
       <c r="D24">
-        <v>1.083896376186362</v>
+        <v>1.033454566328605</v>
       </c>
       <c r="E24">
-        <v>1.082365366376437</v>
+        <v>1.032432216641734</v>
       </c>
       <c r="F24">
-        <v>1.093053225325105</v>
+        <v>1.041324753014773</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054826065423736</v>
+        <v>1.059314648651246</v>
       </c>
       <c r="J24">
-        <v>1.084848092869106</v>
+        <v>1.046231351673656</v>
       </c>
       <c r="K24">
-        <v>1.087107386055062</v>
+        <v>1.046918593964953</v>
       </c>
       <c r="L24">
-        <v>1.085581221939818</v>
+        <v>1.045912757889524</v>
       </c>
       <c r="M24">
-        <v>1.096235563056059</v>
+        <v>1.054663046827643</v>
       </c>
       <c r="N24">
-        <v>1.086388701594796</v>
+        <v>1.047717120197446</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.081524489341544</v>
+        <v>1.033635986432397</v>
       </c>
       <c r="D25">
-        <v>1.086239741212611</v>
+        <v>1.045857964986944</v>
       </c>
       <c r="E25">
-        <v>1.084663817428997</v>
+        <v>1.044574189364122</v>
       </c>
       <c r="F25">
-        <v>1.095469736850398</v>
+        <v>1.054054039994668</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055512860187475</v>
+        <v>1.064264037996681</v>
       </c>
       <c r="J25">
-        <v>1.086855335643543</v>
+        <v>1.057082069696979</v>
       </c>
       <c r="K25">
-        <v>1.089141756595509</v>
+        <v>1.057783787518427</v>
       </c>
       <c r="L25">
-        <v>1.087570305234925</v>
+        <v>1.056517824235909</v>
       </c>
       <c r="M25">
-        <v>1.098345838002558</v>
+        <v>1.065867429437495</v>
       </c>
       <c r="N25">
-        <v>1.088398794884206</v>
+        <v>1.058583247484957</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044302921569002</v>
+        <v>0.9850301309193398</v>
       </c>
       <c r="D2">
-        <v>1.055214984446122</v>
+        <v>1.000460192140935</v>
       </c>
       <c r="E2">
-        <v>1.053736497325608</v>
+        <v>0.9984234520265289</v>
       </c>
       <c r="F2">
-        <v>1.063660502364904</v>
+        <v>0.9980289449715186</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.067932744927692</v>
+        <v>1.037143104583881</v>
       </c>
       <c r="J2">
-        <v>1.065234726182869</v>
+        <v>1.007667997049649</v>
       </c>
       <c r="K2">
-        <v>1.065955169270102</v>
+        <v>1.011913119476891</v>
       </c>
       <c r="L2">
-        <v>1.064494717148207</v>
+        <v>1.009904794450789</v>
       </c>
       <c r="M2">
-        <v>1.074298858525423</v>
+        <v>1.009515808194793</v>
       </c>
       <c r="N2">
-        <v>1.066747481678179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.00661371575746</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.016103088003481</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.019493240946748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051723605192787</v>
+        <v>0.9901819721971243</v>
       </c>
       <c r="D3">
-        <v>1.061735446241443</v>
+        <v>1.004319313793156</v>
       </c>
       <c r="E3">
-        <v>1.060122567925088</v>
+        <v>1.00339226698228</v>
       </c>
       <c r="F3">
-        <v>1.070356792728706</v>
+        <v>1.00487355228192</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.070451216571486</v>
+        <v>1.040125282417752</v>
       </c>
       <c r="J3">
-        <v>1.070897097319371</v>
+        <v>1.010943912585276</v>
       </c>
       <c r="K3">
-        <v>1.071634951281897</v>
+        <v>1.01489722490929</v>
       </c>
       <c r="L3">
-        <v>1.070039895788752</v>
+        <v>1.013981926349464</v>
       </c>
       <c r="M3">
-        <v>1.080162146456313</v>
+        <v>1.015444452583171</v>
       </c>
       <c r="N3">
-        <v>1.072417894031179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.00770242568246</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.020795362083014</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.021600647004926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056388199823341</v>
+        <v>0.993397866064785</v>
       </c>
       <c r="D4">
-        <v>1.065838750610435</v>
+        <v>1.006732888552208</v>
       </c>
       <c r="E4">
-        <v>1.06414185492852</v>
+        <v>1.006468703979583</v>
       </c>
       <c r="F4">
-        <v>1.074571651818671</v>
+        <v>1.009052099652368</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.072018308512631</v>
+        <v>1.041877592014294</v>
       </c>
       <c r="J4">
-        <v>1.074451765720121</v>
+        <v>1.01297197625137</v>
       </c>
       <c r="K4">
-        <v>1.075202553661748</v>
+        <v>1.016750727096643</v>
       </c>
       <c r="L4">
-        <v>1.073523197634138</v>
+        <v>1.016489679382699</v>
       </c>
       <c r="M4">
-        <v>1.083846255574264</v>
+        <v>1.019042487803658</v>
       </c>
       <c r="N4">
-        <v>1.075977610468783</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.008376426735292</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.023643040424871</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.02291221870044</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.058318140110549</v>
+        <v>0.9947279680669222</v>
       </c>
       <c r="D5">
-        <v>1.067537489643487</v>
+        <v>1.007735192639885</v>
       </c>
       <c r="E5">
-        <v>1.0658059385255</v>
+        <v>1.007734925598025</v>
       </c>
       <c r="F5">
-        <v>1.076316788582299</v>
+        <v>1.010756538193771</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.072662782982679</v>
+        <v>1.0425754763815</v>
       </c>
       <c r="J5">
-        <v>1.075921307086759</v>
+        <v>1.013808447010549</v>
       </c>
       <c r="K5">
-        <v>1.07667791895439</v>
+        <v>1.017518867384059</v>
       </c>
       <c r="L5">
-        <v>1.074963757107842</v>
+        <v>1.017518603424937</v>
       </c>
       <c r="M5">
-        <v>1.085370095957334</v>
+        <v>1.020505463167606</v>
       </c>
       <c r="N5">
-        <v>1.077449238752721</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.00865469593841</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.024800914281107</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.0234627200907</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.058640413131341</v>
+        <v>0.9949549158699479</v>
       </c>
       <c r="D6">
-        <v>1.067821213777117</v>
+        <v>1.007909803107576</v>
       </c>
       <c r="E6">
-        <v>1.066083881807788</v>
+        <v>1.00794993167295</v>
       </c>
       <c r="F6">
-        <v>1.076608274648855</v>
+        <v>1.011042778962777</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.072770170326715</v>
+        <v>1.042690798681846</v>
       </c>
       <c r="J6">
-        <v>1.076166629211893</v>
+        <v>1.013952716615787</v>
       </c>
       <c r="K6">
-        <v>1.076924241256559</v>
+        <v>1.01765415351156</v>
       </c>
       <c r="L6">
-        <v>1.075204271568609</v>
+        <v>1.017693821045534</v>
       </c>
       <c r="M6">
-        <v>1.085624528709459</v>
+        <v>1.020751270890847</v>
       </c>
       <c r="N6">
-        <v>1.077694909263412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.008703031403186</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.024995458946854</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.023567325524547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056414107578885</v>
+        <v>0.9934294868368748</v>
       </c>
       <c r="D7">
-        <v>1.065861550713773</v>
+        <v>1.0067661526631</v>
       </c>
       <c r="E7">
-        <v>1.064164189398585</v>
+        <v>1.006496876431403</v>
       </c>
       <c r="F7">
-        <v>1.074595073815443</v>
+        <v>1.009083583190228</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.072026975515894</v>
+        <v>1.04188801927997</v>
       </c>
       <c r="J7">
-        <v>1.074471497747945</v>
+        <v>1.012996620713725</v>
       </c>
       <c r="K7">
-        <v>1.075222362006575</v>
+        <v>1.016780622116737</v>
       </c>
       <c r="L7">
-        <v>1.073542538454945</v>
+        <v>1.016514541886117</v>
       </c>
       <c r="M7">
-        <v>1.083866713588723</v>
+        <v>1.019070634708806</v>
       </c>
       <c r="N7">
-        <v>1.075997370518351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.008385555635119</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.02366531735016</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.022953935297758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046840267811473</v>
+        <v>0.9868144588667693</v>
       </c>
       <c r="D8">
-        <v>1.057443506601198</v>
+        <v>1.001807567654962</v>
       </c>
       <c r="E8">
-        <v>1.055918967468676</v>
+        <v>1.000147381538381</v>
       </c>
       <c r="F8">
-        <v>1.065948925396161</v>
+        <v>1.000408257096367</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.068797221767484</v>
+        <v>1.038191188277966</v>
       </c>
       <c r="J8">
-        <v>1.067171801728684</v>
+        <v>1.008812184361414</v>
       </c>
       <c r="K8">
-        <v>1.067897775385176</v>
+        <v>1.012963109832895</v>
       </c>
       <c r="L8">
-        <v>1.066391232026178</v>
+        <v>1.011325356817235</v>
       </c>
       <c r="M8">
-        <v>1.076303962924594</v>
+        <v>1.011582701118545</v>
       </c>
       <c r="N8">
-        <v>1.068687308093454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.006995198623599</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.01773895107495</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.020259207050819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02883260496347</v>
+        <v>0.9741142573906725</v>
       </c>
       <c r="D9">
-        <v>1.041650653113191</v>
+        <v>0.9923082117387361</v>
       </c>
       <c r="E9">
-        <v>1.040455132449612</v>
+        <v>0.9877232349692702</v>
       </c>
       <c r="F9">
-        <v>1.049735600765848</v>
+        <v>0.9828938207181224</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.062595471012966</v>
+        <v>1.03011967407795</v>
       </c>
       <c r="J9">
-        <v>1.053406739129448</v>
+        <v>1.000615430431323</v>
       </c>
       <c r="K9">
-        <v>1.054102280948892</v>
+        <v>1.005527327868366</v>
       </c>
       <c r="L9">
-        <v>1.052924263196836</v>
+        <v>1.001018684843259</v>
       </c>
       <c r="M9">
-        <v>1.06207018673021</v>
+        <v>0.9962706679210769</v>
       </c>
       <c r="N9">
-        <v>1.054902697526453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.004270121485572</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.005619991759993</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.014998036292572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015925726425869</v>
+        <v>0.9647479685012348</v>
       </c>
       <c r="D10">
-        <v>1.030364936106899</v>
+        <v>0.9853272413607442</v>
       </c>
       <c r="E10">
-        <v>1.029408291811316</v>
+        <v>0.9783343790935364</v>
       </c>
       <c r="F10">
-        <v>1.038154731009488</v>
+        <v>0.9692000834793363</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05806822938366</v>
+        <v>1.023313160708469</v>
       </c>
       <c r="J10">
-        <v>1.043521426063688</v>
+        <v>0.994433572553292</v>
       </c>
       <c r="K10">
-        <v>1.044206763238137</v>
+        <v>0.9999665687442968</v>
       </c>
       <c r="L10">
-        <v>1.043266123602063</v>
+        <v>0.9931061503737812</v>
       </c>
       <c r="M10">
-        <v>1.05186764659778</v>
+        <v>0.9841486351728066</v>
       </c>
       <c r="N10">
-        <v>1.045003346182279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.002220279164117</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>0.996079874853991</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.011083310327239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01008725849439</v>
+        <v>0.9604101348279868</v>
       </c>
       <c r="D11">
-        <v>1.025269323892601</v>
+        <v>0.982115854374732</v>
       </c>
       <c r="E11">
-        <v>1.024421554910212</v>
+        <v>0.9738601149147323</v>
       </c>
       <c r="F11">
-        <v>1.032927179568177</v>
+        <v>0.9627845480387567</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056001855361415</v>
+        <v>1.01991718073919</v>
       </c>
       <c r="J11">
-        <v>1.039046334479211</v>
+        <v>0.991527959861585</v>
       </c>
       <c r="K11">
-        <v>1.039729929224483</v>
+        <v>0.9973831085343985</v>
       </c>
       <c r="L11">
-        <v>1.038897158316517</v>
+        <v>0.9892924213580341</v>
       </c>
       <c r="M11">
-        <v>1.047253751624543</v>
+        <v>0.9784441584845602</v>
       </c>
       <c r="N11">
-        <v>1.040521899454452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.001297908476992</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>0.9920260957633479</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.009290547909734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.007877562259989</v>
+        <v>0.9586502744344311</v>
       </c>
       <c r="D12">
-        <v>1.023342352873492</v>
+        <v>0.9808037333147571</v>
       </c>
       <c r="E12">
-        <v>1.022535922139806</v>
+        <v>0.9719791574882156</v>
       </c>
       <c r="F12">
-        <v>1.030950519138126</v>
+        <v>0.9601828731851596</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055217117580651</v>
+        <v>1.018553186120534</v>
       </c>
       <c r="J12">
-        <v>1.037352231237145</v>
+        <v>0.9903139167728806</v>
       </c>
       <c r="K12">
-        <v>1.038035609556886</v>
+        <v>0.9963081817800896</v>
       </c>
       <c r="L12">
-        <v>1.037243741079249</v>
+        <v>0.9876636295423896</v>
       </c>
       <c r="M12">
-        <v>1.045507844564182</v>
+        <v>0.9761148418064336</v>
       </c>
       <c r="N12">
-        <v>1.038825390391466</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.000928025881928</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>0.9905272277821966</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.008530487426145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.008353467645096</v>
+        <v>0.9588689639148015</v>
       </c>
       <c r="D13">
-        <v>1.023757293741606</v>
+        <v>0.9809617028082732</v>
       </c>
       <c r="E13">
-        <v>1.022941953819253</v>
+        <v>0.9721154368328472</v>
       </c>
       <c r="F13">
-        <v>1.031376150425161</v>
+        <v>0.9606122418636555</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055386246587478</v>
+        <v>1.018830613506932</v>
       </c>
       <c r="J13">
-        <v>1.037717109096909</v>
+        <v>0.9904227407761704</v>
       </c>
       <c r="K13">
-        <v>1.038400513838461</v>
+        <v>0.9964176726408183</v>
       </c>
       <c r="L13">
-        <v>1.037599832604261</v>
+        <v>0.9877511904203703</v>
       </c>
       <c r="M13">
-        <v>1.045883846154735</v>
+        <v>0.9764883362416761</v>
       </c>
       <c r="N13">
-        <v>1.039190786419643</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.000993389174401</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>0.9911118873875803</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.008605322113025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.009905463230419</v>
+        <v>0.9599191982642217</v>
       </c>
       <c r="D14">
-        <v>1.025110756054228</v>
+        <v>0.9817406413514684</v>
       </c>
       <c r="E14">
-        <v>1.024266385304263</v>
+        <v>0.973123287976529</v>
       </c>
       <c r="F14">
-        <v>1.032764518658153</v>
+        <v>0.9622817983647272</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.05593734731626</v>
+        <v>1.019764726419538</v>
       </c>
       <c r="J14">
-        <v>1.038906965452429</v>
+        <v>0.9910981603815542</v>
       </c>
       <c r="K14">
-        <v>1.039590533338565</v>
+        <v>0.9970327510770715</v>
       </c>
       <c r="L14">
-        <v>1.038761125953267</v>
+        <v>0.9885881660295401</v>
       </c>
       <c r="M14">
-        <v>1.047110105676943</v>
+        <v>0.9779698476606199</v>
       </c>
       <c r="N14">
-        <v>1.040382332507666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.001236226061361</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>0.9924629198720155</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.009041710194984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.010856149377635</v>
+        <v>0.960611378238918</v>
       </c>
       <c r="D15">
-        <v>1.025940040857739</v>
+        <v>0.9822585321600362</v>
       </c>
       <c r="E15">
-        <v>1.025077904699652</v>
+        <v>0.9738161592347551</v>
       </c>
       <c r="F15">
-        <v>1.033615217957251</v>
+        <v>0.9633543364529572</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056274579792318</v>
+        <v>1.020336689947814</v>
       </c>
       <c r="J15">
-        <v>1.039635770591332</v>
+        <v>0.9915581560535078</v>
       </c>
       <c r="K15">
-        <v>1.040319497011774</v>
+        <v>0.9974491282770966</v>
       </c>
       <c r="L15">
-        <v>1.039472503467455</v>
+        <v>0.9891745719212298</v>
       </c>
       <c r="M15">
-        <v>1.04786130647865</v>
+        <v>0.9789260975559796</v>
       </c>
       <c r="N15">
-        <v>1.041112172633461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.001392922442913</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>0.9932575100485456</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.009342206380655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016307655424438</v>
+        <v>0.964741409759876</v>
       </c>
       <c r="D16">
-        <v>1.030698479320967</v>
+        <v>0.9853433979556997</v>
       </c>
       <c r="E16">
-        <v>1.0297347305216</v>
+        <v>0.9780585698970841</v>
       </c>
       <c r="F16">
-        <v>1.038496938499628</v>
+        <v>0.9696435512829545</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.058203029322495</v>
+        <v>1.023531831786121</v>
       </c>
       <c r="J16">
-        <v>1.043814106276359</v>
+        <v>0.9943457790149687</v>
       </c>
       <c r="K16">
-        <v>1.044499617831419</v>
+        <v>0.9999449494292801</v>
       </c>
       <c r="L16">
-        <v>1.043551932287475</v>
+        <v>0.9927977349358545</v>
       </c>
       <c r="M16">
-        <v>1.052169505900967</v>
+        <v>0.9845450559766905</v>
       </c>
       <c r="N16">
-        <v>1.045296442034423</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.002310970489331</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>0.9976585066665302</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.011110221659351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019658043517134</v>
+        <v>0.967317653881302</v>
       </c>
       <c r="D17">
-        <v>1.033625503785356</v>
+        <v>0.9872712920186377</v>
       </c>
       <c r="E17">
-        <v>1.032599525678965</v>
+        <v>0.9807248650885805</v>
       </c>
       <c r="F17">
-        <v>1.04150014708552</v>
+        <v>0.9734674029376207</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059383459599057</v>
+        <v>1.025407103652804</v>
       </c>
       <c r="J17">
-        <v>1.046381202938659</v>
+        <v>0.99609240607466</v>
       </c>
       <c r="K17">
-        <v>1.047068569752668</v>
+        <v>1.001506244174922</v>
       </c>
       <c r="L17">
-        <v>1.046059131212848</v>
+        <v>0.9950795140648141</v>
       </c>
       <c r="M17">
-        <v>1.054817656626141</v>
+        <v>0.9879572073443361</v>
       </c>
       <c r="N17">
-        <v>1.047867184268434</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.002875601297096</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.000222194597462</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.012216845454719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021588435018262</v>
+        <v>0.9688447864792622</v>
       </c>
       <c r="D18">
-        <v>1.035312850377201</v>
+        <v>0.9884093042102043</v>
       </c>
       <c r="E18">
-        <v>1.034251093961771</v>
+        <v>0.9823427863583095</v>
       </c>
       <c r="F18">
-        <v>1.043231535912629</v>
+        <v>0.9756614209590613</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060061845553785</v>
+        <v>1.02645963330807</v>
       </c>
       <c r="J18">
-        <v>1.047859954943744</v>
+        <v>0.99713876246182</v>
       </c>
       <c r="K18">
-        <v>1.048548659967542</v>
+        <v>1.002431153136913</v>
       </c>
       <c r="L18">
-        <v>1.047503687031783</v>
+        <v>0.9964734296528154</v>
       </c>
       <c r="M18">
-        <v>1.056343549083443</v>
+        <v>0.9899139248685659</v>
       </c>
       <c r="N18">
-        <v>1.049348036270981</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.003198098191388</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.001522744630979</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.012858802844845</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022242705709863</v>
+        <v>0.9694102398458732</v>
       </c>
       <c r="D19">
-        <v>1.035884891433707</v>
+        <v>0.9888345275812709</v>
       </c>
       <c r="E19">
-        <v>1.034811021315108</v>
+        <v>0.9829780164005627</v>
       </c>
       <c r="F19">
-        <v>1.043818528994755</v>
+        <v>0.9763573060347965</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060291473690861</v>
+        <v>1.026805810406114</v>
       </c>
       <c r="J19">
-        <v>1.048361091555842</v>
+        <v>0.9975391503130506</v>
       </c>
       <c r="K19">
-        <v>1.049050295503603</v>
+        <v>1.002783220504714</v>
       </c>
       <c r="L19">
-        <v>1.047993286508751</v>
+        <v>0.9970310251965939</v>
       </c>
       <c r="M19">
-        <v>1.056860736983651</v>
+        <v>0.9905302045080729</v>
       </c>
       <c r="N19">
-        <v>1.049849884554549</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.003300764947084</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.001671368308524</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.013114340253044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019301067740627</v>
+        <v>0.9672655499393242</v>
       </c>
       <c r="D20">
-        <v>1.033313543506407</v>
+        <v>0.9872266163588269</v>
       </c>
       <c r="E20">
-        <v>1.032294187790794</v>
+        <v>0.9808715427449149</v>
       </c>
       <c r="F20">
-        <v>1.041180054204541</v>
+        <v>0.9729237586280138</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05925786795361</v>
+        <v>1.025191895180593</v>
       </c>
       <c r="J20">
-        <v>1.046107718620172</v>
+        <v>0.996119376266272</v>
       </c>
       <c r="K20">
-        <v>1.04679485970197</v>
+        <v>1.001497851481701</v>
       </c>
       <c r="L20">
-        <v>1.045791996011846</v>
+        <v>0.9952592941746093</v>
       </c>
       <c r="M20">
-        <v>1.054535490349864</v>
+        <v>0.9874600272361386</v>
       </c>
       <c r="N20">
-        <v>1.047593311570845</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.002782332058509</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>0.998689525820095</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.012209530500142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.009449602313612</v>
+        <v>0.9599390334918168</v>
       </c>
       <c r="D21">
-        <v>1.024713164944684</v>
+        <v>0.9817610839666689</v>
       </c>
       <c r="E21">
-        <v>1.023877317591005</v>
+        <v>0.9734260125013192</v>
       </c>
       <c r="F21">
-        <v>1.032356667949819</v>
+        <v>0.9617998576335987</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055775547470702</v>
+        <v>1.019493126726834</v>
       </c>
       <c r="J21">
-        <v>1.038557484349701</v>
+        <v>0.9912127177182686</v>
       </c>
       <c r="K21">
-        <v>1.039240992049771</v>
+        <v>0.9970964376726192</v>
       </c>
       <c r="L21">
-        <v>1.038420020122675</v>
+        <v>0.9889289543608277</v>
       </c>
       <c r="M21">
-        <v>1.046749911790848</v>
+        <v>0.9775429774327981</v>
       </c>
       <c r="N21">
-        <v>1.040032355101686</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.001147665588488</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>0.9907973379532039</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.009100742539162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.003016125273541</v>
+        <v>0.9549988555244588</v>
       </c>
       <c r="D22">
-        <v>1.019106006078784</v>
+        <v>0.9780673653890265</v>
       </c>
       <c r="E22">
-        <v>1.018390775818528</v>
+        <v>0.9683221582415081</v>
       </c>
       <c r="F22">
-        <v>1.026605318273012</v>
+        <v>0.9540328423993748</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053485845926192</v>
+        <v>1.01536991165781</v>
       </c>
       <c r="J22">
-        <v>1.033624505877351</v>
+        <v>0.9878496282914235</v>
       </c>
       <c r="K22">
-        <v>1.034308239066589</v>
+        <v>0.9940862032266095</v>
       </c>
       <c r="L22">
-        <v>1.033606504480625</v>
+        <v>0.9845484087053095</v>
       </c>
       <c r="M22">
-        <v>1.041667522846922</v>
+        <v>0.970573434521947</v>
       </c>
       <c r="N22">
-        <v>1.035092371234084</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.000028702281502</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>0.9852809685871409</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.006958253103196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.006450628342415</v>
+        <v>0.9576386929031857</v>
       </c>
       <c r="D23">
-        <v>1.022098455282888</v>
+        <v>0.9800327582128305</v>
       </c>
       <c r="E23">
-        <v>1.021318757567742</v>
+        <v>0.9710616931192311</v>
       </c>
       <c r="F23">
-        <v>1.029674604689954</v>
+        <v>0.9582278140244584</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054709625011489</v>
+        <v>1.01761452609849</v>
       </c>
       <c r="J23">
-        <v>1.036258146937946</v>
+        <v>0.9896483484955964</v>
       </c>
       <c r="K23">
-        <v>1.036941511921495</v>
+        <v>0.9956881678404234</v>
       </c>
       <c r="L23">
-        <v>1.036176078831216</v>
+        <v>0.9869023893155193</v>
       </c>
       <c r="M23">
-        <v>1.044380516266417</v>
+        <v>0.9743415869179358</v>
       </c>
       <c r="N23">
-        <v>1.037729752367069</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.000626058223116</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>0.9882634547006587</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.00808099401043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019462443119545</v>
+        <v>0.967356258066452</v>
       </c>
       <c r="D24">
-        <v>1.033454566328605</v>
+        <v>0.987279385909817</v>
       </c>
       <c r="E24">
-        <v>1.032432216641734</v>
+        <v>0.9809686304403826</v>
       </c>
       <c r="F24">
-        <v>1.041324753014773</v>
+        <v>0.9730534917324529</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059314648651246</v>
+        <v>1.025273755338317</v>
       </c>
       <c r="J24">
-        <v>1.046231351673656</v>
+        <v>0.9961715090346995</v>
       </c>
       <c r="K24">
-        <v>1.046918593964953</v>
+        <v>1.001533634115736</v>
       </c>
       <c r="L24">
-        <v>1.045912757889524</v>
+        <v>0.9953384095544323</v>
       </c>
       <c r="M24">
-        <v>1.054663046827643</v>
+        <v>0.9875709411534965</v>
       </c>
       <c r="N24">
-        <v>1.047717120197446</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.002794418592587</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>0.9987343479080439</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.012206528464811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033635986432397</v>
+        <v>0.9775609652056447</v>
       </c>
       <c r="D25">
-        <v>1.045857964986944</v>
+        <v>0.9948971755207823</v>
       </c>
       <c r="E25">
-        <v>1.044574189364122</v>
+        <v>0.9911234726839926</v>
       </c>
       <c r="F25">
-        <v>1.054054039994668</v>
+        <v>0.9877472239216455</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.064264037996681</v>
+        <v>1.032425127295919</v>
       </c>
       <c r="J25">
-        <v>1.057082069696979</v>
+        <v>1.002867830686386</v>
       </c>
       <c r="K25">
-        <v>1.057783787518427</v>
+        <v>1.007575226144393</v>
       </c>
       <c r="L25">
-        <v>1.056517824235909</v>
+        <v>1.003861166143985</v>
       </c>
       <c r="M25">
-        <v>1.065867429437495</v>
+        <v>1.000538773814184</v>
       </c>
       <c r="N25">
-        <v>1.058583247484957</v>
+        <v>1.005020582709249</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.008998076905726</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.016475538696924</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9850301309193398</v>
+        <v>0.9869367572505156</v>
       </c>
       <c r="D2">
-        <v>1.000460192140935</v>
+        <v>1.00285225106439</v>
       </c>
       <c r="E2">
-        <v>0.9984234520265289</v>
+        <v>0.9999383445779839</v>
       </c>
       <c r="F2">
-        <v>0.9980289449715186</v>
+        <v>0.999199468944309</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.037143104583881</v>
+        <v>1.037280399392196</v>
       </c>
       <c r="J2">
-        <v>1.007667997049649</v>
+        <v>1.009515333716468</v>
       </c>
       <c r="K2">
-        <v>1.011913119476891</v>
+        <v>1.014271992010033</v>
       </c>
       <c r="L2">
-        <v>1.009904794450789</v>
+        <v>1.011398538425065</v>
       </c>
       <c r="M2">
-        <v>1.009515808194793</v>
+        <v>1.010669967713691</v>
       </c>
       <c r="N2">
-        <v>1.00661371575746</v>
+        <v>1.009836837452037</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.016103088003481</v>
+        <v>1.017016559594602</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.019493240946748</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.021170248672299</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.015969609081369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9901819721971243</v>
+        <v>0.9917735772051905</v>
       </c>
       <c r="D3">
-        <v>1.004319313793156</v>
+        <v>1.006273909885393</v>
       </c>
       <c r="E3">
-        <v>1.00339226698228</v>
+        <v>1.004656054404732</v>
       </c>
       <c r="F3">
-        <v>1.00487355228192</v>
+        <v>1.005844123045015</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.040125282417752</v>
+        <v>1.04023585852667</v>
       </c>
       <c r="J3">
-        <v>1.010943912585276</v>
+        <v>1.01249104300484</v>
       </c>
       <c r="K3">
-        <v>1.01489722490929</v>
+        <v>1.016827139352214</v>
       </c>
       <c r="L3">
-        <v>1.013981926349464</v>
+        <v>1.015229704784667</v>
       </c>
       <c r="M3">
-        <v>1.015444452583171</v>
+        <v>1.016402769377148</v>
       </c>
       <c r="N3">
-        <v>1.00770242568246</v>
+        <v>1.010622644569978</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.020795362083014</v>
+        <v>1.021553826646516</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.021600647004926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.022974032369055</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.016549739481242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.993397866064785</v>
+        <v>0.9947965538061624</v>
       </c>
       <c r="D4">
-        <v>1.006732888552208</v>
+        <v>1.008417465717613</v>
       </c>
       <c r="E4">
-        <v>1.006468703979583</v>
+        <v>1.007578945331097</v>
       </c>
       <c r="F4">
-        <v>1.009052099652368</v>
+        <v>1.009901802654337</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.041877592014294</v>
+        <v>1.041972819491868</v>
       </c>
       <c r="J4">
-        <v>1.01297197625137</v>
+        <v>1.014334307392073</v>
       </c>
       <c r="K4">
-        <v>1.016750727096643</v>
+        <v>1.018415349911443</v>
       </c>
       <c r="L4">
-        <v>1.016489679382699</v>
+        <v>1.017586751732151</v>
       </c>
       <c r="M4">
-        <v>1.019042487803658</v>
+        <v>1.019882172717028</v>
       </c>
       <c r="N4">
-        <v>1.008376426735292</v>
+        <v>1.01110944208511</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.023643040424871</v>
+        <v>1.024307610441449</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.02291221870044</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.024098079792213</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.016906708500499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9947279680669222</v>
+        <v>0.996047558221049</v>
       </c>
       <c r="D5">
-        <v>1.007735192639885</v>
+        <v>1.009308666381817</v>
       </c>
       <c r="E5">
-        <v>1.007734925598025</v>
+        <v>1.008782247173345</v>
       </c>
       <c r="F5">
-        <v>1.010756538193771</v>
+        <v>1.011557001839241</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.0425754763815</v>
+        <v>1.042664612552441</v>
       </c>
       <c r="J5">
-        <v>1.013808447010549</v>
+        <v>1.015094791684234</v>
       </c>
       <c r="K5">
-        <v>1.017518867384059</v>
+        <v>1.019074211885196</v>
       </c>
       <c r="L5">
-        <v>1.017518603424937</v>
+        <v>1.018553850196093</v>
       </c>
       <c r="M5">
-        <v>1.020505463167606</v>
+        <v>1.021296763268142</v>
       </c>
       <c r="N5">
-        <v>1.00865469593841</v>
+        <v>1.011310501585345</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.024800914281107</v>
+        <v>1.025427189008114</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.0234627200907</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.024572010083368</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.017054397669005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9949549158699479</v>
+        <v>0.9962609141114819</v>
       </c>
       <c r="D6">
-        <v>1.007909803107576</v>
+        <v>1.009464249919103</v>
       </c>
       <c r="E6">
-        <v>1.00794993167295</v>
+        <v>1.008986435419042</v>
       </c>
       <c r="F6">
-        <v>1.011042778962777</v>
+        <v>1.011834800322129</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.042690798681846</v>
+        <v>1.042778902318066</v>
       </c>
       <c r="J6">
-        <v>1.013952716615787</v>
+        <v>1.015225986050832</v>
       </c>
       <c r="K6">
-        <v>1.01765415351156</v>
+        <v>1.019190774567762</v>
       </c>
       <c r="L6">
-        <v>1.017693821045534</v>
+        <v>1.018718432230945</v>
       </c>
       <c r="M6">
-        <v>1.020751270890847</v>
+        <v>1.021534270540648</v>
       </c>
       <c r="N6">
-        <v>1.008703031403186</v>
+        <v>1.011345443265322</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.024995458946854</v>
+        <v>1.025615164105423</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.023567325524547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.024664238501312</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.017081040172151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9934294868368748</v>
+        <v>0.99483369061118</v>
       </c>
       <c r="D7">
-        <v>1.0067661526631</v>
+        <v>1.00845392892271</v>
       </c>
       <c r="E7">
-        <v>1.006496876431403</v>
+        <v>1.007611588037762</v>
       </c>
       <c r="F7">
-        <v>1.009083583190228</v>
+        <v>1.009936684597029</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04188801927997</v>
+        <v>1.041983619043672</v>
       </c>
       <c r="J7">
-        <v>1.012996620713725</v>
+        <v>1.014364341314004</v>
       </c>
       <c r="K7">
-        <v>1.016780622116737</v>
+        <v>1.018448414551592</v>
       </c>
       <c r="L7">
-        <v>1.016514541886117</v>
+        <v>1.017616036892271</v>
       </c>
       <c r="M7">
-        <v>1.019070634708806</v>
+        <v>1.019913682150358</v>
       </c>
       <c r="N7">
-        <v>1.008385555635119</v>
+        <v>1.011144046396524</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.02366531735016</v>
+        <v>1.024332548622019</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.022953935297758</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.024144023093974</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.016916167198792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9868144588667693</v>
+        <v>0.9886345997619234</v>
       </c>
       <c r="D8">
-        <v>1.001807567654962</v>
+        <v>1.004065934337817</v>
       </c>
       <c r="E8">
-        <v>1.000147381538381</v>
+        <v>1.001593580404558</v>
       </c>
       <c r="F8">
-        <v>1.000408257096367</v>
+        <v>1.001523248153242</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.038191188277966</v>
+        <v>1.038320618419063</v>
       </c>
       <c r="J8">
-        <v>1.008812184361414</v>
+        <v>1.010577704708474</v>
       </c>
       <c r="K8">
-        <v>1.012963109832895</v>
+        <v>1.015191110202354</v>
       </c>
       <c r="L8">
-        <v>1.011325356817235</v>
+        <v>1.012752008814675</v>
       </c>
       <c r="M8">
-        <v>1.011582701118545</v>
+        <v>1.012682625534204</v>
       </c>
       <c r="N8">
-        <v>1.006995198623599</v>
+        <v>1.010197280710151</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.01773895107495</v>
+        <v>1.018609495603937</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.020259207050819</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.021845910859736</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.016182563213012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9741142573906725</v>
+        <v>0.976742327928098</v>
       </c>
       <c r="D9">
-        <v>0.9923082117387361</v>
+        <v>0.9956705806032925</v>
       </c>
       <c r="E9">
-        <v>0.9877232349692702</v>
+        <v>0.9898160323194145</v>
       </c>
       <c r="F9">
-        <v>0.9828938207181224</v>
+        <v>0.9845361101142257</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.03011967407795</v>
+        <v>1.030327168373734</v>
       </c>
       <c r="J9">
-        <v>1.000615430431323</v>
+        <v>1.003143979474621</v>
       </c>
       <c r="K9">
-        <v>1.005527327868366</v>
+        <v>1.008834292341789</v>
       </c>
       <c r="L9">
-        <v>1.001018684843259</v>
+        <v>1.003076526909979</v>
       </c>
       <c r="M9">
-        <v>0.9962706679210769</v>
+        <v>0.9978851617590311</v>
       </c>
       <c r="N9">
-        <v>1.004270121485572</v>
+        <v>1.00824337780971</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.005619991759993</v>
+        <v>1.006897820094922</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.014998036292572</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.017347475488565</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.014715506927194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9647479685012348</v>
+        <v>0.9680403124830114</v>
       </c>
       <c r="D10">
-        <v>0.9853272413607442</v>
+        <v>0.9895591007697391</v>
       </c>
       <c r="E10">
-        <v>0.9783343790935364</v>
+        <v>0.9809638519093891</v>
       </c>
       <c r="F10">
-        <v>0.9692000834793363</v>
+        <v>0.971298850630699</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.023313160708469</v>
+        <v>1.023600569407702</v>
       </c>
       <c r="J10">
-        <v>0.994433572553292</v>
+        <v>0.997581948026504</v>
       </c>
       <c r="K10">
-        <v>0.9999665687442968</v>
+        <v>1.004119462938948</v>
       </c>
       <c r="L10">
-        <v>0.9931061503737812</v>
+        <v>0.9956855316640426</v>
       </c>
       <c r="M10">
-        <v>0.9841486351728066</v>
+        <v>0.9862063980198827</v>
       </c>
       <c r="N10">
-        <v>1.002220279164117</v>
+        <v>1.006896127747142</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>0.996079874853991</v>
+        <v>0.9977084505208178</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.011083310327239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.014032628919809</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.013609671548915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9604101348279868</v>
+        <v>0.9640614812340941</v>
       </c>
       <c r="D11">
-        <v>0.982115854374732</v>
+        <v>0.9867927435685268</v>
       </c>
       <c r="E11">
-        <v>0.9738601149147323</v>
+        <v>0.9767808633611395</v>
       </c>
       <c r="F11">
-        <v>0.9627845480387567</v>
+        <v>0.9651383010466655</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.01991718073919</v>
+        <v>1.020253962406628</v>
       </c>
       <c r="J11">
-        <v>0.991527959861585</v>
+        <v>0.9950097279488537</v>
       </c>
       <c r="K11">
-        <v>0.9973831085343985</v>
+        <v>1.001968102703586</v>
       </c>
       <c r="L11">
-        <v>0.9892924213580341</v>
+        <v>0.9921543572954348</v>
       </c>
       <c r="M11">
-        <v>0.9784441584845602</v>
+        <v>0.9807490289026143</v>
       </c>
       <c r="N11">
-        <v>1.001297908476992</v>
+        <v>1.006476914161458</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>0.9920260957633479</v>
+        <v>0.9938492278232162</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.009290547909734</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.012548593267445</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01312295454982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9586502744344311</v>
+        <v>0.962447141596112</v>
       </c>
       <c r="D12">
-        <v>0.9808037333147571</v>
+        <v>0.9856625059057407</v>
       </c>
       <c r="E12">
-        <v>0.9719791574882156</v>
+        <v>0.9750179950759077</v>
       </c>
       <c r="F12">
-        <v>0.9601828731851596</v>
+        <v>0.9626424749886564</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.018553186120534</v>
+        <v>1.018911597131094</v>
       </c>
       <c r="J12">
-        <v>0.9903139167728806</v>
+        <v>0.9939304517187058</v>
       </c>
       <c r="K12">
-        <v>0.9963081817800896</v>
+        <v>1.001069642923299</v>
       </c>
       <c r="L12">
-        <v>0.9876636295423896</v>
+        <v>0.9906399888869909</v>
       </c>
       <c r="M12">
-        <v>0.9761148418064336</v>
+        <v>0.9785221762737076</v>
       </c>
       <c r="N12">
-        <v>1.000928025881928</v>
+        <v>1.006317061595461</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>0.9905272277821966</v>
+        <v>0.9924306945363655</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.008530487426145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.011913329262941</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.012923842564653</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9588689639148015</v>
+        <v>0.9626324362443229</v>
       </c>
       <c r="D13">
-        <v>0.9809617028082732</v>
+        <v>0.9857882898783351</v>
       </c>
       <c r="E13">
-        <v>0.9721154368328472</v>
+        <v>0.9751260167475538</v>
       </c>
       <c r="F13">
-        <v>0.9606122418636555</v>
+        <v>0.9630481951282267</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.018830613506932</v>
+        <v>1.019184208657785</v>
       </c>
       <c r="J13">
-        <v>0.9904227407761704</v>
+        <v>0.9940082356978481</v>
       </c>
       <c r="K13">
-        <v>0.9964176726408183</v>
+        <v>1.001147956006381</v>
       </c>
       <c r="L13">
-        <v>0.9877511904203703</v>
+        <v>0.9907001032146976</v>
       </c>
       <c r="M13">
-        <v>0.9764883362416761</v>
+        <v>0.9788727600421885</v>
       </c>
       <c r="N13">
-        <v>1.000993389174401</v>
+        <v>1.006334165472729</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>0.9911118873875803</v>
+        <v>0.9929967221204493</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.008605322113025</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.011965879545167</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.012953305116994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9599191982642217</v>
+        <v>0.9635788788878121</v>
       </c>
       <c r="D14">
-        <v>0.9817406413514684</v>
+        <v>0.986448264109686</v>
       </c>
       <c r="E14">
-        <v>0.973123287976529</v>
+        <v>0.9760484830562812</v>
       </c>
       <c r="F14">
-        <v>0.9622817983647272</v>
+        <v>0.9646431749992759</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.019764726419538</v>
+        <v>1.020103195852156</v>
       </c>
       <c r="J14">
-        <v>0.9910981603815542</v>
+        <v>0.9945873823807906</v>
       </c>
       <c r="K14">
-        <v>0.9970327510770715</v>
+        <v>1.001647663954546</v>
       </c>
       <c r="L14">
-        <v>0.9885881660295401</v>
+        <v>0.9914542640053922</v>
       </c>
       <c r="M14">
-        <v>0.9779698476606199</v>
+        <v>0.9802820510524851</v>
       </c>
       <c r="N14">
-        <v>1.001236226061361</v>
+        <v>1.006427542046354</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>0.9924629198720155</v>
+        <v>0.9942904046283888</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.009041710194984</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.012320815794414</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.013078250990773</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.960611378238918</v>
+        <v>0.9642073558783305</v>
       </c>
       <c r="D15">
-        <v>0.9822585321600362</v>
+        <v>0.9868906777793263</v>
       </c>
       <c r="E15">
-        <v>0.9738161592347551</v>
+        <v>0.9766892250770589</v>
       </c>
       <c r="F15">
-        <v>0.9633543364529572</v>
+        <v>0.9656700445301061</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.020336689947814</v>
+        <v>1.020666107629343</v>
       </c>
       <c r="J15">
-        <v>0.9915581560535078</v>
+        <v>0.9949882342393701</v>
       </c>
       <c r="K15">
-        <v>0.9974491282770966</v>
+        <v>1.001990795606312</v>
       </c>
       <c r="L15">
-        <v>0.9891745719212298</v>
+        <v>0.9919900990310474</v>
       </c>
       <c r="M15">
-        <v>0.9789260975559796</v>
+        <v>0.9811940556353204</v>
       </c>
       <c r="N15">
-        <v>1.001392922442913</v>
+        <v>1.00649390291929</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>0.9932575100485456</v>
+        <v>0.9950499768330093</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.009342206380655</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.012570073565715</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.013161140896672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.964741409759876</v>
+        <v>0.9679857286817448</v>
       </c>
       <c r="D16">
-        <v>0.9853433979556997</v>
+        <v>0.9895446152874547</v>
       </c>
       <c r="E16">
-        <v>0.9780585698970841</v>
+        <v>0.9806454454614963</v>
       </c>
       <c r="F16">
-        <v>0.9696435512829545</v>
+        <v>0.9717100032809411</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.023531831786121</v>
+        <v>1.023814051014136</v>
       </c>
       <c r="J16">
-        <v>0.9943457790149687</v>
+        <v>0.9974486752392216</v>
       </c>
       <c r="K16">
-        <v>0.9999449494292801</v>
+        <v>1.004068004883392</v>
       </c>
       <c r="L16">
-        <v>0.9927977349358545</v>
+        <v>0.9953354372613008</v>
       </c>
       <c r="M16">
-        <v>0.9845450559766905</v>
+        <v>0.9865713012725944</v>
       </c>
       <c r="N16">
-        <v>1.002310970489331</v>
+        <v>1.006929805822362</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>0.9976585066665302</v>
+        <v>0.9992599931685194</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.011110221659351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.014042356948963</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.013649718100734</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.967317653881302</v>
+        <v>0.9703607925406281</v>
       </c>
       <c r="D17">
-        <v>0.9872712920186377</v>
+        <v>0.9912170385070832</v>
       </c>
       <c r="E17">
-        <v>0.9807248650885805</v>
+        <v>0.9831489331304699</v>
       </c>
       <c r="F17">
-        <v>0.9734674029376207</v>
+        <v>0.9753937533430581</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.025407103652804</v>
+        <v>1.025664243397695</v>
       </c>
       <c r="J17">
-        <v>0.99609240607466</v>
+        <v>0.999007619034476</v>
       </c>
       <c r="K17">
-        <v>1.001506244174922</v>
+        <v>1.00538083754258</v>
       </c>
       <c r="L17">
-        <v>0.9950795140648141</v>
+        <v>0.9974590177011824</v>
       </c>
       <c r="M17">
-        <v>0.9879572073443361</v>
+        <v>0.9898474274500751</v>
       </c>
       <c r="N17">
-        <v>1.002875601297096</v>
+        <v>1.007235945270069</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.000222194597462</v>
+        <v>1.00171633225496</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.012216845454719</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.014973520917032</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.013953811233923</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9688447864792622</v>
+        <v>0.971780081503315</v>
       </c>
       <c r="D18">
-        <v>0.9884093042102043</v>
+        <v>0.9922115322391828</v>
       </c>
       <c r="E18">
-        <v>0.9823427863583095</v>
+        <v>0.9846801555783066</v>
       </c>
       <c r="F18">
-        <v>0.9756614209590613</v>
+        <v>0.9775131929373601</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.02645963330807</v>
+        <v>1.026703747953752</v>
       </c>
       <c r="J18">
-        <v>0.99713876246182</v>
+        <v>0.9999532924319031</v>
       </c>
       <c r="K18">
-        <v>1.002431153136913</v>
+        <v>1.006166072840071</v>
       </c>
       <c r="L18">
-        <v>0.9964734296528154</v>
+        <v>0.9987686752132188</v>
       </c>
       <c r="M18">
-        <v>0.9899139248685659</v>
+        <v>0.9917317053099645</v>
       </c>
       <c r="N18">
-        <v>1.003198098191388</v>
+        <v>1.007427149159785</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.001522744630979</v>
+        <v>1.002959944586764</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.012858802844845</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.015515587911942</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.014128416296439</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9694102398458732</v>
+        <v>0.972314587286925</v>
       </c>
       <c r="D19">
-        <v>0.9888345275812709</v>
+        <v>0.9925895965759756</v>
       </c>
       <c r="E19">
-        <v>0.9829780164005627</v>
+        <v>0.9852912149037057</v>
       </c>
       <c r="F19">
-        <v>0.9763573060347965</v>
+        <v>0.9781877128367055</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.026805810406114</v>
+        <v>1.027046121260599</v>
       </c>
       <c r="J19">
-        <v>0.9975391503130506</v>
+        <v>1.000324901644444</v>
       </c>
       <c r="K19">
-        <v>1.002783220504714</v>
+        <v>1.006472243431002</v>
       </c>
       <c r="L19">
-        <v>0.9970310251965939</v>
+        <v>0.999302828756397</v>
       </c>
       <c r="M19">
-        <v>0.9905302045080729</v>
+        <v>0.9923272545998005</v>
       </c>
       <c r="N19">
-        <v>1.003300764947084</v>
+        <v>1.007492802224542</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.001671368308524</v>
+        <v>1.003092681314058</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.013114340253044</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.015739279995782</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.014187968563672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9672655499393242</v>
+        <v>0.9703527620902934</v>
       </c>
       <c r="D20">
-        <v>0.9872266163588269</v>
+        <v>0.9912035581253936</v>
       </c>
       <c r="E20">
-        <v>0.9808715427449149</v>
+        <v>0.9833344102700861</v>
       </c>
       <c r="F20">
-        <v>0.9729237586280138</v>
+        <v>0.9748799941895595</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.025191895180593</v>
+        <v>1.025453667472222</v>
       </c>
       <c r="J20">
-        <v>0.996119376266272</v>
+        <v>0.9990763903262029</v>
       </c>
       <c r="K20">
-        <v>1.001497851481701</v>
+        <v>1.005402866204566</v>
       </c>
       <c r="L20">
-        <v>0.9952592941746093</v>
+        <v>0.997676773737336</v>
       </c>
       <c r="M20">
-        <v>0.9874600272361386</v>
+        <v>0.9893794139580195</v>
       </c>
       <c r="N20">
-        <v>1.002782332058509</v>
+        <v>1.007192885348356</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>0.998689525820095</v>
+        <v>1.000208602134043</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.012209530500142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.014987587546072</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.013914971258163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9599390334918168</v>
+        <v>0.9636722297754222</v>
       </c>
       <c r="D21">
-        <v>0.9817610839666689</v>
+        <v>0.9865185739713845</v>
       </c>
       <c r="E21">
-        <v>0.9734260125013192</v>
+        <v>0.9764159395599927</v>
       </c>
       <c r="F21">
-        <v>0.9617998576335987</v>
+        <v>0.9642115069477549</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.019493126726834</v>
+        <v>1.019840062934024</v>
       </c>
       <c r="J21">
-        <v>0.9912127177182686</v>
+        <v>0.9947714324073893</v>
       </c>
       <c r="K21">
-        <v>0.9970964376726192</v>
+        <v>1.001759937926668</v>
       </c>
       <c r="L21">
-        <v>0.9889289543608277</v>
+        <v>0.9918583314931766</v>
       </c>
       <c r="M21">
-        <v>0.9775429774327981</v>
+        <v>0.9799041766230201</v>
       </c>
       <c r="N21">
-        <v>1.001147665588488</v>
+        <v>1.006474460293566</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>0.9907973379532039</v>
+        <v>0.9926662074367436</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.009100742539162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.012415486094055</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.013054841210132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9549988555244588</v>
+        <v>0.9591758414236289</v>
       </c>
       <c r="D22">
-        <v>0.9780673653890265</v>
+        <v>0.9833585404212341</v>
       </c>
       <c r="E22">
-        <v>0.9683221582415081</v>
+        <v>0.9716781699637834</v>
       </c>
       <c r="F22">
-        <v>0.9540328423993748</v>
+        <v>0.9567736154060786</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.01536991165781</v>
+        <v>1.01578730274013</v>
       </c>
       <c r="J22">
-        <v>0.9878496282914235</v>
+        <v>0.9918186323796214</v>
       </c>
       <c r="K22">
-        <v>0.9940862032266095</v>
+        <v>0.9992670369075636</v>
       </c>
       <c r="L22">
-        <v>0.9845484087053095</v>
+        <v>0.9878323701016025</v>
       </c>
       <c r="M22">
-        <v>0.970573434521947</v>
+        <v>0.9732529459175711</v>
       </c>
       <c r="N22">
-        <v>1.000028702281502</v>
+        <v>1.005954358734576</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>0.9852809685871409</v>
+        <v>0.9874017987799757</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.006958253103196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.010637565958775</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.01246018760448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9576386929031857</v>
+        <v>0.9615650705897534</v>
       </c>
       <c r="D23">
-        <v>0.9800327582128305</v>
+        <v>0.9850280489861065</v>
       </c>
       <c r="E23">
-        <v>0.9710616931192311</v>
+        <v>0.9742104898847954</v>
       </c>
       <c r="F23">
-        <v>0.9582278140244584</v>
+        <v>0.9607816616664084</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.01761452609849</v>
+        <v>1.017991383640803</v>
       </c>
       <c r="J23">
-        <v>0.9896483484955964</v>
+        <v>0.9933856439705732</v>
       </c>
       <c r="K23">
-        <v>0.9956881678404234</v>
+        <v>1.000582212289196</v>
       </c>
       <c r="L23">
-        <v>0.9869023893155193</v>
+        <v>0.9899856381255455</v>
       </c>
       <c r="M23">
-        <v>0.9743415869179358</v>
+        <v>0.9768403231431017</v>
       </c>
       <c r="N23">
-        <v>1.000626058223116</v>
+        <v>1.006189846971696</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>0.9882634547006587</v>
+        <v>0.9902411918121854</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.00808099401043</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.011556576152252</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.012772166240068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.967356258066452</v>
+        <v>0.9704385353978601</v>
       </c>
       <c r="D24">
-        <v>0.987279385909817</v>
+        <v>0.9912490790668245</v>
       </c>
       <c r="E24">
-        <v>0.9809686304403826</v>
+        <v>0.9834276841003408</v>
       </c>
       <c r="F24">
-        <v>0.9730534917324529</v>
+        <v>0.9750062523164543</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.025273755338317</v>
+        <v>1.025534793167207</v>
       </c>
       <c r="J24">
-        <v>0.9961715090346995</v>
+        <v>0.9991240142386222</v>
       </c>
       <c r="K24">
-        <v>1.001533634115736</v>
+        <v>1.005431633469521</v>
       </c>
       <c r="L24">
-        <v>0.9953384095544323</v>
+        <v>0.9977522157166723</v>
       </c>
       <c r="M24">
-        <v>0.9875709411534965</v>
+        <v>0.9894869787708047</v>
       </c>
       <c r="N24">
-        <v>1.002794418592587</v>
+        <v>1.00719779536105</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>0.9987343479080439</v>
+        <v>1.000250856394575</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.012206528464811</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.014976996449259</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.013917741575483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9775609652056447</v>
+        <v>0.9799543546928476</v>
       </c>
       <c r="D25">
-        <v>0.9948971755207823</v>
+        <v>0.997947571317646</v>
       </c>
       <c r="E25">
-        <v>0.9911234726839926</v>
+        <v>0.9930277503369528</v>
       </c>
       <c r="F25">
-        <v>0.9877472239216455</v>
+        <v>0.9892337212225411</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.032425127295919</v>
+        <v>1.032608244180778</v>
       </c>
       <c r="J25">
-        <v>1.002867830686386</v>
+        <v>1.005175693282775</v>
       </c>
       <c r="K25">
-        <v>1.007575226144393</v>
+        <v>1.010577832371689</v>
       </c>
       <c r="L25">
-        <v>1.003861166143985</v>
+        <v>1.005735274417054</v>
       </c>
       <c r="M25">
-        <v>1.000538773814184</v>
+        <v>1.002001501103819</v>
       </c>
       <c r="N25">
-        <v>1.005020582709249</v>
+        <v>1.008748058681673</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.008998076905726</v>
+        <v>1.010155780094455</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.016475538696924</v>
+        <v>1.018612512107809</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.015123357258747</v>
       </c>
     </row>
   </sheetData>
